--- a/ML Results/Model9a_Results.xlsx
+++ b/ML Results/Model9a_Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bever\Documents\Papers\Journal Papers\2023 Geosciences Special Issue (ML in Engineering Geology)\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bever\Dropbox\Beverly - Files\Geosciences 2023 - ML Special Issue\ML Models Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51F8C598-8854-4ADB-A23D-42823796C5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0C5BA4A-046B-4E6F-8FD1-13D44B865E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,10 +567,10 @@
         <v>0.3429959725847842</v>
       </c>
       <c r="E2">
-        <v>0.53187794546373346</v>
+        <v>0.493349261708519</v>
       </c>
       <c r="F2">
-        <v>0.3036520137501898</v>
+        <v>0.33734349888349258</v>
       </c>
       <c r="G2">
         <v>0.51818181818181819</v>
@@ -579,10 +579,10 @@
         <v>0.26236904761904761</v>
       </c>
       <c r="I2">
-        <v>0.60418445772843721</v>
+        <v>0.33075635741648068</v>
       </c>
       <c r="J2">
-        <v>0.29029765288876741</v>
+        <v>0.9510783414420485</v>
       </c>
       <c r="K2">
         <v>550</v>
@@ -594,10 +594,10 @@
         <v>0.39232373669056669</v>
       </c>
       <c r="N2">
-        <v>0.63514864765992729</v>
+        <v>0.42883979637525982</v>
       </c>
       <c r="O2">
-        <v>0.26807393824024811</v>
+        <v>0.5341121221666838</v>
       </c>
       <c r="P2">
         <v>0.45454545454545447</v>
@@ -606,10 +606,10 @@
         <v>0.16240556828792119</v>
       </c>
       <c r="R2">
-        <v>0.3898377455166524</v>
+        <v>0.36178768142178991</v>
       </c>
       <c r="S2">
-        <v>0.36042903727237469</v>
+        <v>0.40629101633672149</v>
       </c>
       <c r="T2">
         <v>550</v>
@@ -621,10 +621,10 @@
         <v>0.34895280507189808</v>
       </c>
       <c r="W2">
-        <v>0.60157124616373459</v>
+        <v>0.40083392189888462</v>
       </c>
       <c r="X2">
-        <v>0.28013795302899019</v>
+        <v>0.54761377895283081</v>
       </c>
       <c r="Y2">
         <v>0.45454545454545447</v>
@@ -633,10 +633,10 @@
         <v>0.15397928784224721</v>
       </c>
       <c r="AA2">
-        <v>0.41033304867634518</v>
+        <v>0.42337349438816452</v>
       </c>
       <c r="AB2">
-        <v>0.35432394012464707</v>
+        <v>0.38321605568889011</v>
       </c>
       <c r="AC2">
         <v>550</v>
@@ -648,10 +648,10 @@
         <v>0.36688997468448847</v>
       </c>
       <c r="AF2">
-        <v>0.55299363094072063</v>
+        <v>0.3757320422789272</v>
       </c>
       <c r="AG2">
-        <v>0.29672454321382741</v>
+        <v>0.56498844328916697</v>
       </c>
       <c r="AH2">
         <v>0.51818181818181819</v>
@@ -660,10 +660,10 @@
         <v>0.15973258164811199</v>
       </c>
       <c r="AJ2">
-        <v>0.54611443210930832</v>
+        <v>0.54728436510048084</v>
       </c>
       <c r="AK2">
-        <v>0.31086389889526189</v>
+        <v>0.30900619543658892</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
@@ -680,10 +680,10 @@
         <v>0.40757204618403248</v>
       </c>
       <c r="E3">
-        <v>0.62895382973278213</v>
+        <v>0.43166529730374281</v>
       </c>
       <c r="F3">
-        <v>0.27156951228000542</v>
+        <v>0.52027274198247897</v>
       </c>
       <c r="G3">
         <v>0.54166666666666663</v>
@@ -692,10 +692,10 @@
         <v>0.2345461737985102</v>
       </c>
       <c r="I3">
-        <v>0.53342332296496275</v>
+        <v>0.46970084647966859</v>
       </c>
       <c r="J3">
-        <v>0.29720924166878337</v>
+        <v>0.35244222373374617</v>
       </c>
       <c r="K3">
         <v>600</v>
@@ -707,10 +707,10 @@
         <v>0.46884144553192092</v>
       </c>
       <c r="N3">
-        <v>0.65861656029369253</v>
+        <v>0.45436128579424012</v>
       </c>
       <c r="O3">
-        <v>0.26048832347471279</v>
+        <v>0.50946046167136572</v>
       </c>
       <c r="P3">
         <v>0.53333333333333333</v>
@@ -719,10 +719,10 @@
         <v>0.2102099959480648</v>
       </c>
       <c r="R3">
-        <v>0.47928282176184039</v>
+        <v>0.47012807633879372</v>
       </c>
       <c r="S3">
-        <v>0.31397982950077108</v>
+        <v>0.35415885307560557</v>
       </c>
       <c r="T3">
         <v>600</v>
@@ -734,10 +734,10 @@
         <v>0.41289717025557598</v>
       </c>
       <c r="W3">
-        <v>0.58870475363599917</v>
+        <v>0.40753983886258732</v>
       </c>
       <c r="X3">
-        <v>0.28591956910991589</v>
+        <v>0.53690035898303357</v>
       </c>
       <c r="Y3">
         <v>0.52500000000000002</v>
@@ -746,10 +746,10 @@
         <v>0.2163814774362442</v>
       </c>
       <c r="AA3">
-        <v>0.33402781853395169</v>
+        <v>0.35618098765216227</v>
       </c>
       <c r="AB3">
-        <v>0.3550821501192834</v>
+        <v>0.35256841318717469</v>
       </c>
       <c r="AC3">
         <v>600</v>
@@ -761,10 +761,10 @@
         <v>0.32500494508593908</v>
       </c>
       <c r="AF3">
-        <v>0.58587474047294408</v>
+        <v>0.41653354994013209</v>
       </c>
       <c r="AG3">
-        <v>0.28690155105889548</v>
+        <v>0.52835186479632201</v>
       </c>
       <c r="AH3">
         <v>0.53333333333333333</v>
@@ -773,10 +773,10 @@
         <v>0.17435147298161</v>
       </c>
       <c r="AJ3">
-        <v>0.5585128235225072</v>
+        <v>0.51842248620503606</v>
       </c>
       <c r="AK3">
-        <v>0.28910782302340648</v>
+        <v>0.32969759548443489</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
@@ -793,10 +793,10 @@
         <v>0.38769495466186099</v>
       </c>
       <c r="E4">
-        <v>0.64492287917737801</v>
+        <v>0.43166173410924319</v>
       </c>
       <c r="F4">
-        <v>0.26139419097777028</v>
+        <v>0.5104617205152262</v>
       </c>
       <c r="G4">
         <v>0.52307692307692311</v>
@@ -805,10 +805,10 @@
         <v>0.17321276078338221</v>
       </c>
       <c r="I4">
-        <v>0.43683059585947098</v>
+        <v>0.45859659600214192</v>
       </c>
       <c r="J4">
-        <v>0.32308608045630088</v>
+        <v>0.31816739059446592</v>
       </c>
       <c r="K4">
         <v>650</v>
@@ -820,10 +820,10 @@
         <v>0.38615013074197452</v>
       </c>
       <c r="N4">
-        <v>0.62213718158448239</v>
+        <v>0.59839434448619022</v>
       </c>
       <c r="O4">
-        <v>0.26965077129787418</v>
+        <v>0.29466406746320362</v>
       </c>
       <c r="P4">
         <v>0.53076923076923077</v>
@@ -832,10 +832,10 @@
         <v>0.320079883805374</v>
       </c>
       <c r="R4">
-        <v>0.51070248527510409</v>
+        <v>0.32141511879637952</v>
       </c>
       <c r="S4">
-        <v>0.30115163571248899</v>
+        <v>0.88434480215122291</v>
       </c>
       <c r="T4">
         <v>650</v>
@@ -847,10 +847,10 @@
         <v>0.43204968367039859</v>
       </c>
       <c r="W4">
-        <v>0.6134426390819302</v>
+        <v>0.4184058081939559</v>
       </c>
       <c r="X4">
-        <v>0.27273543111340592</v>
+        <v>0.51292993082770111</v>
       </c>
       <c r="Y4">
         <v>0.59230769230769231</v>
@@ -859,10 +859,10 @@
         <v>0.237439796650323</v>
       </c>
       <c r="AA4">
-        <v>0.49285702884323768</v>
+        <v>0.44963190478693421</v>
       </c>
       <c r="AB4">
-        <v>0.30659419433511781</v>
+        <v>0.34174718848126762</v>
       </c>
       <c r="AC4">
         <v>650</v>
@@ -874,10 +874,10 @@
         <v>0.32636717090131517</v>
       </c>
       <c r="AF4">
-        <v>0.60204979028548244</v>
+        <v>0.56438080771015797</v>
       </c>
       <c r="AG4">
-        <v>0.27672535676537319</v>
+        <v>0.30721461003997319</v>
       </c>
       <c r="AH4">
         <v>0.56923076923076921</v>
@@ -886,10 +886,10 @@
         <v>0.39740419534346072</v>
       </c>
       <c r="AJ4">
-        <v>0.55552363166211749</v>
+        <v>0.32944731920280712</v>
       </c>
       <c r="AK4">
-        <v>0.28702720321358982</v>
+        <v>0.87895326250349215</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
@@ -906,10 +906,10 @@
         <v>0.40279495822985278</v>
       </c>
       <c r="E5">
-        <v>0.67950526300088654</v>
+        <v>0.4668610325198278</v>
       </c>
       <c r="F5">
-        <v>0.2510691424403132</v>
+        <v>0.48921476434884092</v>
       </c>
       <c r="G5">
         <v>0.58571428571428574</v>
@@ -918,10 +918,10 @@
         <v>0.27864384846689971</v>
       </c>
       <c r="I5">
-        <v>0.58229483855301989</v>
+        <v>0.55680344847234864</v>
       </c>
       <c r="J5">
-        <v>0.27632796249591318</v>
+        <v>0.29419827970236678</v>
       </c>
       <c r="K5">
         <v>700</v>
@@ -933,10 +933,10 @@
         <v>0.34873459555437641</v>
       </c>
       <c r="N5">
-        <v>0.62384994464948229</v>
+        <v>0.44247489206286539</v>
       </c>
       <c r="O5">
-        <v>0.27199658611302979</v>
+        <v>0.49851140014873607</v>
       </c>
       <c r="P5">
         <v>0.5357142857142857</v>
@@ -945,10 +945,10 @@
         <v>0.37160040860698751</v>
       </c>
       <c r="R5">
-        <v>0.57799665634916875</v>
+        <v>0.64706704406952931</v>
       </c>
       <c r="S5">
-        <v>0.27774602993176539</v>
+        <v>0.27111486823088071</v>
       </c>
       <c r="T5">
         <v>700</v>
@@ -960,10 +960,10 @@
         <v>0.38679251219128519</v>
       </c>
       <c r="W5">
-        <v>0.66443383910801046</v>
+        <v>0.46073104715226437</v>
       </c>
       <c r="X5">
-        <v>0.25690465157330261</v>
+        <v>0.49383124126904282</v>
       </c>
       <c r="Y5">
         <v>0.4642857142857143</v>
@@ -972,10 +972,10 @@
         <v>0.1723500670869092</v>
       </c>
       <c r="AA5">
-        <v>0.35253746256534502</v>
+        <v>0.35696158297608638</v>
       </c>
       <c r="AB5">
-        <v>0.3440307295244755</v>
+        <v>0.34203332641572098</v>
       </c>
       <c r="AC5">
         <v>700</v>
@@ -987,10 +987,10 @@
         <v>0.40052912061408208</v>
       </c>
       <c r="AF5">
-        <v>0.65744287742276053</v>
+        <v>0.61612050728738077</v>
       </c>
       <c r="AG5">
-        <v>0.25956694704834821</v>
+        <v>0.29590186714589772</v>
       </c>
       <c r="AH5">
         <v>0.52142857142857146</v>
@@ -999,10 +999,10 @@
         <v>0.32367703608462212</v>
       </c>
       <c r="AJ5">
-        <v>0.4689791259060373</v>
+        <v>0.31901822627826909</v>
       </c>
       <c r="AK5">
-        <v>0.31156288060587162</v>
+        <v>0.8565627638302965</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
@@ -1019,10 +1019,10 @@
         <v>0.29603238219596739</v>
       </c>
       <c r="E6">
-        <v>0.58892376497620225</v>
+        <v>0.54637677498937798</v>
       </c>
       <c r="F6">
-        <v>0.28310775333784127</v>
+        <v>0.31847645420911619</v>
       </c>
       <c r="G6">
         <v>0.57999999999999996</v>
@@ -1031,10 +1031,10 @@
         <v>0.34219141604010028</v>
       </c>
       <c r="I6">
-        <v>0.56272125360892056</v>
+        <v>0.33898256203873628</v>
       </c>
       <c r="J6">
-        <v>0.27604347483684522</v>
+        <v>0.81602535657963937</v>
       </c>
       <c r="K6">
         <v>750</v>
@@ -1046,10 +1046,10 @@
         <v>0.41671917108766648</v>
       </c>
       <c r="N6">
-        <v>0.61661948137206635</v>
+        <v>0.445063516053395</v>
       </c>
       <c r="O6">
-        <v>0.27340446228984627</v>
+        <v>0.4857361328857181</v>
       </c>
       <c r="P6">
         <v>0.55333333333333334</v>
@@ -1058,10 +1058,10 @@
         <v>0.21798824481751311</v>
       </c>
       <c r="R6">
-        <v>0.52216871894798067</v>
+        <v>0.48167019951023082</v>
       </c>
       <c r="S6">
-        <v>0.28855964143772189</v>
+        <v>0.32311086731060162</v>
       </c>
       <c r="T6">
         <v>750</v>
@@ -1073,10 +1073,10 @@
         <v>0.39105101835699529</v>
       </c>
       <c r="W6">
-        <v>0.61790169046446741</v>
+        <v>0.44311669290960282</v>
       </c>
       <c r="X6">
-        <v>0.27294688127912359</v>
+        <v>0.48967318909968149</v>
       </c>
       <c r="Y6">
         <v>0.52666666666666662</v>
@@ -1085,10 +1085,10 @@
         <v>0.1957212231081745</v>
       </c>
       <c r="AA6">
-        <v>0.51872557921261775</v>
+        <v>0.52542282054220202</v>
       </c>
       <c r="AB6">
-        <v>0.28959742171964631</v>
+        <v>0.29180326508849408</v>
       </c>
       <c r="AC6">
         <v>750</v>
@@ -1100,10 +1100,10 @@
         <v>0.37559300609177099</v>
       </c>
       <c r="AF6">
-        <v>0.65235037474697743</v>
+        <v>0.46546015035396732</v>
       </c>
       <c r="AG6">
-        <v>0.26035232538491632</v>
+        <v>0.47692517852428068</v>
       </c>
       <c r="AH6">
         <v>0.52666666666666662</v>
@@ -1112,10 +1112,10 @@
         <v>0.1850909545999985</v>
       </c>
       <c r="AJ6">
-        <v>0.43723793880903078</v>
+        <v>0.44374202640217009</v>
       </c>
       <c r="AK6">
-        <v>0.31315597817488122</v>
+        <v>0.33313419453809301</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
@@ -1132,10 +1132,10 @@
         <v>0.47769109041556729</v>
       </c>
       <c r="E7">
-        <v>0.65558678384672819</v>
+        <v>0.47248825161576802</v>
       </c>
       <c r="F7">
-        <v>0.25492033069176728</v>
+        <v>0.45813457441296662</v>
       </c>
       <c r="G7">
         <v>0.51249999999999996</v>
@@ -1144,10 +1144,10 @@
         <v>0.17771428571428571</v>
       </c>
       <c r="I7">
-        <v>0.60250784401195312</v>
+        <v>0.58402803309556217</v>
       </c>
       <c r="J7">
-        <v>0.28842243324679168</v>
+        <v>0.32982575448646012</v>
       </c>
       <c r="K7">
         <v>800</v>
@@ -1159,10 +1159,10 @@
         <v>0.39904924676154963</v>
       </c>
       <c r="N7">
-        <v>0.64515252916163279</v>
+        <v>0.47368194312285111</v>
       </c>
       <c r="O7">
-        <v>0.2587530193060556</v>
+        <v>0.45840259540971778</v>
       </c>
       <c r="P7">
         <v>0.55000000000000004</v>
@@ -1171,10 +1171,10 @@
         <v>0.19707166964462969</v>
       </c>
       <c r="R7">
-        <v>0.51709630636162907</v>
+        <v>0.48883927508859559</v>
       </c>
       <c r="S7">
-        <v>0.31790328718023658</v>
+        <v>0.36176955318464749</v>
       </c>
       <c r="T7">
         <v>800</v>
@@ -1186,10 +1186,10 @@
         <v>0.36978517410558681</v>
       </c>
       <c r="W7">
-        <v>0.62734804696087454</v>
+        <v>0.45448867432777851</v>
       </c>
       <c r="X7">
-        <v>0.2651650429449553</v>
+        <v>0.46937888505804448</v>
       </c>
       <c r="Y7">
         <v>0.50624999999999998</v>
@@ -1198,10 +1198,10 @@
         <v>0.1752743661567191</v>
       </c>
       <c r="AA7">
-        <v>0.60400105271213378</v>
+        <v>0.58539105601348784</v>
       </c>
       <c r="AB7">
-        <v>0.28788018340969562</v>
+        <v>0.31379190551633718</v>
       </c>
       <c r="AC7">
         <v>800</v>
@@ -1213,10 +1213,10 @@
         <v>0.32281494299544178</v>
       </c>
       <c r="AF7">
-        <v>0.60192490260909426</v>
+        <v>0.42981161035736232</v>
       </c>
       <c r="AG7">
-        <v>0.27406089651754412</v>
+        <v>0.47818314825991659</v>
       </c>
       <c r="AH7">
         <v>0.55625000000000002</v>
@@ -1225,10 +1225,10 @@
         <v>0.20373209810239881</v>
       </c>
       <c r="AJ7">
-        <v>0.53889715338426425</v>
+        <v>0.51346520133403728</v>
       </c>
       <c r="AK7">
-        <v>0.31064449134018129</v>
+        <v>0.34800765367662972</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
@@ -1245,10 +1245,10 @@
         <v>0.3660736655134107</v>
       </c>
       <c r="E8">
-        <v>0.58878202435998528</v>
+        <v>0.42354309317120142</v>
       </c>
       <c r="F8">
-        <v>0.28122630619150413</v>
+        <v>0.48097461942393482</v>
       </c>
       <c r="G8">
         <v>0.50588235294117645</v>
@@ -1257,10 +1257,10 @@
         <v>0.21675988435180929</v>
       </c>
       <c r="I8">
-        <v>0.54164760029544179</v>
+        <v>0.56801489589676935</v>
       </c>
       <c r="J8">
-        <v>0.28901455285972338</v>
+        <v>0.28184256450968498</v>
       </c>
       <c r="K8">
         <v>850</v>
@@ -1272,10 +1272,10 @@
         <v>0.4916762242069127</v>
       </c>
       <c r="N8">
-        <v>0.65232277143266126</v>
+        <v>0.48128054122315572</v>
       </c>
       <c r="O8">
-        <v>0.25858779371583562</v>
+        <v>0.4550353737500839</v>
       </c>
       <c r="P8">
         <v>0.47058823529411759</v>
@@ -1284,10 +1284,10 @@
         <v>0.163629546405271</v>
       </c>
       <c r="R8">
-        <v>0.44868598683423538</v>
+        <v>0.45996227680113</v>
       </c>
       <c r="S8">
-        <v>0.31697095803132203</v>
+        <v>0.32229327419362769</v>
       </c>
       <c r="T8">
         <v>850</v>
@@ -1299,10 +1299,10 @@
         <v>0.52056717482158288</v>
       </c>
       <c r="W8">
-        <v>0.7082936822114807</v>
+        <v>0.50846333321165571</v>
       </c>
       <c r="X8">
-        <v>0.23686059439356011</v>
+        <v>0.44495894956824172</v>
       </c>
       <c r="Y8">
         <v>0.50588235294117645</v>
@@ -1311,10 +1311,10 @@
         <v>0.15016690276415681</v>
       </c>
       <c r="AA8">
-        <v>0.42157218290805037</v>
+        <v>0.41790214700414702</v>
       </c>
       <c r="AB8">
-        <v>0.32467177996537111</v>
+        <v>0.32181810242478842</v>
       </c>
       <c r="AC8">
         <v>850</v>
@@ -1326,10 +1326,10 @@
         <v>0.47632709617835178</v>
       </c>
       <c r="AF8">
-        <v>0.65064058558958193</v>
+        <v>0.64830834662735648</v>
       </c>
       <c r="AG8">
-        <v>0.25921260862579237</v>
+        <v>0.27559148101520509</v>
       </c>
       <c r="AH8">
         <v>0.57058823529411762</v>
@@ -1338,10 +1338,10 @@
         <v>0.35135022106750541</v>
       </c>
       <c r="AJ8">
-        <v>0.55843233605927067</v>
+        <v>0.34072775642068892</v>
       </c>
       <c r="AK8">
-        <v>0.28367338302226047</v>
+        <v>0.78056519212984599</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
@@ -1358,10 +1358,10 @@
         <v>0.40389093303221207</v>
       </c>
       <c r="E9">
-        <v>0.61086520855260318</v>
+        <v>0.44517642220308551</v>
       </c>
       <c r="F9">
-        <v>0.27381055900425427</v>
+        <v>0.46390948297804352</v>
       </c>
       <c r="G9">
         <v>0.55000000000000004</v>
@@ -1370,10 +1370,10 @@
         <v>0.19800018380663539</v>
       </c>
       <c r="I9">
-        <v>0.42697534410831622</v>
+        <v>0.4200456263712341</v>
       </c>
       <c r="J9">
-        <v>0.33656764220254121</v>
+        <v>0.37017804160938378</v>
       </c>
       <c r="K9">
         <v>900</v>
@@ -1385,10 +1385,10 @@
         <v>0.46603736263722811</v>
       </c>
       <c r="N9">
-        <v>0.6570740639282574</v>
+        <v>0.4851647088287816</v>
       </c>
       <c r="O9">
-        <v>0.25703977210627238</v>
+        <v>0.44657167294919359</v>
       </c>
       <c r="P9">
         <v>0.5444444444444444</v>
@@ -1397,10 +1397,10 @@
         <v>0.2459732291062533</v>
       </c>
       <c r="R9">
-        <v>0.52055906672328955</v>
+        <v>0.51525382146222509</v>
       </c>
       <c r="S9">
-        <v>0.30785999704050182</v>
+        <v>0.34007013861664392</v>
       </c>
       <c r="T9">
         <v>900</v>
@@ -1412,10 +1412,10 @@
         <v>0.38805075969781849</v>
       </c>
       <c r="W9">
-        <v>0.63739384939229227</v>
+        <v>0.46541461893052849</v>
       </c>
       <c r="X9">
-        <v>0.26431252545256179</v>
+        <v>0.45721981941849132</v>
       </c>
       <c r="Y9">
         <v>0.56111111111111112</v>
@@ -1424,10 +1424,10 @@
         <v>0.18838654607533331</v>
       </c>
       <c r="AA9">
-        <v>0.58210511853313696</v>
+        <v>0.55662809483137154</v>
       </c>
       <c r="AB9">
-        <v>0.28742148686399749</v>
+        <v>0.31500688970639379</v>
       </c>
       <c r="AC9">
         <v>900</v>
@@ -1439,10 +1439,10 @@
         <v>0.41558085267884393</v>
       </c>
       <c r="AF9">
-        <v>0.62708516558773919</v>
+        <v>0.46357110775431609</v>
       </c>
       <c r="AG9">
-        <v>0.26804332154004917</v>
+        <v>0.45717226023751079</v>
       </c>
       <c r="AH9">
         <v>0.57777777777777772</v>
@@ -1451,10 +1451,10 @@
         <v>0.24469541074636619</v>
       </c>
       <c r="AJ9">
-        <v>0.51212810072194059</v>
+        <v>0.49278375049568718</v>
       </c>
       <c r="AK9">
-        <v>0.31055505863605642</v>
+        <v>0.3409262790931436</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
@@ -1471,10 +1471,10 @@
         <v>0.38926662082518593</v>
       </c>
       <c r="E10">
-        <v>0.65370356975347144</v>
+        <v>0.48397265821360952</v>
       </c>
       <c r="F10">
-        <v>0.25669970167903439</v>
+        <v>0.44020495292910922</v>
       </c>
       <c r="G10">
         <v>0.54736842105263162</v>
@@ -1483,10 +1483,10 @@
         <v>0.18629943265457291</v>
       </c>
       <c r="I10">
-        <v>0.41059162419676498</v>
+        <v>0.42679820936710788</v>
       </c>
       <c r="J10">
-        <v>0.3401238164644102</v>
+        <v>0.36289885115459519</v>
       </c>
       <c r="K10">
         <v>950</v>
@@ -1498,10 +1498,10 @@
         <v>0.42944854288280249</v>
       </c>
       <c r="N10">
-        <v>0.66863967776729938</v>
+        <v>0.64531388101520337</v>
       </c>
       <c r="O10">
-        <v>0.25110283068684702</v>
+        <v>0.2722424303579084</v>
       </c>
       <c r="P10">
         <v>0.52631578947368418</v>
@@ -1510,10 +1510,10 @@
         <v>0.2638383740153652</v>
       </c>
       <c r="R10">
-        <v>0.55807779648601841</v>
+        <v>0.35312992325633769</v>
       </c>
       <c r="S10">
-        <v>0.2945111918166492</v>
+        <v>0.76045137859208367</v>
       </c>
       <c r="T10">
         <v>950</v>
@@ -1525,10 +1525,10 @@
         <v>0.42574087364401941</v>
       </c>
       <c r="W10">
-        <v>0.6331664212344581</v>
+        <v>0.60310505530105174</v>
       </c>
       <c r="X10">
-        <v>0.26420187656212318</v>
+        <v>0.29161423465964792</v>
       </c>
       <c r="Y10">
         <v>0.58947368421052626</v>
@@ -1537,10 +1537,10 @@
         <v>0.32014811057617032</v>
       </c>
       <c r="AA10">
-        <v>0.67794383105564804</v>
+        <v>0.37023433742812611</v>
       </c>
       <c r="AB10">
-        <v>0.25141703664586751</v>
+        <v>0.74136536586949775</v>
       </c>
       <c r="AC10">
         <v>950</v>
@@ -1552,10 +1552,10 @@
         <v>0.39451729344205871</v>
       </c>
       <c r="AF10">
-        <v>0.65149081301068212</v>
+        <v>0.48007609586686878</v>
       </c>
       <c r="AG10">
-        <v>0.25751852258368563</v>
+        <v>0.44383000125833599</v>
       </c>
       <c r="AH10">
         <v>0.53157894736842104</v>
@@ -1564,10 +1564,10 @@
         <v>0.22402526009722409</v>
       </c>
       <c r="AJ10">
-        <v>0.52482636855171394</v>
+        <v>0.52175910862446506</v>
       </c>
       <c r="AK10">
-        <v>0.30539017321246092</v>
+        <v>0.32151110088812918</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
@@ -1584,10 +1584,10 @@
         <v>0.43351235535446059</v>
       </c>
       <c r="E11">
-        <v>0.64806170580754507</v>
+        <v>0.4685614984628611</v>
       </c>
       <c r="F11">
-        <v>0.25768197453450248</v>
+        <v>0.4381917696095704</v>
       </c>
       <c r="G11">
         <v>0.54</v>
@@ -1596,10 +1596,10 @@
         <v>0.18416040100250619</v>
       </c>
       <c r="I11">
-        <v>0.60681149581353244</v>
+        <v>0.60607618443908684</v>
       </c>
       <c r="J11">
-        <v>0.27649593125396982</v>
+        <v>0.30729167320810002</v>
       </c>
       <c r="K11">
         <v>1000</v>
@@ -1611,10 +1611,10 @@
         <v>0.38799172529995118</v>
       </c>
       <c r="N11">
-        <v>0.65322947443461787</v>
+        <v>0.47467397376641463</v>
       </c>
       <c r="O11">
-        <v>0.25578311124857323</v>
+        <v>0.43987322538221008</v>
       </c>
       <c r="P11">
         <v>0.54500000000000004</v>
@@ -1623,10 +1623,10 @@
         <v>0.18247773858605151</v>
       </c>
       <c r="R11">
-        <v>0.53043675039601723</v>
+        <v>0.52224363934810014</v>
       </c>
       <c r="S11">
-        <v>0.30215889859476253</v>
+        <v>0.31796612512290628</v>
       </c>
       <c r="T11">
         <v>1000</v>
@@ -1638,10 +1638,10 @@
         <v>0.38601061717667889</v>
       </c>
       <c r="W11">
-        <v>0.65269944688312331</v>
+        <v>0.4873197564072389</v>
       </c>
       <c r="X11">
-        <v>0.25597851472340399</v>
+        <v>0.4294703969513598</v>
       </c>
       <c r="Y11">
         <v>0.505</v>
@@ -1650,10 +1650,10 @@
         <v>0.18004675081813931</v>
       </c>
       <c r="AA11">
-        <v>0.53969429529511004</v>
+        <v>0.49587010443883872</v>
       </c>
       <c r="AB11">
-        <v>0.29916550603303182</v>
+        <v>0.35193758326264718</v>
       </c>
       <c r="AC11">
         <v>1000</v>
@@ -1665,10 +1665,10 @@
         <v>0.38195103330533792</v>
       </c>
       <c r="AF11">
-        <v>0.65760220173444894</v>
+        <v>0.48103220599157281</v>
       </c>
       <c r="AG11">
-        <v>0.2541653005427767</v>
+        <v>0.43611840444794031</v>
       </c>
       <c r="AH11">
         <v>0.53</v>
@@ -1677,10 +1677,10 @@
         <v>0.24764681975208289</v>
       </c>
       <c r="AJ11">
-        <v>0.4625480878026702</v>
+        <v>0.44185768221735711</v>
       </c>
       <c r="AK11">
-        <v>0.32326459750489228</v>
+        <v>0.34955262937388959</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
@@ -1697,10 +1697,10 @@
         <v>0.414229861817829</v>
       </c>
       <c r="E12">
-        <v>0.6525656993979011</v>
+        <v>0.60134769812262112</v>
       </c>
       <c r="F12">
-        <v>0.26113306223164501</v>
+        <v>0.31161237498914252</v>
       </c>
       <c r="G12">
         <v>0.5714285714285714</v>
@@ -1709,10 +1709,10 @@
         <v>0.29670329670329659</v>
       </c>
       <c r="I12">
-        <v>0.51395998928179876</v>
+        <v>0.34173796713862359</v>
       </c>
       <c r="J12">
-        <v>0.30690466954817769</v>
+        <v>0.72258786718975343</v>
       </c>
       <c r="K12">
         <v>1050</v>
@@ -1724,10 +1724,10 @@
         <v>0.40201737187437842</v>
       </c>
       <c r="N12">
-        <v>0.6515345570951363</v>
+        <v>0.4554370718894879</v>
       </c>
       <c r="O12">
-        <v>0.26152028055746868</v>
+        <v>0.45957513645036041</v>
       </c>
       <c r="P12">
         <v>0.53333333333333333</v>
@@ -1736,10 +1736,10 @@
         <v>0.19332828282828279</v>
       </c>
       <c r="R12">
-        <v>0.54762403451354458</v>
+        <v>0.5630948660336399</v>
       </c>
       <c r="S12">
-        <v>0.29608557321603268</v>
+        <v>0.30779233748230028</v>
       </c>
       <c r="T12">
         <v>1050</v>
@@ -1751,10 +1751,10 @@
         <v>0.4274267048307161</v>
       </c>
       <c r="W12">
-        <v>0.65699354575683144</v>
+        <v>0.47390855939371063</v>
       </c>
       <c r="X12">
-        <v>0.25946373267073097</v>
+        <v>0.45034948588311757</v>
       </c>
       <c r="Y12">
         <v>0.50476190476190474</v>
@@ -1763,10 +1763,10 @@
         <v>0.1618650352243233</v>
       </c>
       <c r="AA12">
-        <v>0.55278421662935973</v>
+        <v>0.5249848836110026</v>
       </c>
       <c r="AB12">
-        <v>0.29439202887759491</v>
+        <v>0.32808026931782858</v>
       </c>
       <c r="AC12">
         <v>1050</v>
@@ -1778,10 +1778,10 @@
         <v>0.41317557954878681</v>
       </c>
       <c r="AF12">
-        <v>0.65032144850364859</v>
+        <v>0.57814239120431088</v>
       </c>
       <c r="AG12">
-        <v>0.26197509878030839</v>
+        <v>0.32007833519581658</v>
       </c>
       <c r="AH12">
         <v>0.51428571428571423</v>
@@ -1790,10 +1790,10 @@
         <v>0.2015384615384615</v>
       </c>
       <c r="AJ12">
-        <v>0.51125703674494305</v>
+        <v>0.18411514367028331</v>
       </c>
       <c r="AK12">
-        <v>0.30775686136020708</v>
+        <v>0.80588053689899042</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
@@ -1810,10 +1810,10 @@
         <v>0.37412511731665482</v>
       </c>
       <c r="E13">
-        <v>0.63259512114763661</v>
+        <v>0.47563874697680952</v>
       </c>
       <c r="F13">
-        <v>0.26982738590035332</v>
+        <v>0.43579854069319829</v>
       </c>
       <c r="G13">
         <v>0.52272727272727271</v>
@@ -1822,10 +1822,10 @@
         <v>0.26743811792551581</v>
       </c>
       <c r="I13">
-        <v>0.5488002728786866</v>
+        <v>0.52648388277075875</v>
       </c>
       <c r="J13">
-        <v>0.29387690682262929</v>
+        <v>0.37360292120870359</v>
       </c>
       <c r="K13">
         <v>1100</v>
@@ -1837,10 +1837,10 @@
         <v>0.44190185361049539</v>
       </c>
       <c r="N13">
-        <v>0.69320803779301632</v>
+        <v>0.50633185673428116</v>
       </c>
       <c r="O13">
-        <v>0.24656734282028209</v>
+        <v>0.43301694797154577</v>
       </c>
       <c r="P13">
         <v>0.48181818181818181</v>
@@ -1849,10 +1849,10 @@
         <v>0.19229902713773681</v>
       </c>
       <c r="R13">
-        <v>0.51009208576248977</v>
+        <v>0.5327940072003976</v>
       </c>
       <c r="S13">
-        <v>0.30622332907981931</v>
+        <v>0.32347484211878091</v>
       </c>
       <c r="T13">
         <v>1100</v>
@@ -1864,10 +1864,10 @@
         <v>0.4415299316299709</v>
       </c>
       <c r="W13">
-        <v>0.6579986425042148</v>
+        <v>0.614565853899671</v>
       </c>
       <c r="X13">
-        <v>0.26033195591922109</v>
+        <v>0.30422688256624131</v>
       </c>
       <c r="Y13">
         <v>0.54090909090909089</v>
@@ -1876,10 +1876,10 @@
         <v>0.27984856587623158</v>
       </c>
       <c r="AA13">
-        <v>0.55877416158347359</v>
+        <v>0.35925162311571229</v>
       </c>
       <c r="AB13">
-        <v>0.29061064236284512</v>
+        <v>0.70813626756164361</v>
       </c>
       <c r="AC13">
         <v>1100</v>
@@ -1891,10 +1891,10 @@
         <v>0.38681031363213492</v>
       </c>
       <c r="AF13">
-        <v>0.65931756122024487</v>
+        <v>0.41028029803502702</v>
       </c>
       <c r="AG13">
-        <v>0.25982948954336121</v>
+        <v>0.46386785561445021</v>
       </c>
       <c r="AH13">
         <v>0.57272727272727275</v>
@@ -1903,10 +1903,10 @@
         <v>0.2437993805630948</v>
       </c>
       <c r="AJ13">
-        <v>0.50439272078832587</v>
+        <v>0.37518211866225232</v>
       </c>
       <c r="AK13">
-        <v>0.30799940968066208</v>
+        <v>0.42128915125580357</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
@@ -1923,10 +1923,10 @@
         <v>0.37371992605512477</v>
       </c>
       <c r="E14">
-        <v>0.65374682506488857</v>
+        <v>0.47880354644711748</v>
       </c>
       <c r="F14">
-        <v>0.26074725393526699</v>
+        <v>0.43938688122351138</v>
       </c>
       <c r="G14">
         <v>0.55217391304347829</v>
@@ -1935,10 +1935,10 @@
         <v>0.1956968929732433</v>
       </c>
       <c r="I14">
-        <v>0.58216845473650425</v>
+        <v>0.58900553265930444</v>
       </c>
       <c r="J14">
-        <v>0.28060493658305907</v>
+        <v>0.29883869320573048</v>
       </c>
       <c r="K14">
         <v>1150</v>
@@ -1950,10 +1950,10 @@
         <v>0.42564309735726741</v>
       </c>
       <c r="N14">
-        <v>0.66570376923530972</v>
+        <v>0.50435025963383007</v>
       </c>
       <c r="O14">
-        <v>0.25620559000112803</v>
+        <v>0.4204657025224719</v>
       </c>
       <c r="P14">
         <v>0.52173913043478259</v>
@@ -1962,10 +1962,10 @@
         <v>0.27042607204117852</v>
       </c>
       <c r="R14">
-        <v>0.55609724291166973</v>
+        <v>0.46307166509596548</v>
       </c>
       <c r="S14">
-        <v>0.28922685544921911</v>
+        <v>0.3824294794004498</v>
       </c>
       <c r="T14">
         <v>1150</v>
@@ -1977,10 +1977,10 @@
         <v>0.40073618700617403</v>
       </c>
       <c r="W14">
-        <v>0.67074118552932971</v>
+        <v>0.50948859039028482</v>
       </c>
       <c r="X14">
-        <v>0.25426791758506118</v>
+        <v>0.41560333205509031</v>
       </c>
       <c r="Y14">
         <v>0.50869565217391299</v>
@@ -1989,10 +1989,10 @@
         <v>0.22799523259642629</v>
       </c>
       <c r="AA14">
-        <v>0.58839785933181854</v>
+        <v>0.52036945453369032</v>
       </c>
       <c r="AB14">
-        <v>0.27850532740201639</v>
+        <v>0.37349362290499638</v>
       </c>
       <c r="AC14">
         <v>1150</v>
@@ -2004,10 +2004,10 @@
         <v>0.41370747416701642</v>
       </c>
       <c r="AF14">
-        <v>0.69764430991277726</v>
+        <v>0.5363039275668593</v>
       </c>
       <c r="AG14">
-        <v>0.24365870642640969</v>
+        <v>0.4033793925932434</v>
       </c>
       <c r="AH14">
         <v>0.5130434782608696</v>
@@ -2016,10 +2016,10 @@
         <v>0.17881991135016681</v>
       </c>
       <c r="AJ14">
-        <v>0.56140377275212283</v>
+        <v>0.50544080843825134</v>
       </c>
       <c r="AK14">
-        <v>0.28749291106572261</v>
+        <v>0.38240112424498951</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
@@ -2036,10 +2036,10 @@
         <v>0.42022992052983649</v>
       </c>
       <c r="E15">
-        <v>0.69735980708536938</v>
+        <v>0.51711785015678613</v>
       </c>
       <c r="F15">
-        <v>0.24426761280748349</v>
+        <v>0.42168341823233718</v>
       </c>
       <c r="G15">
         <v>0.54166666666666663</v>
@@ -2048,10 +2048,10 @@
         <v>0.28189810125845471</v>
       </c>
       <c r="I15">
-        <v>0.54328002052911861</v>
+        <v>0.56422493295531062</v>
       </c>
       <c r="J15">
-        <v>0.29986107894601238</v>
+        <v>0.29753365549968369</v>
       </c>
       <c r="K15">
         <v>1200</v>
@@ -2063,10 +2063,10 @@
         <v>0.44338559700168773</v>
       </c>
       <c r="N15">
-        <v>0.68975153407913559</v>
+        <v>0.51153157128009663</v>
       </c>
       <c r="O15">
-        <v>0.2473189573539939</v>
+        <v>0.42317245281409022</v>
       </c>
       <c r="P15">
         <v>0.51666666666666672</v>
@@ -2075,10 +2075,10 @@
         <v>0.184057498248138</v>
       </c>
       <c r="R15">
-        <v>0.55492024243407623</v>
+        <v>0.56172171595950049</v>
       </c>
       <c r="S15">
-        <v>0.29601520231231371</v>
+        <v>0.30315841813359401</v>
       </c>
       <c r="T15">
         <v>1200</v>
@@ -2090,10 +2090,10 @@
         <v>0.42357719612382849</v>
       </c>
       <c r="W15">
-        <v>0.64478875402146263</v>
+        <v>0.48626447751253832</v>
       </c>
       <c r="X15">
-        <v>0.26463418146566031</v>
+        <v>0.43305683416537349</v>
       </c>
       <c r="Y15">
         <v>0.56666666666666665</v>
@@ -2102,10 +2102,10 @@
         <v>0.2362460977959665</v>
       </c>
       <c r="AA15">
-        <v>0.6179890811191191</v>
+        <v>0.64351629987690273</v>
       </c>
       <c r="AB15">
-        <v>0.27424137786507219</v>
+        <v>0.27751886613334309</v>
       </c>
       <c r="AC15">
         <v>1200</v>
@@ -2117,10 +2117,10 @@
         <v>0.39214723129941692</v>
       </c>
       <c r="AF15">
-        <v>0.61948067922989358</v>
+        <v>0.47793403148143709</v>
       </c>
       <c r="AG15">
-        <v>0.2738993124002565</v>
+        <v>0.43510825629222649</v>
       </c>
       <c r="AH15">
         <v>0.53749999999999998</v>
@@ -2129,10 +2129,10 @@
         <v>0.21426886201635131</v>
       </c>
       <c r="AJ15">
-        <v>0.59830652407982732</v>
+        <v>0.60561389729000537</v>
       </c>
       <c r="AK15">
-        <v>0.28121759072528402</v>
+        <v>0.2982313255754242</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
@@ -2149,10 +2149,10 @@
         <v>0.45406607017464728</v>
       </c>
       <c r="E16">
-        <v>0.69647913820075646</v>
+        <v>0.54352551264335247</v>
       </c>
       <c r="F16">
-        <v>0.24760856204905349</v>
+        <v>0.39914568561896302</v>
       </c>
       <c r="G16">
         <v>0.52</v>
@@ -2161,10 +2161,10 @@
         <v>0.18693365074992949</v>
       </c>
       <c r="I16">
-        <v>0.58008213552361387</v>
+        <v>0.53036370186202408</v>
       </c>
       <c r="J16">
-        <v>0.28600699292150178</v>
+        <v>0.35371286448873179</v>
       </c>
       <c r="K16">
         <v>1250</v>
@@ -2176,10 +2176,10 @@
         <v>0.4545747918357807</v>
       </c>
       <c r="N16">
-        <v>0.67398944561345719</v>
+        <v>0.50847390070250431</v>
       </c>
       <c r="O16">
-        <v>0.25602734228984209</v>
+        <v>0.41988086771919131</v>
       </c>
       <c r="P16">
         <v>0.54400000000000004</v>
@@ -2188,10 +2188,10 @@
         <v>0.1985121151339577</v>
       </c>
       <c r="R16">
-        <v>0.53777621598705938</v>
+        <v>0.53871848181583193</v>
       </c>
       <c r="S16">
-        <v>0.30291913112248292</v>
+        <v>0.32408434678990339</v>
       </c>
       <c r="T16">
         <v>1250</v>
@@ -2203,10 +2203,10 @@
         <v>0.43986943982919091</v>
       </c>
       <c r="W16">
-        <v>0.67177567872631139</v>
+        <v>0.51550323043091928</v>
       </c>
       <c r="X16">
-        <v>0.25748786379167471</v>
+        <v>0.41056864830037371</v>
       </c>
       <c r="Y16">
         <v>0.54400000000000004</v>
@@ -2215,10 +2215,10 @@
         <v>0.19298075193380099</v>
       </c>
       <c r="AA16">
-        <v>0.54989733059548263</v>
+        <v>0.50907801024063204</v>
       </c>
       <c r="AB16">
-        <v>0.29610808837314789</v>
+        <v>0.36459274588469931</v>
       </c>
       <c r="AC16">
         <v>1250</v>
@@ -2230,10 +2230,10 @@
         <v>0.42884305647071552</v>
       </c>
       <c r="AF16">
-        <v>0.68123131151111904</v>
+        <v>0.64356204279165863</v>
       </c>
       <c r="AG16">
-        <v>0.25375184728391631</v>
+        <v>0.29028885316121272</v>
       </c>
       <c r="AH16">
         <v>0.52400000000000002</v>
@@ -2242,10 +2242,10 @@
         <v>0.2488615809427992</v>
       </c>
       <c r="AJ16">
-        <v>0.59507186858316219</v>
+        <v>0.37958983621197551</v>
       </c>
       <c r="AK16">
-        <v>0.28085583490467131</v>
+        <v>0.66645870285891895</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.3">
@@ -2262,10 +2262,10 @@
         <v>0.40398610814604241</v>
       </c>
       <c r="E17">
-        <v>0.6587887728837396</v>
+        <v>0.49559051781358843</v>
       </c>
       <c r="F17">
-        <v>0.25809956337697398</v>
+        <v>0.42039158180469788</v>
       </c>
       <c r="G17">
         <v>0.55000000000000004</v>
@@ -2274,10 +2274,10 @@
         <v>0.20386594907334821</v>
       </c>
       <c r="I17">
-        <v>0.58631159652594311</v>
+        <v>0.59566569207679132</v>
       </c>
       <c r="J17">
-        <v>0.28816394906105358</v>
+        <v>0.29336783485945872</v>
       </c>
       <c r="K17">
         <v>1300</v>
@@ -2289,10 +2289,10 @@
         <v>0.40973699120653828</v>
       </c>
       <c r="N17">
-        <v>0.68814239461602755</v>
+        <v>0.52088651300037037</v>
       </c>
       <c r="O17">
-        <v>0.24674808081242569</v>
+        <v>0.40884046718578337</v>
       </c>
       <c r="P17">
         <v>0.56153846153846154</v>
@@ -2301,10 +2301,10 @@
         <v>0.23584513386342659</v>
       </c>
       <c r="R17">
-        <v>0.53802559482355194</v>
+        <v>0.55188403181223789</v>
       </c>
       <c r="S17">
-        <v>0.30451727246704619</v>
+        <v>0.31310551722780799</v>
       </c>
       <c r="T17">
         <v>1300</v>
@@ -2316,10 +2316,10 @@
         <v>0.39124946775511638</v>
       </c>
       <c r="W17">
-        <v>0.63662580345499853</v>
+        <v>0.48570837451958138</v>
       </c>
       <c r="X17">
-        <v>0.26634997220256601</v>
+        <v>0.4244995460757035</v>
       </c>
       <c r="Y17">
         <v>0.5346153846153846</v>
@@ -2328,10 +2328,10 @@
         <v>0.20687879343184459</v>
       </c>
       <c r="AA17">
-        <v>0.56561759579634674</v>
+        <v>0.57809362488992533</v>
       </c>
       <c r="AB17">
-        <v>0.29528343619699993</v>
+        <v>0.29955792023456468</v>
       </c>
       <c r="AC17">
         <v>1300</v>
@@ -2343,10 +2343,10 @@
         <v>0.43549090926802431</v>
       </c>
       <c r="AF17">
-        <v>0.6557844592500659</v>
+        <v>0.48231091805145071</v>
       </c>
       <c r="AG17">
-        <v>0.25923333712492119</v>
+        <v>0.4250010055454968</v>
       </c>
       <c r="AH17">
         <v>0.56923076923076921</v>
@@ -2355,10 +2355,10 @@
         <v>0.24516431653681289</v>
       </c>
       <c r="AJ17">
-        <v>0.56944981815367957</v>
+        <v>0.58016357423466425</v>
       </c>
       <c r="AK17">
-        <v>0.29397802115647509</v>
+        <v>0.30296972950631712</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.3">
@@ -2375,10 +2375,10 @@
         <v>0.42459734535310939</v>
       </c>
       <c r="E18">
-        <v>0.66942109359449731</v>
+        <v>0.52247586298414017</v>
       </c>
       <c r="F18">
-        <v>0.25338449775726951</v>
+        <v>0.40162721604506152</v>
       </c>
       <c r="G18">
         <v>0.48148148148148151</v>
@@ -2387,10 +2387,10 @@
         <v>0.17061152295487059</v>
       </c>
       <c r="I18">
-        <v>0.49542121845646492</v>
+        <v>0.47054694414594289</v>
       </c>
       <c r="J18">
-        <v>0.32523495780401251</v>
+        <v>0.39284965308816949</v>
       </c>
       <c r="K18">
         <v>1350</v>
@@ -2402,10 +2402,10 @@
         <v>0.42056036447526102</v>
       </c>
       <c r="N18">
-        <v>0.69697728163925943</v>
+        <v>0.67950000986911263</v>
       </c>
       <c r="O18">
-        <v>0.24259400621584171</v>
+        <v>0.27466729345318969</v>
       </c>
       <c r="P18">
         <v>0.50740740740740742</v>
@@ -2414,10 +2414,10 @@
         <v>0.21287339771060701</v>
       </c>
       <c r="R18">
-        <v>0.57527752421895695</v>
+        <v>0.24205116781301711</v>
       </c>
       <c r="S18">
-        <v>0.29839074556198458</v>
+        <v>0.72835825772622875</v>
       </c>
       <c r="T18">
         <v>1350</v>
@@ -2429,10 +2429,10 @@
         <v>0.38209617355302378</v>
       </c>
       <c r="W18">
-        <v>0.64396260844587627</v>
+        <v>0.63156597764114009</v>
       </c>
       <c r="X18">
-        <v>0.26296035470798279</v>
+        <v>0.28549787606044608</v>
       </c>
       <c r="Y18">
         <v>0.562962962962963</v>
@@ -2441,10 +2441,10 @@
         <v>0.21543114543114539</v>
       </c>
       <c r="AA18">
-        <v>0.63587644651217579</v>
+        <v>0.26013515453144342</v>
       </c>
       <c r="AB18">
-        <v>0.27628487713469468</v>
+        <v>0.7478907706753436</v>
       </c>
       <c r="AC18">
         <v>1350</v>
@@ -2456,10 +2456,10 @@
         <v>0.39418016642424092</v>
       </c>
       <c r="AF18">
-        <v>0.6499219916735498</v>
+        <v>0.47543979178767892</v>
       </c>
       <c r="AG18">
-        <v>0.26075034178451367</v>
+        <v>0.43013604658190652</v>
       </c>
       <c r="AH18">
         <v>0.55925925925925923</v>
@@ -2468,10 +2468,10 @@
         <v>0.27369926361544711</v>
       </c>
       <c r="AJ18">
-        <v>0.57245075233355913</v>
+        <v>0.59222702225522073</v>
       </c>
       <c r="AK18">
-        <v>0.2993820796734995</v>
+        <v>0.30748257183166111</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.3">
@@ -2488,10 +2488,10 @@
         <v>0.39490965418156959</v>
       </c>
       <c r="E19">
-        <v>0.67528344300820153</v>
+        <v>0.52627513854510555</v>
       </c>
       <c r="F19">
-        <v>0.25428471107346251</v>
+        <v>0.40795237414641822</v>
       </c>
       <c r="G19">
         <v>0.50357142857142856</v>
@@ -2500,10 +2500,10 @@
         <v>0.19517131083616129</v>
       </c>
       <c r="I19">
-        <v>0.49780704183233848</v>
+        <v>0.51699848500525181</v>
       </c>
       <c r="J19">
-        <v>0.30419683477267517</v>
+        <v>0.31494595202612419</v>
       </c>
       <c r="K19">
         <v>1400</v>
@@ -2515,10 +2515,10 @@
         <v>0.40693171989726312</v>
       </c>
       <c r="N19">
-        <v>0.66376008548998955</v>
+        <v>0.45472366608388187</v>
       </c>
       <c r="O19">
-        <v>0.25875733253930627</v>
+        <v>0.43982140385071927</v>
       </c>
       <c r="P19">
         <v>0.52857142857142858</v>
@@ -2527,10 +2527,10 @@
         <v>0.21534271593101159</v>
       </c>
       <c r="R19">
-        <v>0.53327647886231988</v>
+        <v>0.5698731973793103</v>
       </c>
       <c r="S19">
-        <v>0.29325756597230362</v>
+        <v>0.28704539455435429</v>
       </c>
       <c r="T19">
         <v>1400</v>
@@ -2542,10 +2542,10 @@
         <v>0.36483803410582272</v>
       </c>
       <c r="W19">
-        <v>0.64811163500805935</v>
+        <v>0.4916001213978507</v>
       </c>
       <c r="X19">
-        <v>0.2647100840002673</v>
+        <v>0.42345879952748477</v>
       </c>
       <c r="Y19">
         <v>0.59285714285714286</v>
@@ -2554,10 +2554,10 @@
         <v>0.24104017059698821</v>
       </c>
       <c r="AA19">
-        <v>0.53211354650068121</v>
+        <v>0.54077721990400285</v>
       </c>
       <c r="AB19">
-        <v>0.29362269277813952</v>
+        <v>0.30283523298438159</v>
       </c>
       <c r="AC19">
         <v>1400</v>
@@ -2569,10 +2569,10 @@
         <v>0.43877114046609</v>
       </c>
       <c r="AF19">
-        <v>0.67931886003792574</v>
+        <v>0.65382643467259882</v>
       </c>
       <c r="AG19">
-        <v>0.25269970885844489</v>
+        <v>0.28769142227766492</v>
       </c>
       <c r="AH19">
         <v>0.56071428571428572</v>
@@ -2581,10 +2581,10 @@
         <v>0.2479761125333278</v>
       </c>
       <c r="AJ19">
-        <v>0.60770415000719913</v>
+        <v>0.38514118042121548</v>
       </c>
       <c r="AK19">
-        <v>0.26886002731107927</v>
+        <v>0.63436630120091142</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.3">
@@ -2601,10 +2601,10 @@
         <v>0.39626314703498361</v>
       </c>
       <c r="E20">
-        <v>0.67874523423560917</v>
+        <v>0.63515602562652274</v>
       </c>
       <c r="F20">
-        <v>0.25043066354058818</v>
+        <v>0.2923384195008451</v>
       </c>
       <c r="G20">
         <v>0.53793103448275859</v>
@@ -2613,10 +2613,10 @@
         <v>0.1921055996339141</v>
       </c>
       <c r="I20">
-        <v>0.59558014115609026</v>
+        <v>0.24333321230362209</v>
       </c>
       <c r="J20">
-        <v>0.28235463150271589</v>
+        <v>0.69949566548432907</v>
       </c>
       <c r="K20">
         <v>1450</v>
@@ -2628,10 +2628,10 @@
         <v>0.42281792185852102</v>
       </c>
       <c r="N20">
-        <v>0.67238637701635517</v>
+        <v>0.52758387300434006</v>
       </c>
       <c r="O20">
-        <v>0.25289700779511831</v>
+        <v>0.38985592458078488</v>
       </c>
       <c r="P20">
         <v>0.53448275862068961</v>
@@ -2640,10 +2640,10 @@
         <v>0.22217814942779249</v>
       </c>
       <c r="R20">
-        <v>0.56234494514383115</v>
+        <v>0.48903583187630539</v>
       </c>
       <c r="S20">
-        <v>0.29372753032183668</v>
+        <v>0.38999241327061418</v>
       </c>
       <c r="T20">
         <v>1450</v>
@@ -2655,10 +2655,10 @@
         <v>0.44065179644131341</v>
       </c>
       <c r="W20">
-        <v>0.68691459941312283</v>
+        <v>0.5344852314824442</v>
       </c>
       <c r="X20">
-        <v>0.24722598903669579</v>
+        <v>0.39248678817527971</v>
       </c>
       <c r="Y20">
         <v>0.57586206896551728</v>
@@ -2667,10 +2667,10 @@
         <v>0.2497173821683043</v>
       </c>
       <c r="AA20">
-        <v>0.63598714262362621</v>
+        <v>0.53704865252441558</v>
       </c>
       <c r="AB20">
-        <v>0.26787799590420852</v>
+        <v>0.34753866413699142</v>
       </c>
       <c r="AC20">
         <v>1450</v>
@@ -2682,10 +2682,10 @@
         <v>0.4539850439246732</v>
       </c>
       <c r="AF20">
-        <v>0.69685031381820717</v>
+        <v>0.54023854131199722</v>
       </c>
       <c r="AG20">
-        <v>0.24327152419212281</v>
+        <v>0.3946553607546654</v>
       </c>
       <c r="AH20">
         <v>0.56551724137931036</v>
@@ -2694,10 +2694,10 @@
         <v>0.18579983044973289</v>
       </c>
       <c r="AJ20">
-        <v>0.52998435955294743</v>
+        <v>0.53367702863254163</v>
       </c>
       <c r="AK20">
-        <v>0.30439312149553099</v>
+        <v>0.32700815944899703</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.3">
@@ -2714,10 +2714,10 @@
         <v>0.38895537900613553</v>
       </c>
       <c r="E21">
-        <v>0.68360443509169855</v>
+        <v>0.49714968410260008</v>
       </c>
       <c r="F21">
-        <v>0.24874685927665499</v>
+        <v>0.41305553533573341</v>
       </c>
       <c r="G21">
         <v>0.56000000000000005</v>
@@ -2726,10 +2726,10 @@
         <v>0.28881048011946547</v>
       </c>
       <c r="I21">
-        <v>0.57933864211474406</v>
+        <v>0.5854559840804604</v>
       </c>
       <c r="J21">
-        <v>0.28589042189855418</v>
+        <v>0.29054829468098242</v>
       </c>
       <c r="K21">
         <v>1500</v>
@@ -2741,10 +2741,10 @@
         <v>0.4329118020434321</v>
       </c>
       <c r="N21">
-        <v>0.68313570092146392</v>
+        <v>0.52865883935896418</v>
       </c>
       <c r="O21">
-        <v>0.24893104801664789</v>
+        <v>0.39150905379621342</v>
       </c>
       <c r="P21">
         <v>0.52666666666666662</v>
@@ -2753,10 +2753,10 @@
         <v>0.25432489079547899</v>
       </c>
       <c r="R21">
-        <v>0.52083720531259381</v>
+        <v>0.4911377627113106</v>
       </c>
       <c r="S21">
-        <v>0.30512292604784708</v>
+        <v>0.36376488049297001</v>
       </c>
       <c r="T21">
         <v>1500</v>
@@ -2768,10 +2768,10 @@
         <v>0.40898606453609859</v>
       </c>
       <c r="W21">
-        <v>0.66528119025525823</v>
+        <v>0.49618608782830281</v>
       </c>
       <c r="X21">
-        <v>0.25584826232228608</v>
+        <v>0.41246074527046372</v>
       </c>
       <c r="Y21">
         <v>0.57999999999999996</v>
@@ -2780,10 +2780,10 @@
         <v>0.23655249525945121</v>
       </c>
       <c r="AA21">
-        <v>0.55960941855976665</v>
+        <v>0.57934959564174904</v>
       </c>
       <c r="AB21">
-        <v>0.29251780572585101</v>
+        <v>0.29724124396108359</v>
       </c>
       <c r="AC21">
         <v>1500</v>
@@ -2795,10 +2795,10 @@
         <v>0.42485789682410607</v>
       </c>
       <c r="AF21">
-        <v>0.67239742720336393</v>
+        <v>0.51755132175809759</v>
       </c>
       <c r="AG21">
-        <v>0.25311394008759508</v>
+        <v>0.39942151934464443</v>
       </c>
       <c r="AH21">
         <v>0.55666666666666664</v>
@@ -2807,10 +2807,10 @@
         <v>0.21504191514813389</v>
       </c>
       <c r="AJ21">
-        <v>0.56887357570732133</v>
+        <v>0.52399026404522631</v>
       </c>
       <c r="AK21">
-        <v>0.28942471675146658</v>
+        <v>0.33657599243468789</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.3">
@@ -2827,10 +2827,10 @@
         <v>0.41580874496743891</v>
       </c>
       <c r="E22">
-        <v>0.68710233605747018</v>
+        <v>0.66153882123474728</v>
       </c>
       <c r="F22">
-        <v>0.245475181059367</v>
+        <v>0.28016164241317709</v>
       </c>
       <c r="G22">
         <v>0.55161290322580647</v>
@@ -2839,10 +2839,10 @@
         <v>0.22408665111821649</v>
       </c>
       <c r="I22">
-        <v>0.60978561246709639</v>
+        <v>0.30856015425744471</v>
       </c>
       <c r="J22">
-        <v>0.27256251132656739</v>
+        <v>0.64263282876641292</v>
       </c>
       <c r="K22">
         <v>1550</v>
@@ -2854,10 +2854,10 @@
         <v>0.41093428698506063</v>
       </c>
       <c r="N22">
-        <v>0.69757134247953012</v>
+        <v>0.53689184626076147</v>
       </c>
       <c r="O22">
-        <v>0.24133366007225551</v>
+        <v>0.38662445430024062</v>
       </c>
       <c r="P22">
         <v>0.52580645161290318</v>
@@ -2866,10 +2866,10 @@
         <v>0.22312024467550781</v>
       </c>
       <c r="R22">
-        <v>0.53099721029479929</v>
+        <v>0.53208090307875211</v>
       </c>
       <c r="S22">
-        <v>0.29881486338642049</v>
+        <v>0.33127191671627942</v>
       </c>
       <c r="T22">
         <v>1550</v>
@@ -2881,10 +2881,10 @@
         <v>0.46145457531007411</v>
       </c>
       <c r="W22">
-        <v>0.6896148975987646</v>
+        <v>0.53126787993997726</v>
       </c>
       <c r="X22">
-        <v>0.2444876143046659</v>
+        <v>0.38942256274467207</v>
       </c>
       <c r="Y22">
         <v>0.54193548387096779</v>
@@ -2893,10 +2893,10 @@
         <v>0.20181106035290541</v>
       </c>
       <c r="AA22">
-        <v>0.54506051648899434</v>
+        <v>0.52710527843229538</v>
       </c>
       <c r="AB22">
-        <v>0.29430070204776348</v>
+        <v>0.330834180954798</v>
       </c>
       <c r="AC22">
         <v>1550</v>
@@ -2908,10 +2908,10 @@
         <v>0.41120612302585829</v>
       </c>
       <c r="AF22">
-        <v>0.66457303423719694</v>
+        <v>0.46984035197069318</v>
       </c>
       <c r="AG22">
-        <v>0.25415895458068832</v>
+        <v>0.41882428986506648</v>
       </c>
       <c r="AH22">
         <v>0.57741935483870965</v>
@@ -2920,10 +2920,10 @@
         <v>0.20235233414498069</v>
       </c>
       <c r="AJ22">
-        <v>0.55997100980332137</v>
+        <v>0.57888556481133457</v>
       </c>
       <c r="AK22">
-        <v>0.28943771963651721</v>
+        <v>0.29173345461987049</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.3">
@@ -2940,10 +2940,10 @@
         <v>0.37782289399582492</v>
       </c>
       <c r="E23">
-        <v>0.68708789581954832</v>
+        <v>0.48272204248446993</v>
       </c>
       <c r="F23">
-        <v>0.24360572653367571</v>
+        <v>0.40817353399518719</v>
       </c>
       <c r="G23">
         <v>0.578125</v>
@@ -2952,10 +2952,10 @@
         <v>0.28243448887251787</v>
       </c>
       <c r="I23">
-        <v>0.50589565664353631</v>
+        <v>0.53956528563655048</v>
       </c>
       <c r="J23">
-        <v>0.30639027399707058</v>
+        <v>0.30904992113744661</v>
       </c>
       <c r="K23">
         <v>1600</v>
@@ -2967,10 +2967,10 @@
         <v>0.40476484222122</v>
       </c>
       <c r="N23">
-        <v>0.69063060789952702</v>
+        <v>0.67089897352623673</v>
       </c>
       <c r="O23">
-        <v>0.2422227796884513</v>
+        <v>0.27149115060192858</v>
       </c>
       <c r="P23">
         <v>0.55000000000000004</v>
@@ -2979,10 +2979,10 @@
         <v>0.25048119780959482</v>
       </c>
       <c r="R23">
-        <v>0.59882806476484185</v>
+        <v>0.31867323906861689</v>
       </c>
       <c r="S23">
-        <v>0.2760774347895894</v>
+        <v>0.63923916616882737</v>
       </c>
       <c r="T23">
         <v>1600</v>
@@ -2994,10 +2994,10 @@
         <v>0.42169698758558899</v>
       </c>
       <c r="W23">
-        <v>0.72338009747607512</v>
+        <v>0.55439165915377997</v>
       </c>
       <c r="X23">
-        <v>0.2290435275226087</v>
+        <v>0.37407537755617842</v>
       </c>
       <c r="Y23">
         <v>0.53125</v>
@@ -3006,10 +3006,10 @@
         <v>0.17163473365738061</v>
       </c>
       <c r="AA23">
-        <v>0.5081984065792855</v>
+        <v>0.50817654016640001</v>
       </c>
       <c r="AB23">
-        <v>0.3056754815159371</v>
+        <v>0.34331071580384892</v>
       </c>
       <c r="AC23">
         <v>1600</v>
@@ -3021,10 +3021,10 @@
         <v>0.42026020830297561</v>
       </c>
       <c r="AF23">
-        <v>0.69236076961300519</v>
+        <v>0.66081897547447976</v>
       </c>
       <c r="AG23">
-        <v>0.2415445093559363</v>
+        <v>0.27829143743705759</v>
       </c>
       <c r="AH23">
         <v>0.578125</v>
@@ -3033,10 +3033,10 @@
         <v>0.20171221686289459</v>
       </c>
       <c r="AJ23">
-        <v>0.57876124389617067</v>
+        <v>0.24075988776770971</v>
       </c>
       <c r="AK23">
-        <v>0.28289794979815602</v>
+        <v>0.66462132137950125</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.3">
@@ -3053,10 +3053,10 @@
         <v>0.43831533775737952</v>
       </c>
       <c r="E24">
-        <v>0.70257933451047694</v>
+        <v>0.50067518768892283</v>
       </c>
       <c r="F24">
-        <v>0.23621061480266831</v>
+        <v>0.39255007539125941</v>
       </c>
       <c r="G24">
         <v>0.57272727272727275</v>
@@ -3065,10 +3065,10 @@
         <v>0.2088837999381217</v>
       </c>
       <c r="I24">
-        <v>0.56057883333617031</v>
+        <v>0.54265773627743075</v>
       </c>
       <c r="J24">
-        <v>0.2880446093397635</v>
+        <v>0.32678881819360323</v>
       </c>
       <c r="K24">
         <v>1650</v>
@@ -3080,10 +3080,10 @@
         <v>0.47362414954463772</v>
       </c>
       <c r="N24">
-        <v>0.72345733641924581</v>
+        <v>0.56281223425295535</v>
       </c>
       <c r="O24">
-        <v>0.227769154801057</v>
+        <v>0.37204258487564018</v>
       </c>
       <c r="P24">
         <v>0.54545454545454541</v>
@@ -3092,10 +3092,10 @@
         <v>0.23455589043100919</v>
       </c>
       <c r="R24">
-        <v>0.58112153214295259</v>
+        <v>0.60243418266484583</v>
       </c>
       <c r="S24">
-        <v>0.28123105996832759</v>
+        <v>0.2830367740735345</v>
       </c>
       <c r="T24">
         <v>1650</v>
@@ -3107,10 +3107,10 @@
         <v>0.40962970817191369</v>
       </c>
       <c r="W24">
-        <v>0.7162691655493022</v>
+        <v>0.65862612969942202</v>
       </c>
       <c r="X24">
-        <v>0.23071036545260101</v>
+        <v>0.27591038613733149</v>
       </c>
       <c r="Y24">
         <v>0.53939393939393943</v>
@@ -3119,10 +3119,10 @@
         <v>0.21357125970955751</v>
       </c>
       <c r="AA24">
-        <v>0.57068969290513349</v>
+        <v>0.30607363551829342</v>
       </c>
       <c r="AB24">
-        <v>0.28471144350132133</v>
+        <v>0.63194184436813461</v>
       </c>
       <c r="AC24">
         <v>1650</v>
@@ -3134,10 +3134,10 @@
         <v>0.40374876950280031</v>
       </c>
       <c r="AF24">
-        <v>0.69644112118333401</v>
+        <v>0.53145941604286562</v>
       </c>
       <c r="AG24">
-        <v>0.23863564213455141</v>
+        <v>0.38593766916623429</v>
       </c>
       <c r="AH24">
         <v>0.60606060606060608</v>
@@ -3146,10 +3146,10 @@
         <v>0.25898105478750638</v>
       </c>
       <c r="AJ24">
-        <v>0.57020822340184951</v>
+        <v>0.5873189721119656</v>
       </c>
       <c r="AK24">
-        <v>0.28487105004109342</v>
+        <v>0.28465209880409131</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.3">
@@ -3166,10 +3166,10 @@
         <v>0.41559934945814309</v>
       </c>
       <c r="E25">
-        <v>0.72414490663328301</v>
+        <v>0.53295571874121661</v>
       </c>
       <c r="F25">
-        <v>0.22859867222093941</v>
+        <v>0.38605083488885139</v>
       </c>
       <c r="G25">
         <v>0.54705882352941182</v>
@@ -3178,10 +3178,10 @@
         <v>0.2084708664377137</v>
       </c>
       <c r="I25">
-        <v>0.5515513811919629</v>
+        <v>0.54698964706387376</v>
       </c>
       <c r="J25">
-        <v>0.28962450335076362</v>
+        <v>0.30449553786081018</v>
       </c>
       <c r="K25">
         <v>1700</v>
@@ -3193,10 +3193,10 @@
         <v>0.47385918437517371</v>
       </c>
       <c r="N25">
-        <v>0.72173840377852916</v>
+        <v>0.55487943782048599</v>
       </c>
       <c r="O25">
-        <v>0.2295936307786382</v>
+        <v>0.37820906369400298</v>
       </c>
       <c r="P25">
         <v>0.53235294117647058</v>
@@ -3205,10 +3205,10 @@
         <v>0.2268748811147194</v>
       </c>
       <c r="R25">
-        <v>0.59762271545239587</v>
+        <v>0.60566963969989041</v>
       </c>
       <c r="S25">
-        <v>0.27434413768541321</v>
+        <v>0.27761210147322002</v>
       </c>
       <c r="T25">
         <v>1700</v>
@@ -3220,10 +3220,10 @@
         <v>0.44722294219915171</v>
       </c>
       <c r="W25">
-        <v>0.69712997136056121</v>
+        <v>0.54942880247189452</v>
       </c>
       <c r="X25">
-        <v>0.23953079134006969</v>
+        <v>0.3748921255862015</v>
       </c>
       <c r="Y25">
         <v>0.54117647058823526</v>
@@ -3232,10 +3232,10 @@
         <v>0.19248329734300559</v>
       </c>
       <c r="AA25">
-        <v>0.5875593523374889</v>
+        <v>0.55743772680233994</v>
       </c>
       <c r="AB25">
-        <v>0.27775359371847808</v>
+        <v>0.32138128856956683</v>
       </c>
       <c r="AC25">
         <v>1700</v>
@@ -3247,10 +3247,10 @@
         <v>0.46066401415428748</v>
       </c>
       <c r="AF25">
-        <v>0.69786744804185674</v>
+        <v>0.63290091158516226</v>
       </c>
       <c r="AG25">
-        <v>0.23923898954319101</v>
+        <v>0.29062460578671362</v>
       </c>
       <c r="AH25">
         <v>0.5794117647058824</v>
@@ -3259,10 +3259,10 @@
         <v>0.22590328899660339</v>
       </c>
       <c r="AJ25">
-        <v>0.6028116370585197</v>
+        <v>0.32007742558278568</v>
       </c>
       <c r="AK25">
-        <v>0.27256947306523299</v>
+        <v>0.61726942193046608</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.3">
@@ -3279,10 +3279,10 @@
         <v>0.44230569325718377</v>
       </c>
       <c r="E26">
-        <v>0.71769991486514639</v>
+        <v>0.57678689046182507</v>
       </c>
       <c r="F26">
-        <v>0.23211758104153041</v>
+        <v>0.3644180135096155</v>
       </c>
       <c r="G26">
         <v>0.57999999999999996</v>
@@ -3291,10 +3291,10 @@
         <v>0.237010425226443</v>
       </c>
       <c r="I26">
-        <v>0.58588356843438616</v>
+        <v>0.5636228769236028</v>
       </c>
       <c r="J26">
-        <v>0.2714511268823806</v>
+        <v>0.2982372158183238</v>
       </c>
       <c r="K26">
         <v>1750</v>
@@ -3306,10 +3306,10 @@
         <v>0.40295937279357952</v>
       </c>
       <c r="N26">
-        <v>0.70418933144559426</v>
+        <v>0.55945049390255919</v>
       </c>
       <c r="O26">
-        <v>0.2376071187004776</v>
+        <v>0.37251160877987061</v>
       </c>
       <c r="P26">
         <v>0.55714285714285716</v>
@@ -3318,10 +3318,10 @@
         <v>0.25048172597419799</v>
       </c>
       <c r="R26">
-        <v>0.59310933013289446</v>
+        <v>0.59367491158024732</v>
       </c>
       <c r="S26">
-        <v>0.26907248094147418</v>
+        <v>0.28423215085773912</v>
       </c>
       <c r="T26">
         <v>1750</v>
@@ -3333,10 +3333,10 @@
         <v>0.47805891708618048</v>
       </c>
       <c r="W26">
-        <v>0.73356830093132408</v>
+        <v>0.58493621610606772</v>
       </c>
       <c r="X26">
-        <v>0.2254994456755936</v>
+        <v>0.36096432396792161</v>
       </c>
       <c r="Y26">
         <v>0.5714285714285714</v>
@@ -3345,10 +3345,10 @@
         <v>0.20829343746378159</v>
       </c>
       <c r="AA26">
-        <v>0.49965614549885518</v>
+        <v>0.48801393872547122</v>
       </c>
       <c r="AB26">
-        <v>0.29837655978406108</v>
+        <v>0.32247702344978951</v>
       </c>
       <c r="AC26">
         <v>1750</v>
@@ -3360,10 +3360,10 @@
         <v>0.41003868565026169</v>
       </c>
       <c r="AF26">
-        <v>0.70501269109997133</v>
+        <v>0.5369400167628946</v>
       </c>
       <c r="AG26">
-        <v>0.23727621035409341</v>
+        <v>0.38515948776447961</v>
       </c>
       <c r="AH26">
         <v>0.57428571428571429</v>
@@ -3372,10 +3372,10 @@
         <v>0.27637771677251871</v>
       </c>
       <c r="AJ26">
-        <v>0.59760535963418837</v>
+        <v>0.6390949276386253</v>
       </c>
       <c r="AK26">
-        <v>0.267581763205193</v>
+        <v>0.25279804548354667</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.3">
@@ -3392,10 +3392,10 @@
         <v>0.41484696625361123</v>
       </c>
       <c r="E27">
-        <v>0.70887635877908495</v>
+        <v>0.5428746395838</v>
       </c>
       <c r="F27">
-        <v>0.2344911749109358</v>
+        <v>0.38442276438128292</v>
       </c>
       <c r="G27">
         <v>0.59722222222222221</v>
@@ -3404,10 +3404,10 @@
         <v>0.2397004627078046</v>
       </c>
       <c r="I27">
-        <v>0.62451644705117526</v>
+        <v>0.62073678472370464</v>
       </c>
       <c r="J27">
-        <v>0.27018512172212589</v>
+        <v>0.30105053666518572</v>
       </c>
       <c r="K27">
         <v>1800</v>
@@ -3419,10 +3419,10 @@
         <v>0.43509193951320579</v>
       </c>
       <c r="N27">
-        <v>0.71303106595993415</v>
+        <v>0.64769634274516819</v>
       </c>
       <c r="O27">
-        <v>0.23281191741164989</v>
+        <v>0.29511246785287759</v>
       </c>
       <c r="P27">
         <v>0.55000000000000004</v>
@@ -3431,10 +3431,10 @@
         <v>0.34842014318232462</v>
       </c>
       <c r="R27">
-        <v>0.6676656224661468</v>
+        <v>0.43480314591556241</v>
       </c>
       <c r="S27">
-        <v>0.25418715764395161</v>
+        <v>0.55391360033707715</v>
       </c>
       <c r="T27">
         <v>1800</v>
@@ -3446,10 +3446,10 @@
         <v>0.45130660800594991</v>
       </c>
       <c r="W27">
-        <v>0.68685273398856617</v>
+        <v>0.54027830260074594</v>
       </c>
       <c r="X27">
-        <v>0.24319916392400151</v>
+        <v>0.37132404293564741</v>
       </c>
       <c r="Y27">
         <v>0.56666666666666665</v>
@@ -3458,10 +3458,10 @@
         <v>0.28812904408809581</v>
       </c>
       <c r="AA27">
-        <v>0.64394786379434121</v>
+        <v>0.56061059668383428</v>
       </c>
       <c r="AB27">
-        <v>0.26310116347561491</v>
+        <v>0.38214346106877051</v>
       </c>
       <c r="AC27">
         <v>1800</v>
@@ -3473,10 +3473,10 @@
         <v>0.49190320213962768</v>
       </c>
       <c r="AF27">
-        <v>0.71678133261875365</v>
+        <v>0.56900116908712628</v>
       </c>
       <c r="AG27">
-        <v>0.2312856579115003</v>
+        <v>0.37336756581359642</v>
       </c>
       <c r="AH27">
         <v>0.54166666666666663</v>
@@ -3485,10 +3485,10 @@
         <v>0.2076002022562505</v>
       </c>
       <c r="AJ27">
-        <v>0.54264731621415996</v>
+        <v>0.52739655988736089</v>
       </c>
       <c r="AK27">
-        <v>0.29818897811063821</v>
+        <v>0.3356420443410067</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.3">
@@ -3505,10 +3505,10 @@
         <v>0.43920386981519421</v>
       </c>
       <c r="E28">
-        <v>0.70503980474580819</v>
+        <v>0.55545338991705517</v>
       </c>
       <c r="F28">
-        <v>0.235527011132424</v>
+        <v>0.3773131147505574</v>
       </c>
       <c r="G28">
         <v>0.59459459459459463</v>
@@ -3517,10 +3517,10 @@
         <v>0.27568684121159359</v>
       </c>
       <c r="I28">
-        <v>0.62910011174653246</v>
+        <v>0.60483599139857314</v>
       </c>
       <c r="J28">
-        <v>0.26625531335898611</v>
+        <v>0.29997876530074508</v>
       </c>
       <c r="K28">
         <v>1850</v>
@@ -3532,10 +3532,10 @@
         <v>0.42529243006149048</v>
       </c>
       <c r="N28">
-        <v>0.69242944804249262</v>
+        <v>0.53819558087046171</v>
       </c>
       <c r="O28">
-        <v>0.24050903225158629</v>
+        <v>0.38835367335209742</v>
       </c>
       <c r="P28">
         <v>0.53783783783783778</v>
@@ -3544,10 +3544,10 @@
         <v>0.29784482740114171</v>
       </c>
       <c r="R28">
-        <v>0.58526520310811281</v>
+        <v>0.605289761046371</v>
       </c>
       <c r="S28">
-        <v>0.28154976517530661</v>
+        <v>0.28250662140444383</v>
       </c>
       <c r="T28">
         <v>1850</v>
@@ -3559,10 +3559,10 @@
         <v>0.43458780118066909</v>
       </c>
       <c r="W28">
-        <v>0.69533953035864249</v>
+        <v>0.54786246196478561</v>
       </c>
       <c r="X28">
-        <v>0.2393685386538868</v>
+        <v>0.38213812537332148</v>
       </c>
       <c r="Y28">
         <v>0.56486486486486487</v>
@@ -3571,10 +3571,10 @@
         <v>0.26485365804346628</v>
       </c>
       <c r="AA28">
-        <v>0.58512380017702115</v>
+        <v>0.57601621389483526</v>
       </c>
       <c r="AB28">
-        <v>0.2815977579763328</v>
+        <v>0.30317833459883331</v>
       </c>
       <c r="AC28">
         <v>1850</v>
@@ -3586,10 +3586,10 @@
         <v>0.46490712760417729</v>
       </c>
       <c r="AF28">
-        <v>0.71905131219393681</v>
+        <v>0.56063426544177508</v>
       </c>
       <c r="AG28">
-        <v>0.22986482514259951</v>
+        <v>0.37176563165239368</v>
       </c>
       <c r="AH28">
         <v>0.5486486486486486</v>
@@ -3598,10 +3598,10 @@
         <v>0.19392371194696781</v>
       </c>
       <c r="AJ28">
-        <v>0.55712601982086918</v>
+        <v>0.5031319436946502</v>
       </c>
       <c r="AK28">
-        <v>0.29094440817559741</v>
+        <v>0.35275030836720028</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.3">
@@ -3618,10 +3618,10 @@
         <v>0.44600586119499369</v>
       </c>
       <c r="E29">
-        <v>0.72554960769196963</v>
+        <v>0.56649174803428115</v>
       </c>
       <c r="F29">
-        <v>0.22869768599386259</v>
+        <v>0.36611236594159502</v>
       </c>
       <c r="G29">
         <v>0.58157894736842108</v>
@@ -3630,10 +3630,10 @@
         <v>0.28068807427506071</v>
       </c>
       <c r="I29">
-        <v>0.60133218152398404</v>
+        <v>0.51758762112676537</v>
       </c>
       <c r="J29">
-        <v>0.27486838955934417</v>
+        <v>0.36527670742687979</v>
       </c>
       <c r="K29">
         <v>1900</v>
@@ -3645,10 +3645,10 @@
         <v>0.47763745161013899</v>
       </c>
       <c r="N29">
-        <v>0.72453250913850931</v>
+        <v>0.58366018988053392</v>
       </c>
       <c r="O29">
-        <v>0.22874083243061921</v>
+        <v>0.36079399816134139</v>
       </c>
       <c r="P29">
         <v>0.54210526315789476</v>
@@ -3657,10 +3657,10 @@
         <v>0.2079767573838979</v>
       </c>
       <c r="R29">
-        <v>0.55192169555772874</v>
+        <v>0.4932115585449014</v>
       </c>
       <c r="S29">
-        <v>0.29334728834428891</v>
+        <v>0.36486333079383759</v>
       </c>
       <c r="T29">
         <v>1900</v>
@@ -3672,10 +3672,10 @@
         <v>0.43598065064308039</v>
       </c>
       <c r="W29">
-        <v>0.69116563401413345</v>
+        <v>0.54464237257016723</v>
       </c>
       <c r="X29">
-        <v>0.24260103700910829</v>
+        <v>0.3787859593019568</v>
       </c>
       <c r="Y29">
         <v>0.56052631578947365</v>
@@ -3684,10 +3684,10 @@
         <v>0.28300287597209139</v>
       </c>
       <c r="AA29">
-        <v>0.62118919930248295</v>
+        <v>0.61630747409844577</v>
       </c>
       <c r="AB29">
-        <v>0.26793557748871372</v>
+        <v>0.31156332366871292</v>
       </c>
       <c r="AC29">
         <v>1900</v>
@@ -3699,10 +3699,10 @@
         <v>0.40007296127624897</v>
       </c>
       <c r="AF29">
-        <v>0.70711482662373215</v>
+        <v>0.64107940061748847</v>
       </c>
       <c r="AG29">
-        <v>0.23625365494248801</v>
+        <v>0.29587720189652911</v>
       </c>
       <c r="AH29">
         <v>0.55526315789473679</v>
@@ -3711,10 +3711,10 @@
         <v>0.2156277443486746</v>
       </c>
       <c r="AJ29">
-        <v>0.60549798944954336</v>
+        <v>0.33154276322979109</v>
       </c>
       <c r="AK29">
-        <v>0.27342852428877429</v>
+        <v>0.59943662742536929</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.3">
@@ -3731,10 +3731,10 @@
         <v>0.47678620209469769</v>
       </c>
       <c r="E30">
-        <v>0.73088596859535548</v>
+        <v>0.69287437645608718</v>
       </c>
       <c r="F30">
-        <v>0.2254340542609142</v>
+        <v>0.26116831280376951</v>
       </c>
       <c r="G30">
         <v>0.57435897435897432</v>
@@ -3743,10 +3743,10 @@
         <v>0.21714603706567881</v>
       </c>
       <c r="I30">
-        <v>0.57947555943525608</v>
+        <v>0.32203695689144801</v>
       </c>
       <c r="J30">
-        <v>0.28352180759972478</v>
+        <v>0.63972971856757466</v>
       </c>
       <c r="K30">
         <v>1950</v>
@@ -3758,10 +3758,10 @@
         <v>0.44795524886030968</v>
       </c>
       <c r="N30">
-        <v>0.70793931304168001</v>
+        <v>0.55622500372914652</v>
       </c>
       <c r="O30">
-        <v>0.23484856004209639</v>
+        <v>0.37578644909774322</v>
       </c>
       <c r="P30">
         <v>0.57692307692307687</v>
@@ -3770,10 +3770,10 @@
         <v>0.31004146708807429</v>
       </c>
       <c r="R30">
-        <v>0.63192374325050793</v>
+        <v>0.64990505761349704</v>
       </c>
       <c r="S30">
-        <v>0.26525266136077569</v>
+        <v>0.2774666352219316</v>
       </c>
       <c r="T30">
         <v>1950</v>
@@ -3785,10 +3785,10 @@
         <v>0.4518336086019733</v>
       </c>
       <c r="W30">
-        <v>0.72613370265228661</v>
+        <v>0.56734685808306418</v>
       </c>
       <c r="X30">
-        <v>0.22741580577864129</v>
+        <v>0.36385666647567783</v>
       </c>
       <c r="Y30">
         <v>0.54358974358974355</v>
@@ -3797,10 +3797,10 @@
         <v>0.20439582692820099</v>
       </c>
       <c r="AA30">
-        <v>0.58832870555240846</v>
+        <v>0.51740146273857812</v>
       </c>
       <c r="AB30">
-        <v>0.28052149238927793</v>
+        <v>0.36014336665502211</v>
       </c>
       <c r="AC30">
         <v>1950</v>
@@ -3812,10 +3812,10 @@
         <v>0.45504134956633441</v>
       </c>
       <c r="AF30">
-        <v>0.73879509691489176</v>
+        <v>0.57400228452092494</v>
       </c>
       <c r="AG30">
-        <v>0.222096652556771</v>
+        <v>0.3658048402555657</v>
       </c>
       <c r="AH30">
         <v>0.59230769230769231</v>
@@ -3824,10 +3824,10 @@
         <v>0.24594081923344971</v>
       </c>
       <c r="AJ30">
-        <v>0.53038084005831942</v>
+        <v>0.50260522812015396</v>
       </c>
       <c r="AK30">
-        <v>0.29961513775046611</v>
+        <v>0.34280846453270958</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.3">
@@ -3844,10 +3844,10 @@
         <v>0.44242297133717662</v>
       </c>
       <c r="E31">
-        <v>0.72278232554901289</v>
+        <v>0.57246549602477947</v>
       </c>
       <c r="F31">
-        <v>0.22751373584906909</v>
+        <v>0.36317000715308151</v>
       </c>
       <c r="G31">
         <v>0.55500000000000005</v>
@@ -3856,10 +3856,10 @@
         <v>0.27745845845663769</v>
       </c>
       <c r="I31">
-        <v>0.62086366141649885</v>
+        <v>0.56902344700955831</v>
       </c>
       <c r="J31">
-        <v>0.26706740722147282</v>
+        <v>0.31653578175065777</v>
       </c>
       <c r="K31">
         <v>2000</v>
@@ -3871,10 +3871,10 @@
         <v>0.41869585688887251</v>
       </c>
       <c r="N31">
-        <v>0.68251513617874748</v>
+        <v>0.54179851686654046</v>
       </c>
       <c r="O31">
-        <v>0.2434774116833017</v>
+        <v>0.38112198722654228</v>
       </c>
       <c r="P31">
         <v>0.57750000000000001</v>
@@ -3883,10 +3883,10 @@
         <v>0.26650606140322031</v>
       </c>
       <c r="R31">
-        <v>0.58936863434173903</v>
+        <v>0.61252231199654861</v>
       </c>
       <c r="S31">
-        <v>0.27793884219374593</v>
+        <v>0.27727067562530022</v>
       </c>
       <c r="T31">
         <v>2000</v>
@@ -3898,10 +3898,10 @@
         <v>0.45098791186118348</v>
       </c>
       <c r="W31">
-        <v>0.73128429238197001</v>
+        <v>0.5775325912745487</v>
       </c>
       <c r="X31">
-        <v>0.22399776784602121</v>
+        <v>0.36399690682903141</v>
       </c>
       <c r="Y31">
         <v>0.55500000000000005</v>
@@ -3910,10 +3910,10 @@
         <v>0.2443198408959264</v>
       </c>
       <c r="AA31">
-        <v>0.59548159318325355</v>
+        <v>0.60363608286375559</v>
       </c>
       <c r="AB31">
-        <v>0.27586228448267441</v>
+        <v>0.28987696980981359</v>
       </c>
       <c r="AC31">
         <v>2000</v>
@@ -3925,10 +3925,10 @@
         <v>0.41005543066871458</v>
       </c>
       <c r="AF31">
-        <v>0.70453991639955771</v>
+        <v>0.63121712578363487</v>
       </c>
       <c r="AG31">
-        <v>0.23488028865786079</v>
+        <v>0.29377659365929337</v>
       </c>
       <c r="AH31">
         <v>0.58499999999999996</v>
@@ -3937,10 +3937,10 @@
         <v>0.26774615469856933</v>
       </c>
       <c r="AJ31">
-        <v>0.62019920936850814</v>
+        <v>0.41454839684720801</v>
       </c>
       <c r="AK31">
-        <v>0.2673013280924732</v>
+        <v>0.55703736151107908</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.3">
@@ -3957,10 +3957,10 @@
         <v>0.43242505786660262</v>
       </c>
       <c r="E32">
-        <v>0.7194464119379459</v>
+        <v>0.58589795513528053</v>
       </c>
       <c r="F32">
-        <v>0.22818210528157479</v>
+        <v>0.34764186688948628</v>
       </c>
       <c r="G32">
         <v>0.55853658536585371</v>
@@ -3969,10 +3969,10 @@
         <v>0.24653547629520389</v>
       </c>
       <c r="I32">
-        <v>0.58181713606472507</v>
+        <v>0.50065115227127976</v>
       </c>
       <c r="J32">
-        <v>0.27902268462722768</v>
+        <v>0.37411132597456398</v>
       </c>
       <c r="K32">
         <v>2050</v>
@@ -3984,10 +3984,10 @@
         <v>0.41135780039811892</v>
       </c>
       <c r="N32">
-        <v>0.69556042311945265</v>
+        <v>0.55079108482716654</v>
       </c>
       <c r="O32">
-        <v>0.23769728648009419</v>
+        <v>0.37099999360617358</v>
       </c>
       <c r="P32">
         <v>0.58780487804878045</v>
@@ -3996,10 +3996,10 @@
         <v>0.26945564101039032</v>
       </c>
       <c r="R32">
-        <v>0.65256235740715884</v>
+        <v>0.62201364204310394</v>
       </c>
       <c r="S32">
-        <v>0.25432838384511519</v>
+        <v>0.28967805182288092</v>
       </c>
       <c r="T32">
         <v>2050</v>
@@ -4011,10 +4011,10 @@
         <v>0.44413108402347568</v>
       </c>
       <c r="W32">
-        <v>0.7164894119466606</v>
+        <v>0.56546529670847367</v>
       </c>
       <c r="X32">
-        <v>0.22938145883775479</v>
+        <v>0.3636093915218862</v>
       </c>
       <c r="Y32">
         <v>0.58048780487804874</v>
@@ -4023,10 +4023,10 @@
         <v>0.28290408609335871</v>
       </c>
       <c r="AA32">
-        <v>0.6118183503006831</v>
+        <v>0.5552666215809785</v>
       </c>
       <c r="AB32">
-        <v>0.2688276263387504</v>
+        <v>0.3202567314616348</v>
       </c>
       <c r="AC32">
         <v>2050</v>
@@ -4038,10 +4038,10 @@
         <v>0.45277344427067961</v>
       </c>
       <c r="AF32">
-        <v>0.71257960084707239</v>
+        <v>0.57088216641359057</v>
       </c>
       <c r="AG32">
-        <v>0.2309577091474414</v>
+        <v>0.35599841430415757</v>
       </c>
       <c r="AH32">
         <v>0.56341463414634141</v>
@@ -4050,10 +4050,10 @@
         <v>0.1988361557922195</v>
       </c>
       <c r="AJ32">
-        <v>0.5476236124158822</v>
+        <v>0.47343212937019741</v>
       </c>
       <c r="AK32">
-        <v>0.2902059823558466</v>
+        <v>0.37448309299207239</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.3">
@@ -4070,10 +4070,10 @@
         <v>0.40408821297040332</v>
       </c>
       <c r="E33">
-        <v>0.71278752522715949</v>
+        <v>0.56179807558017769</v>
       </c>
       <c r="F33">
-        <v>0.23043695553489349</v>
+        <v>0.36227617714378102</v>
       </c>
       <c r="G33">
         <v>0.57380952380952377</v>
@@ -4082,10 +4082,10 @@
         <v>0.27215034961809992</v>
       </c>
       <c r="I33">
-        <v>0.56778283881924296</v>
+        <v>0.52899130243040948</v>
       </c>
       <c r="J33">
-        <v>0.28510649639339031</v>
+        <v>0.33371604833234048</v>
       </c>
       <c r="K33">
         <v>2100</v>
@@ -4097,10 +4097,10 @@
         <v>0.44075215970162163</v>
       </c>
       <c r="N33">
-        <v>0.71021191733770461</v>
+        <v>0.57750522504497148</v>
       </c>
       <c r="O33">
-        <v>0.23146788319847089</v>
+        <v>0.35197383264395771</v>
       </c>
       <c r="P33">
         <v>0.60476190476190472</v>
@@ -4109,10 +4109,10 @@
         <v>0.26602960438254553</v>
       </c>
       <c r="R33">
-        <v>0.63158994170005778</v>
+        <v>0.49940610101484062</v>
       </c>
       <c r="S33">
-        <v>0.2632217967526897</v>
+        <v>0.36183814072593368</v>
       </c>
       <c r="T33">
         <v>2100</v>
@@ -4124,10 +4124,10 @@
         <v>0.4599603950914789</v>
       </c>
       <c r="W33">
-        <v>0.7086021624067953</v>
+        <v>0.54539486868206588</v>
       </c>
       <c r="X33">
-        <v>0.2321098877687032</v>
+        <v>0.37469374035953479</v>
       </c>
       <c r="Y33">
         <v>0.55714285714285716</v>
@@ -4136,10 +4136,10 @@
         <v>0.21400369362803009</v>
       </c>
       <c r="AA33">
-        <v>0.62893131241335731</v>
+        <v>0.64635453784956243</v>
       </c>
       <c r="AB33">
-        <v>0.26416985877596683</v>
+        <v>0.26536576661998701</v>
       </c>
       <c r="AC33">
         <v>2100</v>
@@ -4151,10 +4151,10 @@
         <v>0.45157301059501692</v>
       </c>
       <c r="AF33">
-        <v>0.72714653921087058</v>
+        <v>0.58745836885019598</v>
       </c>
       <c r="AG33">
-        <v>0.22460282405043031</v>
+        <v>0.35289826885215969</v>
       </c>
       <c r="AH33">
         <v>0.56190476190476191</v>
@@ -4163,10 +4163,10 @@
         <v>0.21966092734113379</v>
       </c>
       <c r="AJ33">
-        <v>0.53701869993027884</v>
+        <v>0.492164702503466</v>
       </c>
       <c r="AK33">
-        <v>0.29507868200096832</v>
+        <v>0.33950627774182962</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.3">
@@ -4183,10 +4183,10 @@
         <v>0.47046223074742621</v>
       </c>
       <c r="E34">
-        <v>0.73681472200478759</v>
+        <v>0.5943649649784537</v>
       </c>
       <c r="F34">
-        <v>0.2239056071880125</v>
+        <v>0.35278716162702428</v>
       </c>
       <c r="G34">
         <v>0.58139534883720934</v>
@@ -4195,10 +4195,10 @@
         <v>0.30700381335180671</v>
       </c>
       <c r="I34">
-        <v>0.57884329659804856</v>
+        <v>0.55022217229063641</v>
       </c>
       <c r="J34">
-        <v>0.28073822947431309</v>
+        <v>0.32510765243976342</v>
       </c>
       <c r="K34">
         <v>2150</v>
@@ -4210,10 +4210,10 @@
         <v>0.49010059680207901</v>
       </c>
       <c r="N34">
-        <v>0.72820771186972433</v>
+        <v>0.592055610566107</v>
       </c>
       <c r="O34">
-        <v>0.22753737234562921</v>
+        <v>0.35603431208124392</v>
       </c>
       <c r="P34">
         <v>0.59534883720930232</v>
@@ -4222,10 +4222,10 @@
         <v>0.32583793140755157</v>
       </c>
       <c r="R34">
-        <v>0.65589173451755567</v>
+        <v>0.6305417543325289</v>
       </c>
       <c r="S34">
-        <v>0.25376238656902889</v>
+        <v>0.28480417972325778</v>
       </c>
       <c r="T34">
         <v>2150</v>
@@ -4237,10 +4237,10 @@
         <v>0.44534405280556422</v>
       </c>
       <c r="W34">
-        <v>0.71599918685545028</v>
+        <v>0.5925844450541049</v>
       </c>
       <c r="X34">
-        <v>0.2325915673649892</v>
+        <v>0.35383541429724952</v>
       </c>
       <c r="Y34">
         <v>0.56511627906976747</v>
@@ -4249,10 +4249,10 @@
         <v>0.19950352275251371</v>
       </c>
       <c r="AA34">
-        <v>0.60431898978111143</v>
+        <v>0.5392637245517854</v>
       </c>
       <c r="AB34">
-        <v>0.27211488681787882</v>
+        <v>0.32781361247657859</v>
       </c>
       <c r="AC34">
         <v>2150</v>
@@ -4264,10 +4264,10 @@
         <v>0.48685187236863142</v>
       </c>
       <c r="AF34">
-        <v>0.73196183331161357</v>
+        <v>0.69500485940662982</v>
       </c>
       <c r="AG34">
-        <v>0.2259604822416604</v>
+        <v>0.27322542749208828</v>
       </c>
       <c r="AH34">
         <v>0.55348837209302326</v>
@@ -4276,10 +4276,10 @@
         <v>0.24664121132323899</v>
       </c>
       <c r="AJ34">
-        <v>0.661981046546678</v>
+        <v>0.43712117761065311</v>
       </c>
       <c r="AK34">
-        <v>0.25150708529480509</v>
+        <v>0.52155762183865673</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.3">
@@ -4296,10 +4296,10 @@
         <v>0.43237403888244169</v>
       </c>
       <c r="E35">
-        <v>0.69971710446699464</v>
+        <v>0.5666453305754825</v>
       </c>
       <c r="F35">
-        <v>0.23725465796749429</v>
+        <v>0.34986038011527998</v>
       </c>
       <c r="G35">
         <v>0.58863636363636362</v>
@@ -4308,10 +4308,10 @@
         <v>0.29538186754385959</v>
       </c>
       <c r="I35">
-        <v>0.67074576790124518</v>
+        <v>0.58865692014660875</v>
       </c>
       <c r="J35">
-        <v>0.25208223766353421</v>
+        <v>0.3593557492408011</v>
       </c>
       <c r="K35">
         <v>2200</v>
@@ -4323,10 +4323,10 @@
         <v>0.44829817649109732</v>
       </c>
       <c r="N35">
-        <v>0.71993399064045938</v>
+        <v>0.58981158416551271</v>
       </c>
       <c r="O35">
-        <v>0.229128784747792</v>
+        <v>0.34893260341442411</v>
       </c>
       <c r="P35">
         <v>0.61818181818181817</v>
@@ -4335,10 +4335,10 @@
         <v>0.31321698922406288</v>
       </c>
       <c r="R35">
-        <v>0.64177704790972379</v>
+        <v>0.58945781778741924</v>
       </c>
       <c r="S35">
-        <v>0.26293794636066442</v>
+        <v>0.32451093143023552</v>
       </c>
       <c r="T35">
         <v>2200</v>
@@ -4350,10 +4350,10 @@
         <v>0.47080510380366741</v>
       </c>
       <c r="W35">
-        <v>0.72766308505460242</v>
+        <v>0.59687930896386909</v>
       </c>
       <c r="X35">
-        <v>0.2259449852588819</v>
+        <v>0.35018088782039097</v>
       </c>
       <c r="Y35">
         <v>0.55909090909090908</v>
@@ -4362,10 +4362,10 @@
         <v>0.28277051701658301</v>
       </c>
       <c r="AA35">
-        <v>0.62623285669476103</v>
+        <v>0.60927791290424538</v>
       </c>
       <c r="AB35">
-        <v>0.26858213573572542</v>
+        <v>0.29783906050055881</v>
       </c>
       <c r="AC35">
         <v>2200</v>
@@ -4377,10 +4377,10 @@
         <v>0.43182296515175861</v>
       </c>
       <c r="AF35">
-        <v>0.71920654646030469</v>
+        <v>0.58713611088498674</v>
       </c>
       <c r="AG35">
-        <v>0.229426161621476</v>
+        <v>0.34200104837796341</v>
       </c>
       <c r="AH35">
         <v>0.54090909090909089</v>
@@ -4389,10 +4389,10 @@
         <v>0.2406992027563408</v>
       </c>
       <c r="AJ35">
-        <v>0.63859755425211784</v>
+        <v>0.56352755800924681</v>
       </c>
       <c r="AK35">
-        <v>0.26410225292488521</v>
+        <v>0.36814517739557978</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.3">
@@ -4409,10 +4409,10 @@
         <v>0.44287628239306948</v>
       </c>
       <c r="E36">
-        <v>0.7146082632086892</v>
+        <v>0.57756975555093049</v>
       </c>
       <c r="F36">
-        <v>0.23080776031629049</v>
+        <v>0.35839159966155171</v>
       </c>
       <c r="G36">
         <v>0.58666666666666667</v>
@@ -4421,10 +4421,10 @@
         <v>0.25223647213267159</v>
       </c>
       <c r="I36">
-        <v>0.61100326585033615</v>
+        <v>0.60975572790236821</v>
       </c>
       <c r="J36">
-        <v>0.2741856629690505</v>
+        <v>0.28828030785929171</v>
       </c>
       <c r="K36">
         <v>2250</v>
@@ -4436,10 +4436,10 @@
         <v>0.42412942338461962</v>
       </c>
       <c r="N36">
-        <v>0.72401318435021123</v>
+        <v>0.57962984173771803</v>
       </c>
       <c r="O36">
-        <v>0.2269728324418292</v>
+        <v>0.35908847612612838</v>
       </c>
       <c r="P36">
         <v>0.56888888888888889</v>
@@ -4448,10 +4448,10 @@
         <v>0.35161998570634989</v>
       </c>
       <c r="R36">
-        <v>0.62963095456811491</v>
+        <v>0.64751738442274087</v>
       </c>
       <c r="S36">
-        <v>0.26754023581094821</v>
+        <v>0.26701390715090922</v>
       </c>
       <c r="T36">
         <v>2250</v>
@@ -4463,10 +4463,10 @@
         <v>0.47621557409466542</v>
       </c>
       <c r="W36">
-        <v>0.73323953103967898</v>
+        <v>0.59190664106333457</v>
       </c>
       <c r="X36">
-        <v>0.22314668817718189</v>
+        <v>0.34962766404391488</v>
       </c>
       <c r="Y36">
         <v>0.57777777777777772</v>
@@ -4475,10 +4475,10 @@
         <v>0.23431159957212869</v>
       </c>
       <c r="AA36">
-        <v>0.59180064846842839</v>
+        <v>0.54412539805503002</v>
       </c>
       <c r="AB36">
-        <v>0.28087165910587858</v>
+        <v>0.32457097879102298</v>
       </c>
       <c r="AC36">
         <v>2250</v>
@@ -4490,10 +4490,10 @@
         <v>0.47266488233964588</v>
       </c>
       <c r="AF36">
-        <v>0.73353715512643602</v>
+        <v>0.58774071444820253</v>
       </c>
       <c r="AG36">
-        <v>0.22302217129444529</v>
+        <v>0.35159106760450531</v>
       </c>
       <c r="AH36">
         <v>0.56000000000000005</v>
@@ -4502,10 +4502,10 @@
         <v>0.21657394467190891</v>
       </c>
       <c r="AJ36">
-        <v>0.5941003631249443</v>
+        <v>0.56862059892818662</v>
       </c>
       <c r="AK36">
-        <v>0.2800793538346667</v>
+        <v>0.3148754274532764</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.3">
@@ -4522,10 +4522,10 @@
         <v>0.43255946623855179</v>
       </c>
       <c r="E37">
-        <v>0.72486135486162429</v>
+        <v>0.58916467874502176</v>
       </c>
       <c r="F37">
-        <v>0.2300756019413959</v>
+        <v>0.35384732659959311</v>
       </c>
       <c r="G37">
         <v>0.59347826086956523</v>
@@ -4534,10 +4534,10 @@
         <v>0.31995770607864099</v>
       </c>
       <c r="I37">
-        <v>0.65402746101725662</v>
+        <v>0.67582722137777895</v>
       </c>
       <c r="J37">
-        <v>0.25791808608632849</v>
+        <v>0.26842663928102811</v>
       </c>
       <c r="K37">
         <v>2300</v>
@@ -4549,10 +4549,10 @@
         <v>0.43769451876320009</v>
       </c>
       <c r="N37">
-        <v>0.72672574403812673</v>
+        <v>0.59107993415836413</v>
       </c>
       <c r="O37">
-        <v>0.2292947599848757</v>
+        <v>0.35612965567840638</v>
       </c>
       <c r="P37">
         <v>0.58260869565217388</v>
@@ -4561,10 +4561,10 @@
         <v>0.28278176944395761</v>
       </c>
       <c r="R37">
-        <v>0.64792206327050228</v>
+        <v>0.65058844791047221</v>
       </c>
       <c r="S37">
-        <v>0.26018388146446159</v>
+        <v>0.2648135984701237</v>
       </c>
       <c r="T37">
         <v>2300</v>
@@ -4576,10 +4576,10 @@
         <v>0.49781278422511172</v>
       </c>
       <c r="W37">
-        <v>0.72076534833749029</v>
+        <v>0.57977605685898492</v>
       </c>
       <c r="X37">
-        <v>0.23178185021040049</v>
+        <v>0.35914491300753482</v>
       </c>
       <c r="Y37">
         <v>0.57391304347826089</v>
@@ -4588,10 +4588,10 @@
         <v>0.22572142765045841</v>
       </c>
       <c r="AA37">
-        <v>0.60360139814591562</v>
+        <v>0.61729406724866598</v>
       </c>
       <c r="AB37">
-        <v>0.27607497406383619</v>
+        <v>0.28586667621678752</v>
       </c>
       <c r="AC37">
         <v>2300</v>
@@ -4603,10 +4603,10 @@
         <v>0.47326810003887071</v>
       </c>
       <c r="AF37">
-        <v>0.72113257650861962</v>
+        <v>0.58802179992715164</v>
       </c>
       <c r="AG37">
-        <v>0.23162938913929609</v>
+        <v>0.35204828512682318</v>
       </c>
       <c r="AH37">
         <v>0.58478260869565213</v>
@@ -4615,10 +4615,10 @@
         <v>0.28190996560502402</v>
       </c>
       <c r="AJ37">
-        <v>0.59093835096746217</v>
+        <v>0.57861953155430612</v>
       </c>
       <c r="AK37">
-        <v>0.28044994903376869</v>
+        <v>0.31668138217841468</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.3">
@@ -4635,10 +4635,10 @@
         <v>0.44349320945367371</v>
       </c>
       <c r="E38">
-        <v>0.70847461648538235</v>
+        <v>0.56862974180513226</v>
       </c>
       <c r="F38">
-        <v>0.23584388994742239</v>
+        <v>0.36167277681580312</v>
       </c>
       <c r="G38">
         <v>0.57234042553191489</v>
@@ -4647,10 +4647,10 @@
         <v>0.27840324602235961</v>
       </c>
       <c r="I38">
-        <v>0.63028405278461186</v>
+        <v>0.65567710669169654</v>
       </c>
       <c r="J38">
-        <v>0.26521769460561062</v>
+        <v>0.26931410133326178</v>
       </c>
       <c r="K38">
         <v>2350</v>
@@ -4662,10 +4662,10 @@
         <v>0.48337855402028113</v>
       </c>
       <c r="N38">
-        <v>0.71039823238501976</v>
+        <v>0.67783531753256032</v>
       </c>
       <c r="O38">
-        <v>0.23506449997593459</v>
+        <v>0.27491358218397649</v>
       </c>
       <c r="P38">
         <v>0.58510638297872342</v>
@@ -4674,10 +4674,10 @@
         <v>0.27698856156190887</v>
       </c>
       <c r="R38">
-        <v>0.65231491836278233</v>
+        <v>0.42257964365128342</v>
       </c>
       <c r="S38">
-        <v>0.25719435485681402</v>
+        <v>0.52916725217387683</v>
       </c>
       <c r="T38">
         <v>2350</v>
@@ -4689,10 +4689,10 @@
         <v>0.50095834852608412</v>
       </c>
       <c r="W38">
-        <v>0.71396667927130364</v>
+        <v>0.59266881417464035</v>
       </c>
       <c r="X38">
-        <v>0.23361178926823531</v>
+        <v>0.34298932125284942</v>
       </c>
       <c r="Y38">
         <v>0.6063829787234043</v>
@@ -4701,10 +4701,10 @@
         <v>0.29961404075079873</v>
       </c>
       <c r="AA38">
-        <v>0.64482218743010511</v>
+        <v>0.60959256132363882</v>
       </c>
       <c r="AB38">
-        <v>0.25995089552664818</v>
+        <v>0.32370477966525568</v>
       </c>
       <c r="AC38">
         <v>2350</v>
@@ -4716,10 +4716,10 @@
         <v>0.44905892106785961</v>
       </c>
       <c r="AF38">
-        <v>0.72567564561692288</v>
+        <v>0.60207412104587377</v>
       </c>
       <c r="AG38">
-        <v>0.22878029970238889</v>
+        <v>0.34683314822197048</v>
       </c>
       <c r="AH38">
         <v>0.54680851063829783</v>
@@ -4728,10 +4728,10 @@
         <v>0.24938959707617669</v>
       </c>
       <c r="AJ38">
-        <v>0.60411541042272421</v>
+        <v>0.62055301679911734</v>
       </c>
       <c r="AK38">
-        <v>0.27444334376364499</v>
+        <v>0.28522830873488281</v>
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.3">
@@ -4748,10 +4748,10 @@
         <v>0.44911470735883008</v>
       </c>
       <c r="E39">
-        <v>0.72685219899286047</v>
+        <v>0.59409829177716977</v>
       </c>
       <c r="F39">
-        <v>0.22731448480024319</v>
+        <v>0.34518586764324549</v>
       </c>
       <c r="G39">
         <v>0.58333333333333337</v>
@@ -4760,10 +4760,10 @@
         <v>0.2283933072569751</v>
       </c>
       <c r="I39">
-        <v>0.65268988091372737</v>
+        <v>0.6330534652467763</v>
       </c>
       <c r="J39">
-        <v>0.25540001305142218</v>
+        <v>0.29071124908271551</v>
       </c>
       <c r="K39">
         <v>2400</v>
@@ -4775,10 +4775,10 @@
         <v>0.45838333502053469</v>
       </c>
       <c r="N39">
-        <v>0.7345061742655129</v>
+        <v>0.69868869267302169</v>
       </c>
       <c r="O39">
-        <v>0.22410702428378571</v>
+        <v>0.2654077079162136</v>
       </c>
       <c r="P39">
         <v>0.59791666666666665</v>
@@ -4787,10 +4787,10 @@
         <v>0.31753739100250689</v>
       </c>
       <c r="R39">
-        <v>0.64359392761922907</v>
+        <v>0.44554060321479322</v>
       </c>
       <c r="S39">
-        <v>0.25872282465990509</v>
+        <v>0.5100073108509221</v>
       </c>
       <c r="T39">
         <v>2400</v>
@@ -4802,10 +4802,10 @@
         <v>0.50078354806778147</v>
       </c>
       <c r="W39">
-        <v>0.73255138201961967</v>
+        <v>0.60203079511368185</v>
       </c>
       <c r="X39">
-        <v>0.22493054483551139</v>
+        <v>0.34030102618990588</v>
       </c>
       <c r="Y39">
         <v>0.5854166666666667</v>
@@ -4814,10 +4814,10 @@
         <v>0.27006474926377511</v>
       </c>
       <c r="AA39">
-        <v>0.58402652616623363</v>
+        <v>0.52884073522913555</v>
       </c>
       <c r="AB39">
-        <v>0.27950849718747373</v>
+        <v>0.33666257715009368</v>
       </c>
       <c r="AC39">
         <v>2400</v>
@@ -4829,10 +4829,10 @@
         <v>0.40592642856547279</v>
       </c>
       <c r="AF39">
-        <v>0.71410475096682413</v>
+        <v>0.65807217278687502</v>
       </c>
       <c r="AG39">
-        <v>0.23255823643408829</v>
+        <v>0.28386996264597852</v>
       </c>
       <c r="AH39">
         <v>0.56041666666666667</v>
@@ -4841,10 +4841,10 @@
         <v>0.27492850453625373</v>
       </c>
       <c r="AJ39">
-        <v>0.64891838808430125</v>
+        <v>0.43393849220950848</v>
       </c>
       <c r="AK39">
-        <v>0.25678298230217672</v>
+        <v>0.51123368632392407</v>
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.3">
@@ -4861,10 +4861,10 @@
         <v>0.46417676266537522</v>
       </c>
       <c r="E40">
-        <v>0.71623174874813156</v>
+        <v>0.59001525203320759</v>
       </c>
       <c r="F40">
-        <v>0.23083698639021061</v>
+        <v>0.3467412608409372</v>
       </c>
       <c r="G40">
         <v>0.55102040816326525</v>
@@ -4873,10 +4873,10 @@
         <v>0.25533185312737539</v>
       </c>
       <c r="I40">
-        <v>0.64169553655616651</v>
+        <v>0.66153781813518542</v>
       </c>
       <c r="J40">
-        <v>0.26271735413418218</v>
+        <v>0.2735998434641535</v>
       </c>
       <c r="K40">
         <v>2450</v>
@@ -4888,10 +4888,10 @@
         <v>0.45253025466421121</v>
       </c>
       <c r="N40">
-        <v>0.73131135229512378</v>
+        <v>0.60262730515701501</v>
       </c>
       <c r="O40">
-        <v>0.22461986028099351</v>
+        <v>0.34186557361537878</v>
       </c>
       <c r="P40">
         <v>0.6</v>
@@ -4900,10 +4900,10 @@
         <v>0.29679235674148169</v>
       </c>
       <c r="R40">
-        <v>0.609806227420568</v>
+        <v>0.61082403101131355</v>
       </c>
       <c r="S40">
-        <v>0.27415919701174069</v>
+        <v>0.29109583011304851</v>
       </c>
       <c r="T40">
         <v>2450</v>
@@ -4915,10 +4915,10 @@
         <v>0.48280487328485577</v>
       </c>
       <c r="W40">
-        <v>0.74614642173054335</v>
+        <v>0.61370953103021386</v>
       </c>
       <c r="X40">
-        <v>0.21833086668389051</v>
+        <v>0.33848487871102528</v>
       </c>
       <c r="Y40">
         <v>0.57346938775510203</v>
@@ -4927,10 +4927,10 @@
         <v>0.22077344450181019</v>
       </c>
       <c r="AA40">
-        <v>0.55958851137314736</v>
+        <v>0.57379734326553744</v>
       </c>
       <c r="AB40">
-        <v>0.29126746247028268</v>
+        <v>0.29758628252653901</v>
       </c>
       <c r="AC40">
         <v>2450</v>
@@ -4942,10 +4942,10 @@
         <v>0.48456991675173888</v>
       </c>
       <c r="AF40">
-        <v>0.72231793108061138</v>
+        <v>0.59387394725549714</v>
       </c>
       <c r="AG40">
-        <v>0.22834810518779691</v>
+        <v>0.3453435861257021</v>
       </c>
       <c r="AH40">
         <v>0.55714285714285716</v>
@@ -4954,10 +4954,10 @@
         <v>0.27696850446838289</v>
       </c>
       <c r="AJ40">
-        <v>0.58416764665374143</v>
+        <v>0.58335275311780932</v>
       </c>
       <c r="AK40">
-        <v>0.28302303937369933</v>
+        <v>0.30244727334315419</v>
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.3">
@@ -4974,10 +4974,10 @@
         <v>0.49184207105935501</v>
       </c>
       <c r="E41">
-        <v>0.72929594672522857</v>
+        <v>0.68020813481214248</v>
       </c>
       <c r="F41">
-        <v>0.225055548698538</v>
+        <v>0.27145552468699979</v>
       </c>
       <c r="G41">
         <v>0.57199999999999995</v>
@@ -4986,10 +4986,10 @@
         <v>0.30343761716724232</v>
       </c>
       <c r="I41">
-        <v>0.62445967125587121</v>
+        <v>0.45057235512870042</v>
       </c>
       <c r="J41">
-        <v>0.26996296042235129</v>
+        <v>0.502628476467878</v>
       </c>
       <c r="K41">
         <v>2500</v>
@@ -5001,10 +5001,10 @@
         <v>0.48827423163087857</v>
       </c>
       <c r="N41">
-        <v>0.73012435991886315</v>
+        <v>0.59738587932323428</v>
       </c>
       <c r="O41">
-        <v>0.22471092541307369</v>
+        <v>0.34369511259950641</v>
       </c>
       <c r="P41">
         <v>0.59</v>
@@ -5013,10 +5013,10 @@
         <v>0.30538682186481347</v>
       </c>
       <c r="R41">
-        <v>0.64507110532525258</v>
+        <v>0.65365655323283156</v>
       </c>
       <c r="S41">
-        <v>0.26244999523718798</v>
+        <v>0.26853512832101439</v>
       </c>
       <c r="T41">
         <v>2500</v>
@@ -5028,10 +5028,10 @@
         <v>0.47092143835862332</v>
       </c>
       <c r="W41">
-        <v>0.72745205929423551</v>
+        <v>0.58691807733602774</v>
       </c>
       <c r="X41">
-        <v>0.22582072535531361</v>
+        <v>0.34608171344786171</v>
       </c>
       <c r="Y41">
         <v>0.56399999999999995</v>
@@ -5040,10 +5040,10 @@
         <v>0.2598568756880193</v>
       </c>
       <c r="AA41">
-        <v>0.65857159464069737</v>
+        <v>0.67042398313458174</v>
       </c>
       <c r="AB41">
-        <v>0.2574101785089315</v>
+        <v>0.2704971324419061</v>
       </c>
       <c r="AC41">
         <v>2500</v>
@@ -5055,10 +5055,10 @@
         <v>0.51925606345040509</v>
       </c>
       <c r="AF41">
-        <v>0.72568834088198131</v>
+        <v>0.70911873194404107</v>
       </c>
       <c r="AG41">
-        <v>0.22655021518418381</v>
+        <v>0.24727955278489061</v>
       </c>
       <c r="AH41">
         <v>0.56000000000000005</v>
@@ -5067,10 +5067,10 @@
         <v>0.29710161789430078</v>
       </c>
       <c r="AJ41">
-        <v>0.64362830494039591</v>
+        <v>0.42998259534474298</v>
       </c>
       <c r="AK41">
-        <v>0.26298288917722379</v>
+        <v>0.55478013655434155</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.3">
@@ -5087,10 +5087,10 @@
         <v>0.45922591567994392</v>
       </c>
       <c r="E42">
-        <v>0.73538498276768105</v>
+        <v>0.67927165060426309</v>
       </c>
       <c r="F42">
-        <v>0.22318988662167491</v>
+        <v>0.26876221452703858</v>
       </c>
       <c r="G42">
         <v>0.59215686274509804</v>
@@ -5099,10 +5099,10 @@
         <v>0.30482136254307057</v>
       </c>
       <c r="I42">
-        <v>0.64414939327079357</v>
+        <v>0.4526674616448142</v>
       </c>
       <c r="J42">
-        <v>0.25812293772617761</v>
+        <v>0.50718179927428853</v>
       </c>
       <c r="K42">
         <v>2550</v>
@@ -5114,10 +5114,10 @@
         <v>0.47047331673559539</v>
       </c>
       <c r="N42">
-        <v>0.73395280150928932</v>
+        <v>0.60388829012649281</v>
       </c>
       <c r="O42">
-        <v>0.22379305917148851</v>
+        <v>0.33495755524390608</v>
       </c>
       <c r="P42">
         <v>0.57058823529411762</v>
@@ -5126,10 +5126,10 @@
         <v>0.27077871080662808</v>
       </c>
       <c r="R42">
-        <v>0.58571365502626827</v>
+        <v>0.54036905383190059</v>
       </c>
       <c r="S42">
-        <v>0.27851144940734551</v>
+        <v>0.33099837087089617</v>
       </c>
       <c r="T42">
         <v>2550</v>
@@ -5141,10 +5141,10 @@
         <v>0.48395691135164398</v>
       </c>
       <c r="W42">
-        <v>0.73528082413070717</v>
+        <v>0.59404529645473581</v>
       </c>
       <c r="X42">
-        <v>0.22323380867004289</v>
+        <v>0.34214472196248508</v>
       </c>
       <c r="Y42">
         <v>0.57843137254901966</v>
@@ -5153,10 +5153,10 @@
         <v>0.2163968526379243</v>
       </c>
       <c r="AA42">
-        <v>0.6568209422449649</v>
+        <v>0.65265364706392315</v>
       </c>
       <c r="AB42">
-        <v>0.25348550641167689</v>
+        <v>0.27513110655937623</v>
       </c>
       <c r="AC42">
         <v>2550</v>
@@ -5168,10 +5168,10 @@
         <v>0.45548174108318301</v>
       </c>
       <c r="AF42">
-        <v>0.71455325537289116</v>
+        <v>0.59393177516178963</v>
       </c>
       <c r="AG42">
-        <v>0.23180874469624099</v>
+        <v>0.33683756029075168</v>
       </c>
       <c r="AH42">
         <v>0.5607843137254902</v>
@@ -5180,10 +5180,10 @@
         <v>0.32370981749597821</v>
       </c>
       <c r="AJ42">
-        <v>0.60079384554098447</v>
+        <v>0.57178573225240248</v>
       </c>
       <c r="AK42">
-        <v>0.27339549747429209</v>
+        <v>0.32962611313129342</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.3">
@@ -5200,10 +5200,10 @@
         <v>0.47022532022460067</v>
       </c>
       <c r="E43">
-        <v>0.74120202714354477</v>
+        <v>0.61348602400649932</v>
       </c>
       <c r="F43">
-        <v>0.21986665539332281</v>
+        <v>0.33218524117995318</v>
       </c>
       <c r="G43">
         <v>0.58653846153846156</v>
@@ -5212,10 +5212,10 @@
         <v>0.24307443154217351</v>
       </c>
       <c r="I43">
-        <v>0.54146211533983446</v>
+        <v>0.52953033424823148</v>
       </c>
       <c r="J43">
-        <v>0.29164651945067388</v>
+        <v>0.31710377174972459</v>
       </c>
       <c r="K43">
         <v>2600</v>
@@ -5227,10 +5227,10 @@
         <v>0.46001923281159318</v>
       </c>
       <c r="N43">
-        <v>0.73350629428585401</v>
+        <v>0.61005183178623468</v>
       </c>
       <c r="O43">
-        <v>0.22311173468431941</v>
+        <v>0.33409604850645808</v>
       </c>
       <c r="P43">
         <v>0.57499999999999996</v>
@@ -5239,10 +5239,10 @@
         <v>0.3062349400218754</v>
       </c>
       <c r="R43">
-        <v>0.59848129611376411</v>
+        <v>0.60898369201279579</v>
       </c>
       <c r="S43">
-        <v>0.27291165096193543</v>
+        <v>0.28705683058351689</v>
       </c>
       <c r="T43">
         <v>2600</v>
@@ -5254,10 +5254,10 @@
         <v>0.53798959227853793</v>
       </c>
       <c r="W43">
-        <v>0.73788179457283531</v>
+        <v>0.6148479819047552</v>
       </c>
       <c r="X43">
-        <v>0.2212725433973643</v>
+        <v>0.32388213613621541</v>
       </c>
       <c r="Y43">
         <v>0.6134615384615385</v>
@@ -5266,10 +5266,10 @@
         <v>0.31714681517313098</v>
       </c>
       <c r="AA43">
-        <v>0.64741412034157286</v>
+        <v>0.60138368339060722</v>
       </c>
       <c r="AB43">
-        <v>0.25574175676616862</v>
+        <v>0.32579106108813111</v>
       </c>
       <c r="AC43">
         <v>2600</v>
@@ -5281,10 +5281,10 @@
         <v>0.48747383160504371</v>
       </c>
       <c r="AF43">
-        <v>0.72323673772993902</v>
+        <v>0.5899405973956765</v>
       </c>
       <c r="AG43">
-        <v>0.22736999666758009</v>
+        <v>0.34309402054244831</v>
       </c>
       <c r="AH43">
         <v>0.55769230769230771</v>
@@ -5293,10 +5293,10 @@
         <v>0.22457820792212091</v>
       </c>
       <c r="AJ43">
-        <v>0.60024370715586728</v>
+        <v>0.58822319122313382</v>
       </c>
       <c r="AK43">
-        <v>0.27231203820956229</v>
+        <v>0.29227256031630061</v>
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.3">
@@ -5313,10 +5313,10 @@
         <v>0.5169554005422744</v>
       </c>
       <c r="E44">
-        <v>0.72801362399374714</v>
+        <v>0.59372458836307984</v>
       </c>
       <c r="F44">
-        <v>0.2256437332159319</v>
+        <v>0.34132993447254972</v>
       </c>
       <c r="G44">
         <v>0.5811320754716981</v>
@@ -5325,10 +5325,10 @@
         <v>0.2487996828677862</v>
       </c>
       <c r="I44">
-        <v>0.64223293063738796</v>
+        <v>0.6481603841539052</v>
       </c>
       <c r="J44">
-        <v>0.26036983855698159</v>
+        <v>0.26831941739195819</v>
       </c>
       <c r="K44">
         <v>2650</v>
@@ -5340,10 +5340,10 @@
         <v>0.46995997941199102</v>
       </c>
       <c r="N44">
-        <v>0.72098340360225699</v>
+        <v>0.59848441127935748</v>
       </c>
       <c r="O44">
-        <v>0.2285413137169551</v>
+        <v>0.3373217687627863</v>
       </c>
       <c r="P44">
         <v>0.57358490566037734</v>
@@ -5352,10 +5352,10 @@
         <v>0.29105897486809618</v>
       </c>
       <c r="R44">
-        <v>0.56745334001915193</v>
+        <v>0.56366573995370339</v>
       </c>
       <c r="S44">
-        <v>0.28629052403274441</v>
+        <v>0.30851796339335158</v>
       </c>
       <c r="T44">
         <v>2650</v>
@@ -5367,10 +5367,10 @@
         <v>0.51130068492964464</v>
       </c>
       <c r="W44">
-        <v>0.73214608329197062</v>
+        <v>0.67855438525818013</v>
       </c>
       <c r="X44">
-        <v>0.22392299889462511</v>
+        <v>0.27147360183464869</v>
       </c>
       <c r="Y44">
         <v>0.60377358490566035</v>
@@ -5379,10 +5379,10 @@
         <v>0.34778126406895588</v>
       </c>
       <c r="AA44">
-        <v>0.6389470098778649</v>
+        <v>0.44776024176127061</v>
       </c>
       <c r="AB44">
-        <v>0.26156279234559071</v>
+        <v>0.48982656099682081</v>
       </c>
       <c r="AC44">
         <v>2650</v>
@@ -5394,10 +5394,10 @@
         <v>0.48592410288160998</v>
       </c>
       <c r="AF44">
-        <v>0.7272072904721425</v>
+        <v>0.61718151051924985</v>
       </c>
       <c r="AG44">
-        <v>0.22597795851774799</v>
+        <v>0.3255602287429718</v>
       </c>
       <c r="AH44">
         <v>0.56603773584905659</v>
@@ -5406,10 +5406,10 @@
         <v>0.24967009128974971</v>
       </c>
       <c r="AJ44">
-        <v>0.6029014548794609</v>
+        <v>0.54255846017708542</v>
       </c>
       <c r="AK44">
-        <v>0.27430873667980021</v>
+        <v>0.33425660479224928</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.3">
@@ -5426,10 +5426,10 @@
         <v>0.51572578003574443</v>
       </c>
       <c r="E45">
-        <v>0.72990491645798661</v>
+        <v>0.60613980530452127</v>
       </c>
       <c r="F45">
-        <v>0.2242270674512285</v>
+        <v>0.33494593620861979</v>
       </c>
       <c r="G45">
         <v>0.57037037037037042</v>
@@ -5438,10 +5438,10 @@
         <v>0.2332330827067669</v>
       </c>
       <c r="I45">
-        <v>0.57948408563958276</v>
+        <v>0.59016207582704017</v>
       </c>
       <c r="J45">
-        <v>0.28179319971817518</v>
+        <v>0.28628768530608228</v>
       </c>
       <c r="K45">
         <v>2700</v>
@@ -5453,10 +5453,10 @@
         <v>0.48652831710919631</v>
       </c>
       <c r="N45">
-        <v>0.7219214429941756</v>
+        <v>0.61135474701153814</v>
       </c>
       <c r="O45">
-        <v>0.22751678814735601</v>
+        <v>0.32193374528164981</v>
       </c>
       <c r="P45">
         <v>0.57222222222222219</v>
@@ -5465,10 +5465,10 @@
         <v>0.28064181886590711</v>
       </c>
       <c r="R45">
-        <v>0.61420018491280748</v>
+        <v>0.53550443141206328</v>
       </c>
       <c r="S45">
-        <v>0.26991082203544903</v>
+        <v>0.35590315130003569</v>
       </c>
       <c r="T45">
         <v>2700</v>
@@ -5480,10 +5480,10 @@
         <v>0.48313732293853873</v>
       </c>
       <c r="W45">
-        <v>0.72244372630489218</v>
+        <v>0.59120747927322881</v>
       </c>
       <c r="X45">
-        <v>0.22730302828309759</v>
+        <v>0.33961048386310022</v>
       </c>
       <c r="Y45">
         <v>0.6074074074074074</v>
@@ -5492,10 +5492,10 @@
         <v>0.27552480206827512</v>
       </c>
       <c r="AA45">
-        <v>0.67863091153006361</v>
+        <v>0.68411627070386904</v>
       </c>
       <c r="AB45">
-        <v>0.24634363232116471</v>
+        <v>0.25808124766885271</v>
       </c>
       <c r="AC45">
         <v>2700</v>
@@ -5507,10 +5507,10 @@
         <v>0.4896738499066286</v>
       </c>
       <c r="AF45">
-        <v>0.71714628129619529</v>
+        <v>0.68796693495083616</v>
       </c>
       <c r="AG45">
-        <v>0.22946193099897369</v>
+        <v>0.2590307310467177</v>
       </c>
       <c r="AH45">
         <v>0.54814814814814816</v>
@@ -5519,10 +5519,10 @@
         <v>0.25802975312043808</v>
       </c>
       <c r="AJ45">
-        <v>0.63224471108872082</v>
+        <v>0.45326230857656302</v>
       </c>
       <c r="AK45">
-        <v>0.26352313834736502</v>
+        <v>0.51161436764203461</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.3">
@@ -5539,10 +5539,10 @@
         <v>0.49209746793691761</v>
       </c>
       <c r="E46">
-        <v>0.72163009194631267</v>
+        <v>0.58270833281135592</v>
       </c>
       <c r="F46">
-        <v>0.22709629515412019</v>
+        <v>0.33971267996273691</v>
       </c>
       <c r="G46">
         <v>0.57999999999999996</v>
@@ -5551,10 +5551,10 @@
         <v>0.27713589569124503</v>
       </c>
       <c r="I46">
-        <v>0.61678375664793095</v>
+        <v>0.60857915812235786</v>
       </c>
       <c r="J46">
-        <v>0.26967994498529679</v>
+        <v>0.29570679279655432</v>
       </c>
       <c r="K46">
         <v>2750</v>
@@ -5566,10 +5566,10 @@
         <v>0.4488881165394803</v>
       </c>
       <c r="N46">
-        <v>0.72769014547083766</v>
+        <v>0.60434656103815176</v>
       </c>
       <c r="O46">
-        <v>0.22461077445216199</v>
+        <v>0.32828514458869668</v>
       </c>
       <c r="P46">
         <v>0.59090909090909094</v>
@@ -5578,10 +5578,10 @@
         <v>0.33122992276386098</v>
       </c>
       <c r="R46">
-        <v>0.62990891298273921</v>
+        <v>0.62469047743563733</v>
       </c>
       <c r="S46">
-        <v>0.26502143995602251</v>
+        <v>0.30016991453374953</v>
       </c>
       <c r="T46">
         <v>2750</v>
@@ -5593,10 +5593,10 @@
         <v>0.48823941175041691</v>
       </c>
       <c r="W46">
-        <v>0.72216985379869958</v>
+        <v>0.59459512678217552</v>
       </c>
       <c r="X46">
-        <v>0.22687601740317831</v>
+        <v>0.33608386672050622</v>
       </c>
       <c r="Y46">
         <v>0.60545454545454547</v>
@@ -5605,10 +5605,10 @@
         <v>0.26493174700825711</v>
       </c>
       <c r="AA46">
-        <v>0.66966759823051647</v>
+        <v>0.67652972079735429</v>
       </c>
       <c r="AB46">
-        <v>0.25038152705602917</v>
+        <v>0.26381302392893391</v>
       </c>
       <c r="AC46">
         <v>2750</v>
@@ -5620,10 +5620,10 @@
         <v>0.4894933810393427</v>
       </c>
       <c r="AF46">
-        <v>0.72474598991236394</v>
+        <v>0.60668808976275446</v>
       </c>
       <c r="AG46">
-        <v>0.2258217317829587</v>
+        <v>0.33332049691685611</v>
       </c>
       <c r="AH46">
         <v>0.58363636363636362</v>
@@ -5632,10 +5632,10 @@
         <v>0.32526625769567558</v>
       </c>
       <c r="AJ46">
-        <v>0.6418844205874914</v>
+        <v>0.6668366023699841</v>
       </c>
       <c r="AK46">
-        <v>0.26069836279431507</v>
+        <v>0.25793919775248408</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.3">
@@ -5652,10 +5652,10 @@
         <v>0.4958276294550778</v>
       </c>
       <c r="E47">
-        <v>0.7281039545099105</v>
+        <v>0.61507392329007815</v>
       </c>
       <c r="F47">
-        <v>0.22518841317565921</v>
+        <v>0.32249780957217078</v>
       </c>
       <c r="G47">
         <v>0.60357142857142854</v>
@@ -5664,10 +5664,10 @@
         <v>0.30098578639866952</v>
       </c>
       <c r="I47">
-        <v>0.63904267811471738</v>
+        <v>0.61772271306464299</v>
       </c>
       <c r="J47">
-        <v>0.26162268359495999</v>
+        <v>0.31427299992091101</v>
       </c>
       <c r="K47">
         <v>2800</v>
@@ -5679,10 +5679,10 @@
         <v>0.47179961540440052</v>
       </c>
       <c r="N47">
-        <v>0.72774490523776059</v>
+        <v>0.60257629327767348</v>
       </c>
       <c r="O47">
-        <v>0.22533704913814259</v>
+        <v>0.33069986387080169</v>
       </c>
       <c r="P47">
         <v>0.6</v>
@@ -5691,10 +5691,10 @@
         <v>0.29396199976144738</v>
       </c>
       <c r="R47">
-        <v>0.57820823252695519</v>
+        <v>0.53792331071750232</v>
       </c>
       <c r="S47">
-        <v>0.28281114344583891</v>
+        <v>0.33192269137908881</v>
       </c>
       <c r="T47">
         <v>2800</v>
@@ -5706,10 +5706,10 @@
         <v>0.46465924374218509</v>
       </c>
       <c r="W47">
-        <v>0.71922346917873492</v>
+        <v>0.59560622333861268</v>
       </c>
       <c r="X47">
-        <v>0.2288363420188573</v>
+        <v>0.33395897033542132</v>
       </c>
       <c r="Y47">
         <v>0.60178571428571426</v>
@@ -5718,10 +5718,10 @@
         <v>0.33394516388645018</v>
       </c>
       <c r="AA47">
-        <v>0.64572881687126715</v>
+        <v>0.63632676808700661</v>
       </c>
       <c r="AB47">
-        <v>0.25918829338643251</v>
+        <v>0.29294658179343258</v>
       </c>
       <c r="AC47">
         <v>2800</v>
@@ -5733,10 +5733,10 @@
         <v>0.47397678681492522</v>
       </c>
       <c r="AF47">
-        <v>0.71522605394879868</v>
+        <v>0.67767664129569649</v>
       </c>
       <c r="AG47">
-        <v>0.23045955641469321</v>
+        <v>0.26588769147727231</v>
       </c>
       <c r="AH47">
         <v>0.57499999999999996</v>
@@ -5745,10 +5745,10 @@
         <v>0.24727596513662309</v>
       </c>
       <c r="AJ47">
-        <v>0.63763011358868582</v>
+        <v>0.43113283573989641</v>
       </c>
       <c r="AK47">
-        <v>0.26213409872484289</v>
+        <v>0.51215479395242169</v>
       </c>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.3">
@@ -5765,10 +5765,10 @@
         <v>0.4737923250701826</v>
       </c>
       <c r="E48">
-        <v>0.72196819990127392</v>
+        <v>0.61460974142576141</v>
       </c>
       <c r="F48">
-        <v>0.22777528168650879</v>
+        <v>0.3225410547671726</v>
       </c>
       <c r="G48">
         <v>0.57543859649122808</v>
@@ -5777,10 +5777,10 @@
         <v>0.25662370378033628</v>
       </c>
       <c r="I48">
-        <v>0.63344383791768699</v>
+        <v>0.61706334259411721</v>
       </c>
       <c r="J48">
-        <v>0.26397767050702559</v>
+        <v>0.31102991600781082</v>
       </c>
       <c r="K48">
         <v>2850</v>
@@ -5792,10 +5792,10 @@
         <v>0.49058965541135952</v>
       </c>
       <c r="N48">
-        <v>0.72304939550568181</v>
+        <v>0.61359278452139154</v>
       </c>
       <c r="O48">
-        <v>0.2273319699501227</v>
+        <v>0.32813407706530751</v>
       </c>
       <c r="P48">
         <v>0.58947368421052626</v>
@@ -5804,10 +5804,10 @@
         <v>0.2475502623809801</v>
       </c>
       <c r="R48">
-        <v>0.64239548638747146</v>
+        <v>0.62052751119226901</v>
       </c>
       <c r="S48">
-        <v>0.26073445522283939</v>
+        <v>0.28748758665321678</v>
       </c>
       <c r="T48">
         <v>2850</v>
@@ -5819,10 +5819,10 @@
         <v>0.50293454030096341</v>
       </c>
       <c r="W48">
-        <v>0.73136990080916897</v>
+        <v>0.62196439389149627</v>
       </c>
       <c r="X48">
-        <v>0.22389102925855731</v>
+        <v>0.32134115737107127</v>
       </c>
       <c r="Y48">
         <v>0.58771929824561409</v>
@@ -5831,10 +5831,10 @@
         <v>0.2816671233306135</v>
       </c>
       <c r="AA48">
-        <v>0.61443312054886601</v>
+        <v>0.54505695357451756</v>
       </c>
       <c r="AB48">
-        <v>0.27073648740802392</v>
+        <v>0.33029245309470889</v>
       </c>
       <c r="AC48">
         <v>2850</v>
@@ -5846,10 +5846,10 @@
         <v>0.4834133675793007</v>
       </c>
       <c r="AF48">
-        <v>0.71364769459778676</v>
+        <v>0.60803492918124546</v>
       </c>
       <c r="AG48">
-        <v>0.2311584100272274</v>
+        <v>0.32458398383264231</v>
       </c>
       <c r="AH48">
         <v>0.58421052631578951</v>
@@ -5858,10 +5858,10 @@
         <v>0.28322123593796361</v>
       </c>
       <c r="AJ48">
-        <v>0.61351027019115634</v>
+        <v>0.58348073828065361</v>
       </c>
       <c r="AK48">
-        <v>0.27106029626362887</v>
+        <v>0.32729505226016292</v>
       </c>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.3">
@@ -5878,10 +5878,10 @@
         <v>0.48131716999022151</v>
       </c>
       <c r="E49">
-        <v>0.72903210709089328</v>
+        <v>0.60994715961350376</v>
       </c>
       <c r="F49">
-        <v>0.22542106195387729</v>
+        <v>0.33136118037446649</v>
       </c>
       <c r="G49">
         <v>0.6103448275862069</v>
@@ -5890,10 +5890,10 @@
         <v>0.27649785438579849</v>
       </c>
       <c r="I49">
-        <v>0.66468882049289446</v>
+        <v>0.68122829204004898</v>
       </c>
       <c r="J49">
-        <v>0.25182095445663027</v>
+        <v>0.25347859946818579</v>
       </c>
       <c r="K49">
         <v>2900</v>
@@ -5905,10 +5905,10 @@
         <v>0.4554625479964578</v>
       </c>
       <c r="N49">
-        <v>0.71542510118689884</v>
+        <v>0.59840248215960257</v>
       </c>
       <c r="O49">
-        <v>0.23101164323545431</v>
+        <v>0.3326746133134304</v>
       </c>
       <c r="P49">
         <v>0.58620689655172409</v>
@@ -5917,10 +5917,10 @@
         <v>0.27107555416209228</v>
       </c>
       <c r="R49">
-        <v>0.63022780204436635</v>
+        <v>0.62845373567006813</v>
       </c>
       <c r="S49">
-        <v>0.26444476641211612</v>
+        <v>0.28929033272100912</v>
       </c>
       <c r="T49">
         <v>2900</v>
@@ -5932,10 +5932,10 @@
         <v>0.50363912801086186</v>
       </c>
       <c r="W49">
-        <v>0.73537591389748536</v>
+        <v>0.67806582550262506</v>
       </c>
       <c r="X49">
-        <v>0.2227666940994546</v>
+        <v>0.27181016604206798</v>
       </c>
       <c r="Y49">
         <v>0.60172413793103452</v>
@@ -5944,10 +5944,10 @@
         <v>0.30769348628787913</v>
       </c>
       <c r="AA49">
-        <v>0.64882581200071487</v>
+        <v>0.46588059425556649</v>
       </c>
       <c r="AB49">
-        <v>0.25770873695598351</v>
+        <v>0.46770879952721178</v>
       </c>
       <c r="AC49">
         <v>2900</v>
@@ -5959,10 +5959,10 @@
         <v>0.47293683174529211</v>
       </c>
       <c r="AF49">
-        <v>0.71903371592832976</v>
+        <v>0.5995402377934097</v>
       </c>
       <c r="AG49">
-        <v>0.22954227317079051</v>
+        <v>0.33581019707979848</v>
       </c>
       <c r="AH49">
         <v>0.58965517241379306</v>
@@ -5971,10 +5971,10 @@
         <v>0.29761004527465212</v>
       </c>
       <c r="AJ49">
-        <v>0.62311679823752741</v>
+        <v>0.64034993987672251</v>
       </c>
       <c r="AK49">
-        <v>0.26697539599926717</v>
+        <v>0.26897976111555</v>
       </c>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.3">
@@ -5991,10 +5991,10 @@
         <v>0.47182326492631949</v>
       </c>
       <c r="E50">
-        <v>0.73993266892416076</v>
+        <v>0.71179229879813177</v>
       </c>
       <c r="F50">
-        <v>0.22285702644809771</v>
+        <v>0.25453380029186512</v>
       </c>
       <c r="G50">
         <v>0.6</v>
@@ -6003,10 +6003,10 @@
         <v>0.32654924079152942</v>
       </c>
       <c r="I50">
-        <v>0.63769059260212368</v>
+        <v>0.42494915064522198</v>
       </c>
       <c r="J50">
-        <v>0.26267851073127391</v>
+        <v>0.51771449671518988</v>
       </c>
       <c r="K50">
         <v>2950</v>
@@ -6018,10 +6018,10 @@
         <v>0.4774171949880463</v>
       </c>
       <c r="N50">
-        <v>0.73496252284780306</v>
+        <v>0.61364305202034508</v>
       </c>
       <c r="O50">
-        <v>0.22497645827877419</v>
+        <v>0.33597174901439558</v>
       </c>
       <c r="P50">
         <v>0.58135593220338988</v>
@@ -6030,10 +6030,10 @@
         <v>0.26872017107654678</v>
       </c>
       <c r="R50">
-        <v>0.64427641823401827</v>
+        <v>0.67518411669011957</v>
       </c>
       <c r="S50">
-        <v>0.26028016196372777</v>
+        <v>0.25286110250612198</v>
       </c>
       <c r="T50">
         <v>2950</v>
@@ -6045,10 +6045,10 @@
         <v>0.44893555014750403</v>
       </c>
       <c r="W50">
-        <v>0.73454094795739777</v>
+        <v>0.61255250876237533</v>
       </c>
       <c r="X50">
-        <v>0.22515531362647709</v>
+        <v>0.33114134096263159</v>
       </c>
       <c r="Y50">
         <v>0.57627118644067798</v>
@@ -6057,10 +6057,10 @@
         <v>0.26877762260740978</v>
       </c>
       <c r="AA50">
-        <v>0.64169548656746511</v>
+        <v>0.6254208345010408</v>
       </c>
       <c r="AB50">
-        <v>0.26122267921371839</v>
+        <v>0.29571407432596919</v>
       </c>
       <c r="AC50">
         <v>2950</v>
@@ -6072,10 +6072,10 @@
         <v>0.47645974767284349</v>
       </c>
       <c r="AF50">
-        <v>0.73842387457955216</v>
+        <v>0.63227409824962932</v>
       </c>
       <c r="AG50">
-        <v>0.22350254994184851</v>
+        <v>0.31730912847647169</v>
       </c>
       <c r="AH50">
         <v>0.60677966101694913</v>
@@ -6084,10 +6084,10 @@
         <v>0.27013656993977442</v>
       </c>
       <c r="AJ50">
-        <v>0.66234293989989124</v>
+        <v>0.59181776968141131</v>
       </c>
       <c r="AK50">
-        <v>0.25358447260383021</v>
+        <v>0.33213776686278312</v>
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.3">
@@ -6104,10 +6104,10 @@
         <v>0.48814198377014673</v>
       </c>
       <c r="E51">
-        <v>0.72651992548588928</v>
+        <v>0.59220873915568362</v>
       </c>
       <c r="F51">
-        <v>0.22796198513494889</v>
+        <v>0.34077142597977478</v>
       </c>
       <c r="G51">
         <v>0.60833333333333328</v>
@@ -6116,10 +6116,10 @@
         <v>0.25551591147687358</v>
       </c>
       <c r="I51">
-        <v>0.65858667647716196</v>
+        <v>0.65664975904570322</v>
       </c>
       <c r="J51">
-        <v>0.25628759886762631</v>
+        <v>0.27382146731720408</v>
       </c>
       <c r="K51">
         <v>3000</v>
@@ -6131,10 +6131,10 @@
         <v>0.45801692923975879</v>
       </c>
       <c r="N51">
-        <v>0.72790135947357282</v>
+        <v>0.60463437861253122</v>
       </c>
       <c r="O51">
-        <v>0.22738550232296401</v>
+        <v>0.33124515187961578</v>
       </c>
       <c r="P51">
         <v>0.58499999999999996</v>
@@ -6143,10 +6143,10 @@
         <v>0.3233140274368923</v>
       </c>
       <c r="R51">
-        <v>0.61743688488280823</v>
+        <v>0.5843199520419553</v>
       </c>
       <c r="S51">
-        <v>0.27129319932501073</v>
+        <v>0.32064663844140978</v>
       </c>
       <c r="T51">
         <v>3000</v>
@@ -6158,10 +6158,10 @@
         <v>0.49386940005225438</v>
       </c>
       <c r="W51">
-        <v>0.73454539912862216</v>
+        <v>0.60186012770920883</v>
       </c>
       <c r="X51">
-        <v>0.22459222307699489</v>
+        <v>0.33156396172650737</v>
       </c>
       <c r="Y51">
         <v>0.58833333333333337</v>
@@ -6170,10 +6170,10 @@
         <v>0.3142944500606627</v>
       </c>
       <c r="AA51">
-        <v>0.67444017513351295</v>
+        <v>0.66900538413586674</v>
       </c>
       <c r="AB51">
-        <v>0.25026652459594623</v>
+        <v>0.28935780612858231</v>
       </c>
       <c r="AC51">
         <v>3000</v>
@@ -6185,10 +6185,10 @@
         <v>0.50100761150990414</v>
       </c>
       <c r="AF51">
-        <v>0.74439085723131904</v>
+        <v>0.62907345762812361</v>
       </c>
       <c r="AG51">
-        <v>0.2203879155791745</v>
+        <v>0.31670220499215862</v>
       </c>
       <c r="AH51">
         <v>0.6166666666666667</v>
@@ -6197,10 +6197,10 @@
         <v>0.28486664288132502</v>
       </c>
       <c r="AJ51">
-        <v>0.64195349755902331</v>
+        <v>0.56500398537225638</v>
       </c>
       <c r="AK51">
-        <v>0.26245634557642789</v>
+        <v>0.34636885314764121</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.3">
@@ -6217,10 +6217,10 @@
         <v>0.53315169468324941</v>
       </c>
       <c r="E52">
-        <v>0.73920874090928612</v>
+        <v>0.61458435022621416</v>
       </c>
       <c r="F52">
-        <v>0.2231572995173334</v>
+        <v>0.32757193861857148</v>
       </c>
       <c r="G52">
         <v>0.58688524590163937</v>
@@ -6229,10 +6229,10 @@
         <v>0.25798172473638847</v>
       </c>
       <c r="I52">
-        <v>0.64513403552065141</v>
+        <v>0.59061221342918724</v>
       </c>
       <c r="J52">
-        <v>0.26032766238584543</v>
+        <v>0.31266090073922731</v>
       </c>
       <c r="K52">
         <v>3050</v>
@@ -6244,10 +6244,10 @@
         <v>0.47860794256269629</v>
       </c>
       <c r="N52">
-        <v>0.73079542730846647</v>
+        <v>0.60704075192041584</v>
       </c>
       <c r="O52">
-        <v>0.22672833458771319</v>
+        <v>0.3312310285209476</v>
       </c>
       <c r="P52">
         <v>0.6</v>
@@ -6256,10 +6256,10 @@
         <v>0.25593611545886302</v>
       </c>
       <c r="R52">
-        <v>0.61526142893167868</v>
+        <v>0.54755301856953409</v>
       </c>
       <c r="S52">
-        <v>0.27106347934767161</v>
+        <v>0.32651008786231628</v>
       </c>
       <c r="T52">
         <v>3050</v>
@@ -6271,10 +6271,10 @@
         <v>0.50565103977516723</v>
       </c>
       <c r="W52">
-        <v>0.75753774553964326</v>
+        <v>0.62137071202160687</v>
       </c>
       <c r="X52">
-        <v>0.21517244323534751</v>
+        <v>0.32696613688945131</v>
       </c>
       <c r="Y52">
         <v>0.57377049180327866</v>
@@ -6283,10 +6283,10 @@
         <v>0.24060152443592189</v>
       </c>
       <c r="AA52">
-        <v>0.5938012230487959</v>
+        <v>0.5544292385871894</v>
       </c>
       <c r="AB52">
-        <v>0.27852068234119209</v>
+        <v>0.31519602988372242</v>
       </c>
       <c r="AC52">
         <v>3050</v>
@@ -6298,10 +6298,10 @@
         <v>0.48251906082630419</v>
       </c>
       <c r="AF52">
-        <v>0.73021593887167535</v>
+        <v>0.59885668545208404</v>
       </c>
       <c r="AG52">
-        <v>0.22697223055392249</v>
+        <v>0.33359947614224422</v>
       </c>
       <c r="AH52">
         <v>0.61803278688524588</v>
@@ -6310,10 +6310,10 @@
         <v>0.29537888137984308</v>
       </c>
       <c r="AJ52">
-        <v>0.6654783106976242</v>
+        <v>0.60995379847696629</v>
       </c>
       <c r="AK52">
-        <v>0.25275530835501619</v>
+        <v>0.30768290351995692</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.3">
@@ -6330,10 +6330,10 @@
         <v>0.4648918989671128</v>
       </c>
       <c r="E53">
-        <v>0.7301446072315132</v>
+        <v>0.59808514138829261</v>
       </c>
       <c r="F53">
-        <v>0.22604595593274471</v>
+        <v>0.33577205578068792</v>
       </c>
       <c r="G53">
         <v>0.60161290322580641</v>
@@ -6342,10 +6342,10 @@
         <v>0.31013335530021602</v>
       </c>
       <c r="I53">
-        <v>0.62782673785693532</v>
+        <v>0.61966861339926393</v>
       </c>
       <c r="J53">
-        <v>0.26594323915379547</v>
+        <v>0.28769453498879599</v>
       </c>
       <c r="K53">
         <v>3100</v>
@@ -6357,10 +6357,10 @@
         <v>0.41836782365399439</v>
       </c>
       <c r="N53">
-        <v>0.71781456679488476</v>
+        <v>0.59754647728772992</v>
       </c>
       <c r="O53">
-        <v>0.23115244236845781</v>
+        <v>0.33276769320179372</v>
       </c>
       <c r="P53">
         <v>0.60161290322580641</v>
@@ -6369,10 +6369,10 @@
         <v>0.30088576593033323</v>
       </c>
       <c r="R53">
-        <v>0.63733264557871949</v>
+        <v>0.58051344894919255</v>
       </c>
       <c r="S53">
-        <v>0.26252496041083351</v>
+        <v>0.3166830550736337</v>
       </c>
       <c r="T53">
         <v>3100</v>
@@ -6384,10 +6384,10 @@
         <v>0.4848343368441218</v>
       </c>
       <c r="W53">
-        <v>0.72051908343642501</v>
+        <v>0.61294865562681566</v>
       </c>
       <c r="X53">
-        <v>0.23004207188840409</v>
+        <v>0.31886747152719491</v>
       </c>
       <c r="Y53">
         <v>0.5741935483870968</v>
@@ -6396,10 +6396,10 @@
         <v>0.2635693633885407</v>
       </c>
       <c r="AA53">
-        <v>0.6275721153286733</v>
+        <v>0.57097150230627602</v>
       </c>
       <c r="AB53">
-        <v>0.26603419620114083</v>
+        <v>0.35205946710992708</v>
       </c>
       <c r="AC53">
         <v>3100</v>
@@ -6411,10 +6411,10 @@
         <v>0.4717478437528474</v>
       </c>
       <c r="AF53">
-        <v>0.7336157585116001</v>
+        <v>0.61034736758990649</v>
       </c>
       <c r="AG53">
-        <v>0.2245874353765861</v>
+        <v>0.33202581361921712</v>
       </c>
       <c r="AH53">
         <v>0.60967741935483866</v>
@@ -6423,10 +6423,10 @@
         <v>0.29675310334125249</v>
       </c>
       <c r="AJ53">
-        <v>0.6032132267916015</v>
+        <v>0.61306422808618488</v>
       </c>
       <c r="AK53">
-        <v>0.27459647813919902</v>
+        <v>0.28369411388833149</v>
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.3">
@@ -6443,10 +6443,10 @@
         <v>0.4924231271673058</v>
       </c>
       <c r="E54">
-        <v>0.72559016368300744</v>
+        <v>0.60308761070449113</v>
       </c>
       <c r="F54">
-        <v>0.22744264932100741</v>
+        <v>0.33279279326720468</v>
       </c>
       <c r="G54">
         <v>0.6</v>
@@ -6455,10 +6455,10 @@
         <v>0.28748696026027082</v>
       </c>
       <c r="I54">
-        <v>0.62888115373777764</v>
+        <v>0.62969643024002109</v>
       </c>
       <c r="J54">
-        <v>0.26797299082094778</v>
+        <v>0.2827374955281054</v>
       </c>
       <c r="K54">
         <v>3150</v>
@@ -6470,10 +6470,10 @@
         <v>0.48560020126724313</v>
       </c>
       <c r="N54">
-        <v>0.7480085800436701</v>
+        <v>0.64203208471858841</v>
       </c>
       <c r="O54">
-        <v>0.21795405078586691</v>
+        <v>0.31716833393332372</v>
       </c>
       <c r="P54">
         <v>0.59523809523809523</v>
@@ -6482,10 +6482,10 @@
         <v>0.27988488415088542</v>
       </c>
       <c r="R54">
-        <v>0.61075178481117487</v>
+        <v>0.60799581890174004</v>
       </c>
       <c r="S54">
-        <v>0.27444026730321541</v>
+        <v>0.28549046777928289</v>
       </c>
       <c r="T54">
         <v>3150</v>
@@ -6497,10 +6497,10 @@
         <v>0.46471368772233618</v>
       </c>
       <c r="W54">
-        <v>0.74461950489431161</v>
+        <v>0.61960537323863241</v>
       </c>
       <c r="X54">
-        <v>0.21941480611585251</v>
+        <v>0.32172570644181209</v>
       </c>
       <c r="Y54">
         <v>0.60158730158730156</v>
@@ -6509,10 +6509,10 @@
         <v>0.35586847394982313</v>
       </c>
       <c r="AA54">
-        <v>0.62428728649845755</v>
+        <v>0.59167346824659073</v>
       </c>
       <c r="AB54">
-        <v>0.26962643175032502</v>
+        <v>0.31537305558144563</v>
       </c>
       <c r="AC54">
         <v>3150</v>
@@ -6524,10 +6524,10 @@
         <v>0.48673165161055082</v>
       </c>
       <c r="AF54">
-        <v>0.73758875272110858</v>
+        <v>0.62643893131223582</v>
       </c>
       <c r="AG54">
-        <v>0.2224145992695937</v>
+        <v>0.31338800361620323</v>
       </c>
       <c r="AH54">
         <v>0.61587301587301591</v>
@@ -6536,10 +6536,10 @@
         <v>0.37635187718467572</v>
       </c>
       <c r="AJ54">
-        <v>0.6671086918364062</v>
+        <v>0.60731190615504638</v>
       </c>
       <c r="AK54">
-        <v>0.25379656895375557</v>
+        <v>0.33174143920591159</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.3">
@@ -6556,10 +6556,10 @@
         <v>0.45659787345551028</v>
       </c>
       <c r="E55">
-        <v>0.72444322482294854</v>
+        <v>0.60768143750393322</v>
       </c>
       <c r="F55">
-        <v>0.22794941873143701</v>
+        <v>0.3295397459961073</v>
       </c>
       <c r="G55">
         <v>0.57343750000000004</v>
@@ -6568,10 +6568,10 @@
         <v>0.26631007312698712</v>
       </c>
       <c r="I55">
-        <v>0.62285886006210556</v>
+        <v>0.64178916282968057</v>
       </c>
       <c r="J55">
-        <v>0.26569484375877528</v>
+        <v>0.27617663345945043</v>
       </c>
       <c r="K55">
         <v>3200</v>
@@ -6583,10 +6583,10 @@
         <v>0.48804995603667828</v>
       </c>
       <c r="N55">
-        <v>0.72543224152768659</v>
+        <v>0.68222016503898075</v>
       </c>
       <c r="O55">
-        <v>0.22715117488139919</v>
+        <v>0.26965970345158358</v>
       </c>
       <c r="P55">
         <v>0.57343750000000004</v>
@@ -6595,10 +6595,10 @@
         <v>0.26837257869567471</v>
       </c>
       <c r="R55">
-        <v>0.62616240449006544</v>
+        <v>0.40765665581326038</v>
       </c>
       <c r="S55">
-        <v>0.26634094690828142</v>
+        <v>0.48953348850812639</v>
       </c>
       <c r="T55">
         <v>3200</v>
@@ -6610,10 +6610,10 @@
         <v>0.49427921356737481</v>
       </c>
       <c r="W55">
-        <v>0.72427750130758117</v>
+        <v>0.59697582076779587</v>
       </c>
       <c r="X55">
-        <v>0.2280179543369337</v>
+        <v>0.33248363109220719</v>
       </c>
       <c r="Y55">
         <v>0.59531250000000002</v>
@@ -6622,10 +6622,10 @@
         <v>0.28588342822616969</v>
       </c>
       <c r="AA55">
-        <v>0.63529667100737919</v>
+        <v>0.63449689205968463</v>
       </c>
       <c r="AB55">
-        <v>0.26127691248941232</v>
+        <v>0.28550123878839773</v>
       </c>
       <c r="AC55">
         <v>3200</v>
@@ -6637,10 +6637,10 @@
         <v>0.51007965453571602</v>
       </c>
       <c r="AF55">
-        <v>0.74043554405589729</v>
+        <v>0.6303571294035496</v>
       </c>
       <c r="AG55">
-        <v>0.22123587525534821</v>
+        <v>0.31919141083736052</v>
       </c>
       <c r="AH55">
         <v>0.59531250000000002</v>
@@ -6649,10 +6649,10 @@
         <v>0.31956794008030609</v>
       </c>
       <c r="AJ55">
-        <v>0.63538014624862271</v>
+        <v>0.59750775857120875</v>
       </c>
       <c r="AK55">
-        <v>0.2612470095522626</v>
+        <v>0.29598970891947118</v>
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.3">
@@ -6669,10 +6669,10 @@
         <v>0.51071298966828294</v>
       </c>
       <c r="E56">
-        <v>0.76298267293978095</v>
+        <v>0.64266117120481936</v>
       </c>
       <c r="F56">
-        <v>0.2109502310972898</v>
+        <v>0.31710747801996642</v>
       </c>
       <c r="G56">
         <v>0.59076923076923082</v>
@@ -6681,10 +6681,10 @@
         <v>0.23197819997970431</v>
       </c>
       <c r="I56">
-        <v>0.57166556071665564</v>
+        <v>0.59086281188314049</v>
       </c>
       <c r="J56">
-        <v>0.28186194110974577</v>
+        <v>0.27395430373399349</v>
       </c>
       <c r="K56">
         <v>3250</v>
@@ -6696,10 +6696,10 @@
         <v>0.5096156035507976</v>
       </c>
       <c r="N56">
-        <v>0.74169835339846268</v>
+        <v>0.63286738144447807</v>
       </c>
       <c r="O56">
-        <v>0.21967633533836159</v>
+        <v>0.30998298743215508</v>
       </c>
       <c r="P56">
         <v>0.59076923076923082</v>
@@ -6708,10 +6708,10 @@
         <v>0.28810703085558392</v>
       </c>
       <c r="R56">
-        <v>0.60368908414260858</v>
+        <v>0.53890694732725541</v>
       </c>
       <c r="S56">
-        <v>0.27380509631712618</v>
+        <v>0.34767395630014242</v>
       </c>
       <c r="T56">
         <v>3250</v>
@@ -6723,10 +6723,10 @@
         <v>0.47968278745073728</v>
       </c>
       <c r="W56">
-        <v>0.74534465058897292</v>
+        <v>0.62584016008750853</v>
       </c>
       <c r="X56">
-        <v>0.21865849734583481</v>
+        <v>0.32028102580583129</v>
       </c>
       <c r="Y56">
         <v>0.6</v>
@@ -6735,10 +6735,10 @@
         <v>0.32194032289809688</v>
       </c>
       <c r="AA56">
-        <v>0.64540477770404769</v>
+        <v>0.65336712108355932</v>
       </c>
       <c r="AB56">
-        <v>0.2564551242795331</v>
+        <v>0.27138313992288587</v>
       </c>
       <c r="AC56">
         <v>3250</v>
@@ -6750,10 +6750,10 @@
         <v>0.46378269715646142</v>
       </c>
       <c r="AF56">
-        <v>0.72238039616939598</v>
+        <v>0.61406416322270552</v>
       </c>
       <c r="AG56">
-        <v>0.22830478953161909</v>
+        <v>0.32280936915559372</v>
       </c>
       <c r="AH56">
         <v>0.59076923076923082</v>
@@ -6762,10 +6762,10 @@
         <v>0.24838291083600009</v>
       </c>
       <c r="AJ56">
-        <v>0.64764432647644332</v>
+        <v>0.58042778002170259</v>
       </c>
       <c r="AK56">
-        <v>0.25564398321463799</v>
+        <v>0.3100585580776109</v>
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.3">
@@ -6782,10 +6782,10 @@
         <v>0.48887364421864932</v>
       </c>
       <c r="E57">
-        <v>0.7402732623206445</v>
+        <v>0.62867320406953064</v>
       </c>
       <c r="F57">
-        <v>0.22069106337716859</v>
+        <v>0.31603301379390758</v>
       </c>
       <c r="G57">
         <v>0.6</v>
@@ -6794,10 +6794,10 @@
         <v>0.25798259675142582</v>
       </c>
       <c r="I57">
-        <v>0.6086632904635616</v>
+        <v>0.54174896361215286</v>
       </c>
       <c r="J57">
-        <v>0.27225211132553612</v>
+        <v>0.32468874685637411</v>
       </c>
       <c r="K57">
         <v>3300</v>
@@ -6809,10 +6809,10 @@
         <v>0.46434665689033883</v>
       </c>
       <c r="N57">
-        <v>0.71710429606475556</v>
+        <v>0.62107093052848927</v>
       </c>
       <c r="O57">
-        <v>0.23032421154590421</v>
+        <v>0.31452461301329498</v>
       </c>
       <c r="P57">
         <v>0.61212121212121207</v>
@@ -6821,10 +6821,10 @@
         <v>0.28385633339652311</v>
       </c>
       <c r="R57">
-        <v>0.62698220021087225</v>
+        <v>0.59619830916278216</v>
       </c>
       <c r="S57">
-        <v>0.26580352734964813</v>
+        <v>0.32504086652765979</v>
       </c>
       <c r="T57">
         <v>3300</v>
@@ -6836,10 +6836,10 @@
         <v>0.4426343806017991</v>
       </c>
       <c r="W57">
-        <v>0.73235501055751595</v>
+        <v>0.68403953135584894</v>
       </c>
       <c r="X57">
-        <v>0.22402989519123101</v>
+        <v>0.26393503161659171</v>
       </c>
       <c r="Y57">
         <v>0.59242424242424241</v>
@@ -6848,10 +6848,10 @@
         <v>0.2475566192268035</v>
       </c>
       <c r="AA57">
-        <v>0.6041035618365016</v>
+        <v>0.4190706424877052</v>
       </c>
       <c r="AB57">
-        <v>0.27383361459990352</v>
+        <v>0.49625757009045829</v>
       </c>
       <c r="AC57">
         <v>3300</v>
@@ -6863,10 +6863,10 @@
         <v>0.47848866107170718</v>
       </c>
       <c r="AF57">
-        <v>0.7444747836643455</v>
+        <v>0.60318800229513814</v>
       </c>
       <c r="AG57">
-        <v>0.21889875894272831</v>
+        <v>0.32865727057209199</v>
       </c>
       <c r="AH57">
         <v>0.59242424242424241</v>
@@ -6875,10 +6875,10 @@
         <v>0.25795657360510682</v>
       </c>
       <c r="AJ57">
-        <v>0.65282066243087844</v>
+        <v>0.6496078177075062</v>
       </c>
       <c r="AK57">
-        <v>0.25643239997624279</v>
+        <v>0.27581701404039599</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.3">
@@ -6895,10 +6895,10 @@
         <v>0.49162716898189102</v>
       </c>
       <c r="E58">
-        <v>0.74036871366706192</v>
+        <v>0.69764340695777838</v>
       </c>
       <c r="F58">
-        <v>0.2209545100747845</v>
+        <v>0.25730430638571772</v>
       </c>
       <c r="G58">
         <v>0.59402985074626868</v>
@@ -6907,10 +6907,10 @@
         <v>0.2614619997796116</v>
       </c>
       <c r="I58">
-        <v>0.58555006720697411</v>
+        <v>0.38617112046415969</v>
       </c>
       <c r="J58">
-        <v>0.27885694187136661</v>
+        <v>0.51005585574959722</v>
       </c>
       <c r="K58">
         <v>3350</v>
@@ -6922,10 +6922,10 @@
         <v>0.49694912751360798</v>
       </c>
       <c r="N58">
-        <v>0.72697440624771514</v>
+        <v>0.62003349086606874</v>
       </c>
       <c r="O58">
-        <v>0.2265823299350723</v>
+        <v>0.3216204962384106</v>
       </c>
       <c r="P58">
         <v>0.62686567164179108</v>
@@ -6934,10 +6934,10 @@
         <v>0.29303614529914779</v>
       </c>
       <c r="R58">
-        <v>0.68323615501308455</v>
+        <v>0.66620386022110167</v>
       </c>
       <c r="S58">
-        <v>0.24378850633468249</v>
+        <v>0.26529542196269701</v>
       </c>
       <c r="T58">
         <v>3350</v>
@@ -6949,10 +6949,10 @@
         <v>0.48086330753179107</v>
       </c>
       <c r="W58">
-        <v>0.74098385963743185</v>
+        <v>0.62407736495104449</v>
       </c>
       <c r="X58">
-        <v>0.22069260042103131</v>
+        <v>0.31890689354651758</v>
       </c>
       <c r="Y58">
         <v>0.56417910447761199</v>
@@ -6961,10 +6961,10 @@
         <v>0.28197404719463548</v>
       </c>
       <c r="AA58">
-        <v>0.64385943395117518</v>
+        <v>0.66592346646484424</v>
       </c>
       <c r="AB58">
-        <v>0.25849738010739692</v>
+        <v>0.26960035768682711</v>
       </c>
       <c r="AC58">
         <v>3350</v>
@@ -6976,10 +6976,10 @@
         <v>0.50052394269995937</v>
       </c>
       <c r="AF58">
-        <v>0.72919686910840675</v>
+        <v>0.69159238687031777</v>
       </c>
       <c r="AG58">
-        <v>0.22565824113256919</v>
+        <v>0.26297827347015251</v>
       </c>
       <c r="AH58">
         <v>0.59850746268656718</v>
@@ -6988,10 +6988,10 @@
         <v>0.26560320874408128</v>
       </c>
       <c r="AJ58">
-        <v>0.64131386814515279</v>
+        <v>0.45486686164124668</v>
       </c>
       <c r="AK58">
-        <v>0.25941955875123712</v>
+        <v>0.46851342136750762</v>
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.3">
@@ -7008,10 +7008,10 @@
         <v>0.46754502059975428</v>
       </c>
       <c r="E59">
-        <v>0.73730396579261204</v>
+        <v>0.63693256269573495</v>
       </c>
       <c r="F59">
-        <v>0.22129299183501969</v>
+        <v>0.30545325421713221</v>
       </c>
       <c r="G59">
         <v>0.59411764705882353</v>
@@ -7020,10 +7020,10 @@
         <v>0.28332655339602969</v>
       </c>
       <c r="I59">
-        <v>0.66585380521977333</v>
+        <v>0.63131658477535069</v>
       </c>
       <c r="J59">
-        <v>0.25164166867147558</v>
+        <v>0.3103968524467684</v>
       </c>
       <c r="K59">
         <v>3400</v>
@@ -7035,10 +7035,10 @@
         <v>0.48890180090303259</v>
       </c>
       <c r="N59">
-        <v>0.73061823339048715</v>
+        <v>0.61234520944092763</v>
       </c>
       <c r="O59">
-        <v>0.2240913022959746</v>
+        <v>0.32076380389073988</v>
       </c>
       <c r="P59">
         <v>0.59411764705882353</v>
@@ -7047,10 +7047,10 @@
         <v>0.32143677394047332</v>
       </c>
       <c r="R59">
-        <v>0.66903541088303142</v>
+        <v>0.6443698527088989</v>
       </c>
       <c r="S59">
-        <v>0.25044078788267321</v>
+        <v>0.28449759313342848</v>
       </c>
       <c r="T59">
         <v>3400</v>
@@ -7062,10 +7062,10 @@
         <v>0.50932993955167727</v>
       </c>
       <c r="W59">
-        <v>0.74085391220081998</v>
+        <v>0.61851578485183867</v>
       </c>
       <c r="X59">
-        <v>0.21979268306613789</v>
+        <v>0.3175945511479894</v>
       </c>
       <c r="Y59">
         <v>0.58823529411764708</v>
@@ -7074,10 +7074,10 @@
         <v>0.253595371825306</v>
       </c>
       <c r="AA59">
-        <v>0.64769537289776369</v>
+        <v>0.64346114505274832</v>
       </c>
       <c r="AB59">
-        <v>0.25838867212467531</v>
+        <v>0.28736624200394278</v>
       </c>
       <c r="AC59">
         <v>3400</v>
@@ -7089,10 +7089,10 @@
         <v>0.49237249678665163</v>
       </c>
       <c r="AF59">
-        <v>0.73679119575587093</v>
+        <v>0.6185629481292706</v>
       </c>
       <c r="AG59">
-        <v>0.22150886318743149</v>
+        <v>0.3222631757784708</v>
       </c>
       <c r="AH59">
         <v>0.58235294117647063</v>
@@ -7101,10 +7101,10 @@
         <v>0.30214923498892959</v>
       </c>
       <c r="AJ59">
-        <v>0.62697613601752211</v>
+        <v>0.64597943415517212</v>
       </c>
       <c r="AK59">
-        <v>0.26587812333960131</v>
+        <v>0.26618180181708839</v>
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.3">
@@ -7121,10 +7121,10 @@
         <v>0.45692471610329333</v>
       </c>
       <c r="E60">
-        <v>0.73853691082135231</v>
+        <v>0.68718850842602763</v>
       </c>
       <c r="F60">
-        <v>0.22086785346820431</v>
+        <v>0.26058190440063478</v>
       </c>
       <c r="G60">
         <v>0.58550724637681162</v>
@@ -7133,10 +7133,10 @@
         <v>0.29932826883288588</v>
       </c>
       <c r="I60">
-        <v>0.63669317655084157</v>
+        <v>0.47096045749032073</v>
       </c>
       <c r="J60">
-        <v>0.26182193307223361</v>
+        <v>0.46945579102129248</v>
       </c>
       <c r="K60">
         <v>3450</v>
@@ -7148,10 +7148,10 @@
         <v>0.48787329083540992</v>
       </c>
       <c r="N60">
-        <v>0.74319757194753144</v>
+        <v>0.62609409138553662</v>
       </c>
       <c r="O60">
-        <v>0.2188904828407596</v>
+        <v>0.3145913759504565</v>
       </c>
       <c r="P60">
         <v>0.60434782608695647</v>
@@ -7160,10 +7160,10 @@
         <v>0.38309702147918312</v>
       </c>
       <c r="R60">
-        <v>0.62855141687100846</v>
+        <v>0.60599526700030593</v>
       </c>
       <c r="S60">
-        <v>0.26473941248280192</v>
+        <v>0.29855202985794371</v>
       </c>
       <c r="T60">
         <v>3450</v>
@@ -7175,10 +7175,10 @@
         <v>0.50689381264647049</v>
       </c>
       <c r="W60">
-        <v>0.72836113402919456</v>
+        <v>0.66778645855595298</v>
       </c>
       <c r="X60">
-        <v>0.22512476412045351</v>
+        <v>0.27413661485770863</v>
       </c>
       <c r="Y60">
         <v>0.58840579710144925</v>
@@ -7187,10 +7187,10 @@
         <v>0.25266517597390192</v>
       </c>
       <c r="AA60">
-        <v>0.65482011319650779</v>
+        <v>0.49071768642629138</v>
       </c>
       <c r="AB60">
-        <v>0.25520665113317231</v>
+        <v>0.43997691145408441</v>
       </c>
       <c r="AC60">
         <v>3450</v>
@@ -7202,10 +7202,10 @@
         <v>0.47910997525742233</v>
       </c>
       <c r="AF60">
-        <v>0.73146824144664735</v>
+        <v>0.60659757267839964</v>
       </c>
       <c r="AG60">
-        <v>0.22383353027498429</v>
+        <v>0.32282835382360259</v>
       </c>
       <c r="AH60">
         <v>0.58840579710144925</v>
@@ -7214,10 +7214,10 @@
         <v>0.30091923479051003</v>
       </c>
       <c r="AJ60">
-        <v>0.68101200046842392</v>
+        <v>0.66831346067626918</v>
       </c>
       <c r="AK60">
-        <v>0.24533325456835531</v>
+        <v>0.27337108223895312</v>
       </c>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.3">
@@ -7234,10 +7234,10 @@
         <v>0.47458323364777538</v>
       </c>
       <c r="E61">
-        <v>0.73870024072776763</v>
+        <v>0.7030374665458563</v>
       </c>
       <c r="F61">
-        <v>0.22042167381116201</v>
+        <v>0.25319960455537838</v>
       </c>
       <c r="G61">
         <v>0.59</v>
@@ -7246,10 +7246,10 @@
         <v>0.25651092775172091</v>
       </c>
       <c r="I61">
-        <v>0.5909089473447473</v>
+        <v>0.41030248072065789</v>
       </c>
       <c r="J61">
-        <v>0.27687026358412498</v>
+        <v>0.49278891162279947</v>
       </c>
       <c r="K61">
         <v>3500</v>
@@ -7261,10 +7261,10 @@
         <v>0.48184021759086632</v>
       </c>
       <c r="N61">
-        <v>0.7399295250995277</v>
+        <v>0.62217128711038361</v>
       </c>
       <c r="O61">
-        <v>0.21990257583107761</v>
+        <v>0.31909722820580511</v>
       </c>
       <c r="P61">
         <v>0.6</v>
@@ -7273,10 +7273,10 @@
         <v>0.30440803565165508</v>
       </c>
       <c r="R61">
-        <v>0.63985349743879727</v>
+        <v>0.63317581017723379</v>
       </c>
       <c r="S61">
-        <v>0.259780126810567</v>
+        <v>0.26912182287397202</v>
       </c>
       <c r="T61">
         <v>3500</v>
@@ -7288,10 +7288,10 @@
         <v>0.50634338467325946</v>
       </c>
       <c r="W61">
-        <v>0.72844339925089518</v>
+        <v>0.62267786329275854</v>
       </c>
       <c r="X61">
-        <v>0.22470615733187449</v>
+        <v>0.31159066282887837</v>
       </c>
       <c r="Y61">
         <v>0.58714285714285719</v>
@@ -7300,10 +7300,10 @@
         <v>0.25368169616723868</v>
       </c>
       <c r="AA61">
-        <v>0.64397032875511928</v>
+        <v>0.62718878212201834</v>
       </c>
       <c r="AB61">
-        <v>0.25829108717546889</v>
+        <v>0.30296352425952561</v>
       </c>
       <c r="AC61">
         <v>3500</v>
@@ -7315,10 +7315,10 @@
         <v>0.47641686247855669</v>
       </c>
       <c r="AF61">
-        <v>0.71958871026056159</v>
+        <v>0.61098259203543237</v>
       </c>
       <c r="AG61">
-        <v>0.22834028491329711</v>
+        <v>0.32015577518479449</v>
       </c>
       <c r="AH61">
         <v>0.58714285714285719</v>
@@ -7327,10 +7327,10 @@
         <v>0.28635286771547441</v>
       </c>
       <c r="AJ61">
-        <v>0.6525089418556389</v>
+        <v>0.62511560210571426</v>
       </c>
       <c r="AK61">
-        <v>0.25517500997214781</v>
+        <v>0.28816736188513592</v>
       </c>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.3">
@@ -7347,10 +7347,10 @@
         <v>0.46359237275762932</v>
       </c>
       <c r="E62">
-        <v>0.72906713002406098</v>
+        <v>0.68470373174782406</v>
       </c>
       <c r="F62">
-        <v>0.22551193716257439</v>
+        <v>0.26833635653656651</v>
       </c>
       <c r="G62">
         <v>0.58309859154929577</v>
@@ -7359,10 +7359,10 @@
         <v>0.30026428535991773</v>
       </c>
       <c r="I62">
-        <v>0.66315631815341702</v>
+        <v>0.49112517545496281</v>
       </c>
       <c r="J62">
-        <v>0.25328823418679508</v>
+        <v>0.43515341401747859</v>
       </c>
       <c r="K62">
         <v>3550</v>
@@ -7374,10 +7374,10 @@
         <v>0.46649385453306208</v>
       </c>
       <c r="N62">
-        <v>0.72797912154530975</v>
+        <v>0.61416575421005493</v>
       </c>
       <c r="O62">
-        <v>0.2259642873441057</v>
+        <v>0.31985602022827231</v>
       </c>
       <c r="P62">
         <v>0.60140845070422533</v>
@@ -7386,10 +7386,10 @@
         <v>0.35042593601036398</v>
       </c>
       <c r="R62">
-        <v>0.62344499934954967</v>
+        <v>0.59359210325966028</v>
       </c>
       <c r="S62">
-        <v>0.26780274430848339</v>
+        <v>0.30237317176912137</v>
       </c>
       <c r="T62">
         <v>3550</v>
@@ -7401,10 +7401,10 @@
         <v>0.48782932194255391</v>
       </c>
       <c r="W62">
-        <v>0.73765864525282088</v>
+        <v>0.62329670160842299</v>
       </c>
       <c r="X62">
-        <v>0.2219075432392483</v>
+        <v>0.31543884491394097</v>
       </c>
       <c r="Y62">
         <v>0.57887323943661972</v>
@@ -7413,10 +7413,10 @@
         <v>0.28508532519824942</v>
       </c>
       <c r="AA62">
-        <v>0.62788201821031697</v>
+        <v>0.63242378084884154</v>
       </c>
       <c r="AB62">
-        <v>0.26622028366865608</v>
+        <v>0.29012436251089441</v>
       </c>
       <c r="AC62">
         <v>3550</v>
@@ -7428,10 +7428,10 @@
         <v>0.48871506702727779</v>
       </c>
       <c r="AF62">
-        <v>0.74309868764657727</v>
+        <v>0.62896296906782734</v>
       </c>
       <c r="AG62">
-        <v>0.21959469708058871</v>
+        <v>0.31726446983979378</v>
       </c>
       <c r="AH62">
         <v>0.60845070422535208</v>
@@ -7440,10 +7440,10 @@
         <v>0.3019450785794191</v>
       </c>
       <c r="AJ62">
-        <v>0.64407713705211755</v>
+        <v>0.65826761377570375</v>
       </c>
       <c r="AK62">
-        <v>0.26036269393744987</v>
+        <v>0.26169424304029909</v>
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.3">
@@ -7460,10 +7460,10 @@
         <v>0.45998287630340667</v>
       </c>
       <c r="E63">
-        <v>0.72516401054752633</v>
+        <v>0.6059603006426536</v>
       </c>
       <c r="F63">
-        <v>0.22799701508767359</v>
+        <v>0.32646492176623282</v>
       </c>
       <c r="G63">
         <v>0.59861111111111109</v>
@@ -7472,10 +7472,10 @@
         <v>0.31737340697262711</v>
       </c>
       <c r="I63">
-        <v>0.62155831763800395</v>
+        <v>0.59298797342794962</v>
       </c>
       <c r="J63">
-        <v>0.26507336510650947</v>
+        <v>0.29580323996523622</v>
       </c>
       <c r="K63">
         <v>3600</v>
@@ -7487,10 +7487,10 @@
         <v>0.4609240911010179</v>
       </c>
       <c r="N63">
-        <v>0.73568308221650414</v>
+        <v>0.62810477511375695</v>
       </c>
       <c r="O63">
-        <v>0.22359126896092241</v>
+        <v>0.31359215852042932</v>
       </c>
       <c r="P63">
         <v>0.58888888888888891</v>
@@ -7499,10 +7499,10 @@
         <v>0.28802285235960889</v>
       </c>
       <c r="R63">
-        <v>0.60764447045094505</v>
+        <v>0.57059267897006882</v>
       </c>
       <c r="S63">
-        <v>0.26990224567836069</v>
+        <v>0.32051051436887862</v>
       </c>
       <c r="T63">
         <v>3600</v>
@@ -7514,10 +7514,10 @@
         <v>0.49674674104063959</v>
       </c>
       <c r="W63">
-        <v>0.72384224237969663</v>
+        <v>0.6000654768377478</v>
       </c>
       <c r="X63">
-        <v>0.22854461028186349</v>
+        <v>0.32933817549896849</v>
       </c>
       <c r="Y63">
         <v>0.57777777777777772</v>
@@ -7526,10 +7526,10 @@
         <v>0.27475489400659542</v>
       </c>
       <c r="AA63">
-        <v>0.63479891415472123</v>
+        <v>0.64068812354316063</v>
       </c>
       <c r="AB63">
-        <v>0.26039499909859171</v>
+        <v>0.276024093768444</v>
       </c>
       <c r="AC63">
         <v>3600</v>
@@ -7541,10 +7541,10 @@
         <v>0.50443541717588736</v>
       </c>
       <c r="AF63">
-        <v>0.74577992238742541</v>
+        <v>0.62384345623808768</v>
       </c>
       <c r="AG63">
-        <v>0.21927912197319041</v>
+        <v>0.31969652468409832</v>
       </c>
       <c r="AH63">
         <v>0.59166666666666667</v>
@@ -7553,10 +7553,10 @@
         <v>0.27201907496891781</v>
       </c>
       <c r="AJ63">
-        <v>0.63382644096422791</v>
+        <v>0.61304303725978659</v>
       </c>
       <c r="AK63">
-        <v>0.26074146411936688</v>
+        <v>0.28510843239401629</v>
       </c>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.3">
@@ -7573,10 +7573,10 @@
         <v>0.48004066634976761</v>
       </c>
       <c r="E64">
-        <v>0.73289033305588336</v>
+        <v>0.68708957078666677</v>
       </c>
       <c r="F64">
-        <v>0.225140747454528</v>
+        <v>0.27035303537699551</v>
       </c>
       <c r="G64">
         <v>0.60273972602739723</v>
@@ -7585,10 +7585,10 @@
         <v>0.29600560059590059</v>
       </c>
       <c r="I64">
-        <v>0.63950522182760361</v>
+        <v>0.47920564017861528</v>
       </c>
       <c r="J64">
-        <v>0.25820773202348601</v>
+        <v>0.43346335434412359</v>
       </c>
       <c r="K64">
         <v>3650</v>
@@ -7600,10 +7600,10 @@
         <v>0.46166035088703677</v>
       </c>
       <c r="N64">
-        <v>0.72679053794561299</v>
+        <v>0.62120868557476783</v>
       </c>
       <c r="O64">
-        <v>0.22769692666120661</v>
+        <v>0.31799106305073349</v>
       </c>
       <c r="P64">
         <v>0.57671232876712331</v>
@@ -7612,10 +7612,10 @@
         <v>0.28421961345791941</v>
       </c>
       <c r="R64">
-        <v>0.6245432441841221</v>
+        <v>0.60298568945038822</v>
       </c>
       <c r="S64">
-        <v>0.2635115863949507</v>
+        <v>0.30039372752271598</v>
       </c>
       <c r="T64">
         <v>3650</v>
@@ -7627,10 +7627,10 @@
         <v>0.50647959088550354</v>
       </c>
       <c r="W64">
-        <v>0.73947738990573153</v>
+        <v>0.6237546222749123</v>
       </c>
       <c r="X64">
-        <v>0.222347377237474</v>
+        <v>0.32055545864438589</v>
       </c>
       <c r="Y64">
         <v>0.57945205479452055</v>
@@ -7639,10 +7639,10 @@
         <v>0.2349682993428322</v>
       </c>
       <c r="AA64">
-        <v>0.63513513924856702</v>
+        <v>0.62776933886975805</v>
       </c>
       <c r="AB64">
-        <v>0.25976807358641002</v>
+        <v>0.27451605790162342</v>
       </c>
       <c r="AC64">
         <v>3650</v>
@@ -7654,10 +7654,10 @@
         <v>0.45586673572273301</v>
       </c>
       <c r="AF64">
-        <v>0.72588820139083932</v>
+        <v>0.68048031077165061</v>
       </c>
       <c r="AG64">
-        <v>0.22807262722139901</v>
+        <v>0.26529801927735419</v>
       </c>
       <c r="AH64">
         <v>0.61095890410958908</v>
@@ -7666,10 +7666,10 @@
         <v>0.33530029662131572</v>
       </c>
       <c r="AJ64">
-        <v>0.6737992596936031</v>
+        <v>0.50465585133308966</v>
       </c>
       <c r="AK64">
-        <v>0.24561915056299591</v>
+        <v>0.45281451938978312</v>
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.3">
@@ -7686,10 +7686,10 @@
         <v>0.48369695645351751</v>
       </c>
       <c r="E65">
-        <v>0.73131928352453568</v>
+        <v>0.62069420624787885</v>
       </c>
       <c r="F65">
-        <v>0.22526260950997451</v>
+        <v>0.31997412979817391</v>
       </c>
       <c r="G65">
         <v>0.60810810810810811</v>
@@ -7698,10 +7698,10 @@
         <v>0.28326374028328088</v>
       </c>
       <c r="I65">
-        <v>0.61409723761068724</v>
+        <v>0.60715697316299955</v>
       </c>
       <c r="J65">
-        <v>0.26731902188108397</v>
+        <v>0.28524302649111638</v>
       </c>
       <c r="K65">
         <v>3700</v>
@@ -7713,10 +7713,10 @@
         <v>0.46911228834369723</v>
       </c>
       <c r="N65">
-        <v>0.72974673216368446</v>
+        <v>0.62314277221747361</v>
       </c>
       <c r="O65">
-        <v>0.22589162673066709</v>
+        <v>0.31659703190030358</v>
       </c>
       <c r="P65">
         <v>0.58513513513513515</v>
@@ -7725,10 +7725,10 @@
         <v>0.27773902870025019</v>
       </c>
       <c r="R65">
-        <v>0.63733551789059417</v>
+        <v>0.61626436024734499</v>
       </c>
       <c r="S65">
-        <v>0.25928696405667928</v>
+        <v>0.29254755141324829</v>
       </c>
       <c r="T65">
         <v>3700</v>
@@ -7740,10 +7740,10 @@
         <v>0.45088932421899219</v>
       </c>
       <c r="W65">
-        <v>0.71736648999252073</v>
+        <v>0.60793800329667669</v>
       </c>
       <c r="X65">
-        <v>0.23103761247549789</v>
+        <v>0.32446085982980699</v>
       </c>
       <c r="Y65">
         <v>0.59189189189189184</v>
@@ -7752,10 +7752,10 @@
         <v>0.27505686777527633</v>
       </c>
       <c r="AA65">
-        <v>0.66401355558994024</v>
+        <v>0.66754284232605576</v>
       </c>
       <c r="AB65">
-        <v>0.24943178669972321</v>
+        <v>0.26596886786160823</v>
       </c>
       <c r="AC65">
         <v>3700</v>
@@ -7767,10 +7767,10 @@
         <v>0.51606228713492353</v>
       </c>
       <c r="AF65">
-        <v>0.74562984099326868</v>
+        <v>0.63745593668321154</v>
       </c>
       <c r="AG65">
-        <v>0.21918152417697201</v>
+        <v>0.31174734960895539</v>
       </c>
       <c r="AH65">
         <v>0.61216216216216213</v>
@@ -7779,10 +7779,10 @@
         <v>0.30770133156329982</v>
       </c>
       <c r="AJ65">
-        <v>0.6327793683163726</v>
+        <v>0.63611589241012645</v>
       </c>
       <c r="AK65">
-        <v>0.26076809620810593</v>
+        <v>0.27943595102825369</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.3">
@@ -7799,10 +7799,10 @@
         <v>0.47081788256979917</v>
       </c>
       <c r="E66">
-        <v>0.73127489937719226</v>
+        <v>0.61495519835999324</v>
       </c>
       <c r="F66">
-        <v>0.2249740725802272</v>
+        <v>0.32179084162125499</v>
       </c>
       <c r="G66">
         <v>0.6226666666666667</v>
@@ -7811,10 +7811,10 @@
         <v>0.24403785069146161</v>
       </c>
       <c r="I66">
-        <v>0.62970968854614839</v>
+        <v>0.61702848700873181</v>
       </c>
       <c r="J66">
-        <v>0.2615339366124404</v>
+        <v>0.27972407739102501</v>
       </c>
       <c r="K66">
         <v>3750</v>
@@ -7826,10 +7826,10 @@
         <v>0.50731584820297537</v>
       </c>
       <c r="N66">
-        <v>0.737610751986713</v>
+        <v>0.63309736401947148</v>
       </c>
       <c r="O66">
-        <v>0.22230609528305789</v>
+        <v>0.31394986807971831</v>
       </c>
       <c r="P66">
         <v>0.58133333333333337</v>
@@ -7838,10 +7838,10 @@
         <v>0.2429966149478463</v>
       </c>
       <c r="R66">
-        <v>0.61440724292661297</v>
+        <v>0.60193988852992208</v>
       </c>
       <c r="S66">
-        <v>0.26688324538394431</v>
+        <v>0.28603992688674629</v>
       </c>
       <c r="T66">
         <v>3750</v>
@@ -7853,10 +7853,10 @@
         <v>0.48630253926560402</v>
       </c>
       <c r="W66">
-        <v>0.72479746346913454</v>
+        <v>0.62960441993286476</v>
       </c>
       <c r="X66">
-        <v>0.22766935088705581</v>
+        <v>0.31216552410862092</v>
       </c>
       <c r="Y66">
         <v>0.58799999999999997</v>
@@ -7865,10 +7865,10 @@
         <v>0.28185193314651069</v>
       </c>
       <c r="AA66">
-        <v>0.63923762638472703</v>
+        <v>0.58175668434532479</v>
       </c>
       <c r="AB66">
-        <v>0.25814724480420081</v>
+        <v>0.30862470909652562</v>
       </c>
       <c r="AC66">
         <v>3750</v>
@@ -7880,10 +7880,10 @@
         <v>0.46416657596649508</v>
       </c>
       <c r="AF66">
-        <v>0.73090324321853317</v>
+        <v>0.6218867628792264</v>
       </c>
       <c r="AG66">
-        <v>0.22512959230925941</v>
+        <v>0.31682063459599902</v>
       </c>
       <c r="AH66">
         <v>0.58399999999999996</v>
@@ -7892,10 +7892,10 @@
         <v>0.33615980062715628</v>
       </c>
       <c r="AJ66">
-        <v>0.62227500977816641</v>
+        <v>0.62787272069051125</v>
       </c>
       <c r="AK66">
-        <v>0.26414642404040478</v>
+        <v>0.28499460936602161</v>
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.3">
@@ -7912,10 +7912,10 @@
         <v>0.48689000517736453</v>
       </c>
       <c r="E67">
-        <v>0.73361214731722646</v>
+        <v>0.6356538301143807</v>
       </c>
       <c r="F67">
-        <v>0.2230618276338836</v>
+        <v>0.30491949928735118</v>
       </c>
       <c r="G67">
         <v>0.62105263157894741</v>
@@ -7924,10 +7924,10 @@
         <v>0.25052748560161209</v>
       </c>
       <c r="I67">
-        <v>0.62333803275132849</v>
+        <v>0.53537452932972296</v>
       </c>
       <c r="J67">
-        <v>0.26862221564279098</v>
+        <v>0.34510084351278519</v>
       </c>
       <c r="K67">
         <v>3800</v>
@@ -7939,10 +7939,10 @@
         <v>0.50277349677008698</v>
       </c>
       <c r="N67">
-        <v>0.73588399929369608</v>
+        <v>0.64482609561977666</v>
       </c>
       <c r="O67">
-        <v>0.22210861496597839</v>
+        <v>0.29826733503540642</v>
       </c>
       <c r="P67">
         <v>0.59473684210526312</v>
@@ -7951,10 +7951,10 @@
         <v>0.28215784016775702</v>
       </c>
       <c r="R67">
-        <v>0.62629143621443806</v>
+        <v>0.57592581308443513</v>
       </c>
       <c r="S67">
-        <v>0.26756701079011569</v>
+        <v>0.34157838105523269</v>
       </c>
       <c r="T67">
         <v>3800</v>
@@ -7966,10 +7966,10 @@
         <v>0.46469044970017009</v>
       </c>
       <c r="W67">
-        <v>0.73070629013802124</v>
+        <v>0.62186483913270862</v>
       </c>
       <c r="X67">
-        <v>0.22427514821143951</v>
+        <v>0.31384529050914828</v>
       </c>
       <c r="Y67">
         <v>0.5736842105263158</v>
@@ -7978,10 +7978,10 @@
         <v>0.2473558421613207</v>
       </c>
       <c r="AA67">
-        <v>0.63515164660376677</v>
+        <v>0.62471837717549883</v>
       </c>
       <c r="AB67">
-        <v>0.26437612759495749</v>
+        <v>0.29704816071653639</v>
       </c>
       <c r="AC67">
         <v>3800</v>
@@ -7993,10 +7993,10 @@
         <v>0.50968510437382908</v>
       </c>
       <c r="AF67">
-        <v>0.74884588343851433</v>
+        <v>0.70550521389613774</v>
       </c>
       <c r="AG67">
-        <v>0.21658989868072409</v>
+        <v>0.25978976085303951</v>
       </c>
       <c r="AH67">
         <v>0.60657894736842111</v>
@@ -8005,10 +8005,10 @@
         <v>0.33068906487082711</v>
       </c>
       <c r="AJ67">
-        <v>0.62793984744966203</v>
+        <v>0.4747677631753553</v>
       </c>
       <c r="AK67">
-        <v>0.26697624574009138</v>
+        <v>0.43504071876097178</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.3">
@@ -8025,10 +8025,10 @@
         <v>0.48005391020109328</v>
       </c>
       <c r="E68">
-        <v>0.72697807036547069</v>
+        <v>0.62448529386060203</v>
       </c>
       <c r="F68">
-        <v>0.22760754558053389</v>
+        <v>0.31317337925492522</v>
       </c>
       <c r="G68">
         <v>0.60909090909090913</v>
@@ -8037,10 +8037,10 @@
         <v>0.32706148287073189</v>
       </c>
       <c r="I68">
-        <v>0.67886393082632135</v>
+        <v>0.67445464312684722</v>
       </c>
       <c r="J68">
-        <v>0.24508148658137169</v>
+        <v>0.27556189093076922</v>
       </c>
       <c r="K68">
         <v>3850</v>
@@ -8052,10 +8052,10 @@
         <v>0.49430088386776311</v>
       </c>
       <c r="N68">
-        <v>0.73582441892532602</v>
+        <v>0.63958517625861999</v>
       </c>
       <c r="O68">
-        <v>0.223889757194525</v>
+        <v>0.30624659097712081</v>
       </c>
       <c r="P68">
         <v>0.58441558441558439</v>
@@ -8064,10 +8064,10 @@
         <v>0.2344866366797555</v>
       </c>
       <c r="R68">
-        <v>0.62782933388736906</v>
+        <v>0.57861740934589134</v>
       </c>
       <c r="S68">
-        <v>0.26383780928894479</v>
+        <v>0.31611221210096568</v>
       </c>
       <c r="T68">
         <v>3850</v>
@@ -8079,10 +8079,10 @@
         <v>0.47418911514247919</v>
       </c>
       <c r="W68">
-        <v>0.72668718462945991</v>
+        <v>0.62129893520667956</v>
       </c>
       <c r="X68">
-        <v>0.2277287632478375</v>
+        <v>0.31841178991574542</v>
       </c>
       <c r="Y68">
         <v>0.57662337662337659</v>
@@ -8091,10 +8091,10 @@
         <v>0.22966237710110171</v>
       </c>
       <c r="AA68">
-        <v>0.629287465228482</v>
+        <v>0.6270286413565227</v>
       </c>
       <c r="AB68">
-        <v>0.26332045560051409</v>
+        <v>0.27785562009981107</v>
       </c>
       <c r="AC68">
         <v>3850</v>
@@ -8106,10 +8106,10 @@
         <v>0.46786008054125289</v>
       </c>
       <c r="AF68">
-        <v>0.73120446900045</v>
+        <v>0.69254178643866404</v>
       </c>
       <c r="AG68">
-        <v>0.2258389841308332</v>
+        <v>0.26273616568445318</v>
       </c>
       <c r="AH68">
         <v>0.61558441558441557</v>
@@ -8118,10 +8118,10 @@
         <v>0.33351632567957318</v>
       </c>
       <c r="AJ68">
-        <v>0.68573797857728214</v>
+        <v>0.50488286709023233</v>
       </c>
       <c r="AK68">
-        <v>0.2424442632425457</v>
+        <v>0.43368889596339621</v>
       </c>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.3">
@@ -8138,10 +8138,10 @@
         <v>0.45291299992083578</v>
       </c>
       <c r="E69">
-        <v>0.71607991349521716</v>
+        <v>0.67670340434066634</v>
       </c>
       <c r="F69">
-        <v>0.23171600655178681</v>
+        <v>0.26346983014006559</v>
       </c>
       <c r="G69">
         <v>0.60769230769230764</v>
@@ -8150,10 +8150,10 @@
         <v>0.29880299796094978</v>
       </c>
       <c r="I69">
-        <v>0.63749831324782957</v>
+        <v>0.46564938059033989</v>
       </c>
       <c r="J69">
-        <v>0.26211663092052778</v>
+        <v>0.47055500571775583</v>
       </c>
       <c r="K69">
         <v>3900</v>
@@ -8165,10 +8165,10 @@
         <v>0.46394583649160231</v>
       </c>
       <c r="N69">
-        <v>0.74635333419730165</v>
+        <v>0.63581578494478619</v>
       </c>
       <c r="O69">
-        <v>0.21856906436510151</v>
+        <v>0.3098410115955314</v>
       </c>
       <c r="P69">
         <v>0.57948717948717954</v>
@@ -8177,10 +8177,10 @@
         <v>0.22085327262884941</v>
       </c>
       <c r="R69">
-        <v>0.60074143484026898</v>
+        <v>0.58649327815633867</v>
       </c>
       <c r="S69">
-        <v>0.27730386924353562</v>
+        <v>0.30087404485322322</v>
       </c>
       <c r="T69">
         <v>3900</v>
@@ -8192,10 +8192,10 @@
         <v>0.48418433933979432</v>
       </c>
       <c r="W69">
-        <v>0.73129279751596055</v>
+        <v>0.61830663815743625</v>
       </c>
       <c r="X69">
-        <v>0.22496438464560201</v>
+        <v>0.31811121720520769</v>
       </c>
       <c r="Y69">
         <v>0.60256410256410253</v>
@@ -8204,10 +8204,10 @@
         <v>0.25185580958024423</v>
       </c>
       <c r="AA69">
-        <v>0.61099248836387665</v>
+        <v>0.62723723791342878</v>
       </c>
       <c r="AB69">
-        <v>0.27372080104200508</v>
+        <v>0.28167701919833033</v>
       </c>
       <c r="AC69">
         <v>3900</v>
@@ -8219,10 +8219,10 @@
         <v>0.50496742879582579</v>
       </c>
       <c r="AF69">
-        <v>0.72947191906974196</v>
+        <v>0.62891700777099324</v>
       </c>
       <c r="AG69">
-        <v>0.22572532661826639</v>
+        <v>0.3057828859822101</v>
       </c>
       <c r="AH69">
         <v>0.60512820512820509</v>
@@ -8231,10 +8231,10 @@
         <v>0.28926678749405921</v>
       </c>
       <c r="AJ69">
-        <v>0.65006630926230313</v>
+        <v>0.58988473583894518</v>
       </c>
       <c r="AK69">
-        <v>0.2596101613909515</v>
+        <v>0.32991884808288108</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.3">
@@ -8251,10 +8251,10 @@
         <v>0.4741171091617965</v>
       </c>
       <c r="E70">
-        <v>0.73820277576961701</v>
+        <v>0.63281351617543558</v>
       </c>
       <c r="F70">
-        <v>0.222500177784028</v>
+        <v>0.31113898835304399</v>
       </c>
       <c r="G70">
         <v>0.58354430379746836</v>
@@ -8263,10 +8263,10 @@
         <v>0.2321203175957286</v>
       </c>
       <c r="I70">
-        <v>0.62087887328437807</v>
+        <v>0.59405371678632668</v>
       </c>
       <c r="J70">
-        <v>0.26754864694296748</v>
+        <v>0.29473511020905591</v>
       </c>
       <c r="K70">
         <v>3950</v>
@@ -8278,10 +8278,10 @@
         <v>0.485400985032169</v>
       </c>
       <c r="N70">
-        <v>0.73696856205808325</v>
+        <v>0.6303793581046151</v>
       </c>
       <c r="O70">
-        <v>0.22301870274071611</v>
+        <v>0.31223622305643878</v>
       </c>
       <c r="P70">
         <v>0.58227848101265822</v>
@@ -8290,10 +8290,10 @@
         <v>0.23161052217029751</v>
       </c>
       <c r="R70">
-        <v>0.62396592538541817</v>
+        <v>0.6183103698245902</v>
       </c>
       <c r="S70">
-        <v>0.26648200357218887</v>
+        <v>0.2855011289074052</v>
       </c>
       <c r="T70">
         <v>3950</v>
@@ -8305,10 +8305,10 @@
         <v>0.45102534239706382</v>
       </c>
       <c r="W70">
-        <v>0.7270407488863605</v>
+        <v>0.61516519655569124</v>
       </c>
       <c r="X70">
-        <v>0.2271939449184219</v>
+        <v>0.32024402935248408</v>
       </c>
       <c r="Y70">
         <v>0.59873417721518984</v>
@@ -8317,10 +8317,10 @@
         <v>0.25458874139808341</v>
       </c>
       <c r="AA70">
-        <v>0.63401905734030439</v>
+        <v>0.64949889789701265</v>
       </c>
       <c r="AB70">
-        <v>0.26287119625927979</v>
+        <v>0.26643670419440041</v>
       </c>
       <c r="AC70">
         <v>3950</v>
@@ -8332,10 +8332,10 @@
         <v>0.49280274369256488</v>
       </c>
       <c r="AF70">
-        <v>0.72906564431795573</v>
+        <v>0.69135725383883373</v>
       </c>
       <c r="AG70">
-        <v>0.22634967907021619</v>
+        <v>0.26209383272852199</v>
       </c>
       <c r="AH70">
         <v>0.6240506329113924</v>
@@ -8344,10 +8344,10 @@
         <v>0.34718862286607649</v>
       </c>
       <c r="AJ70">
-        <v>0.63596326824653815</v>
+        <v>0.49483243076165712</v>
       </c>
       <c r="AK70">
-        <v>0.2621720374395215</v>
+        <v>0.43708915945704568</v>
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.3">
@@ -8364,10 +8364,10 @@
         <v>0.47054310515027548</v>
       </c>
       <c r="E71">
-        <v>0.71852313767883846</v>
+        <v>0.57668710558690695</v>
       </c>
       <c r="F71">
-        <v>0.2309964826572041</v>
+        <v>0.34839843348352711</v>
       </c>
       <c r="G71">
         <v>0.60875000000000001</v>
@@ -8376,10 +8376,10 @@
         <v>0.26596023532000601</v>
       </c>
       <c r="I71">
-        <v>0.6513671875</v>
+        <v>0.66086889985558095</v>
       </c>
       <c r="J71">
-        <v>0.25872282465990509</v>
+        <v>0.26892890655941692</v>
       </c>
       <c r="K71">
         <v>4000</v>
@@ -8391,10 +8391,10 @@
         <v>0.46761896123574948</v>
       </c>
       <c r="N71">
-        <v>0.72760842986646335</v>
+        <v>0.62243607448931715</v>
       </c>
       <c r="O71">
-        <v>0.2272663635472702</v>
+        <v>0.31579597919198849</v>
       </c>
       <c r="P71">
         <v>0.59875</v>
@@ -8403,10 +8403,10 @@
         <v>0.2400297171140339</v>
       </c>
       <c r="R71">
-        <v>0.62032465467896825</v>
+        <v>0.45442109216112059</v>
       </c>
       <c r="S71">
-        <v>0.26986107537027271</v>
+        <v>0.40707205328907409</v>
       </c>
       <c r="T71">
         <v>4000</v>
@@ -8418,10 +8418,10 @@
         <v>0.45037440477325408</v>
       </c>
       <c r="W71">
-        <v>0.71064343400741736</v>
+        <v>0.57572167581556566</v>
       </c>
       <c r="X71">
-        <v>0.23420744010385319</v>
+        <v>0.34427047114323062</v>
       </c>
       <c r="Y71">
         <v>0.57874999999999999</v>
@@ -8430,10 +8430,10 @@
         <v>0.24726953097372531</v>
       </c>
       <c r="AA71">
-        <v>0.60807291666666674</v>
+        <v>0.60346211650034509</v>
       </c>
       <c r="AB71">
-        <v>0.27431733448690399</v>
+        <v>0.31035027674608812</v>
       </c>
       <c r="AC71">
         <v>4000</v>
@@ -8445,10 +8445,10 @@
         <v>0.52461421880093229</v>
       </c>
       <c r="AF71">
-        <v>0.73077129631454119</v>
+        <v>0.64424976073062012</v>
       </c>
       <c r="AG71">
-        <v>0.22591480695164709</v>
+        <v>0.29702315108547112</v>
       </c>
       <c r="AH71">
         <v>0.62624999999999997</v>
@@ -8457,10 +8457,10 @@
         <v>0.29314562495966301</v>
       </c>
       <c r="AJ71">
-        <v>0.65201822916666674</v>
+        <v>0.45263482923888931</v>
       </c>
       <c r="AK71">
-        <v>0.25848114051125659</v>
+        <v>0.44893038548552999</v>
       </c>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.3">
@@ -8477,10 +8477,10 @@
         <v>0.47868774409374398</v>
       </c>
       <c r="E72">
-        <v>0.72752366188941575</v>
+        <v>0.57537347324743715</v>
       </c>
       <c r="F72">
-        <v>0.22703129713002829</v>
+        <v>0.34908814490803741</v>
       </c>
       <c r="G72">
         <v>0.6074074074074074</v>
@@ -8489,10 +8489,10 @@
         <v>0.27003725699881181</v>
       </c>
       <c r="I72">
-        <v>0.63061881671626696</v>
+        <v>0.63608557485368733</v>
       </c>
       <c r="J72">
-        <v>0.26562295750848708</v>
+        <v>0.27331115815777002</v>
       </c>
       <c r="K72">
         <v>4050</v>
@@ -8504,10 +8504,10 @@
         <v>0.49691407358396311</v>
       </c>
       <c r="N72">
-        <v>0.73951588395595946</v>
+        <v>0.59369378173090004</v>
       </c>
       <c r="O72">
-        <v>0.22197903360007831</v>
+        <v>0.33743911277963529</v>
       </c>
       <c r="P72">
         <v>0.57160493827160497</v>
@@ -8516,10 +8516,10 @@
         <v>0.28861777447951248</v>
       </c>
       <c r="R72">
-        <v>0.61226286640085492</v>
+        <v>0.59199462174235662</v>
       </c>
       <c r="S72">
-        <v>0.27214284557022939</v>
+        <v>0.30785853741006819</v>
       </c>
       <c r="T72">
         <v>4050</v>
@@ -8531,10 +8531,10 @@
         <v>0.50453403826529042</v>
       </c>
       <c r="W72">
-        <v>0.74228959518223481</v>
+        <v>0.65044653384099238</v>
       </c>
       <c r="X72">
-        <v>0.2207940216581962</v>
+        <v>0.29254875926306051</v>
       </c>
       <c r="Y72">
         <v>0.59876543209876543</v>
@@ -8543,10 +8543,10 @@
         <v>0.27445914429104012</v>
       </c>
       <c r="AA72">
-        <v>0.62971394592607066</v>
+        <v>0.46600643566015421</v>
       </c>
       <c r="AB72">
-        <v>0.26594810595627177</v>
+        <v>0.4468051073971267</v>
       </c>
       <c r="AC72">
         <v>4050</v>
@@ -8558,10 +8558,10 @@
         <v>0.46267011294572008</v>
       </c>
       <c r="AF72">
-        <v>0.73209212743857521</v>
+        <v>0.58843924863638186</v>
       </c>
       <c r="AG72">
-        <v>0.22511999543727559</v>
+        <v>0.34311167448054342</v>
       </c>
       <c r="AH72">
         <v>0.62222222222222223</v>
@@ -8570,10 +8570,10 @@
         <v>0.32661322626908418</v>
       </c>
       <c r="AJ72">
-        <v>0.66351733330269225</v>
+        <v>0.67080429943116116</v>
       </c>
       <c r="AK72">
-        <v>0.25351845088330671</v>
+        <v>0.26231878581636309</v>
       </c>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.3">
@@ -8590,10 +8590,10 @@
         <v>0.45187356120683148</v>
       </c>
       <c r="E73">
-        <v>0.71340648921142513</v>
+        <v>0.62044814384198332</v>
       </c>
       <c r="F73">
-        <v>0.23324983988178441</v>
+        <v>0.29803750317878819</v>
       </c>
       <c r="G73">
         <v>0.60731707317073169</v>
@@ -8602,10 +8602,10 @@
         <v>0.31643238697772169</v>
       </c>
       <c r="I73">
-        <v>0.65180001811376331</v>
+        <v>0.4927405127279233</v>
       </c>
       <c r="J73">
-        <v>0.2574262859207016</v>
+        <v>0.45978457952227181</v>
       </c>
       <c r="K73">
         <v>4100</v>
@@ -8617,10 +8617,10 @@
         <v>0.48866968933031563</v>
       </c>
       <c r="N73">
-        <v>0.730719339008572</v>
+        <v>0.59397661459127438</v>
       </c>
       <c r="O73">
-        <v>0.22609489697696489</v>
+        <v>0.33288290947195331</v>
       </c>
       <c r="P73">
         <v>0.56829268292682922</v>
@@ -8629,10 +8629,10 @@
         <v>0.27518272995104848</v>
       </c>
       <c r="R73">
-        <v>0.62584841843324712</v>
+        <v>0.58634798369087515</v>
       </c>
       <c r="S73">
-        <v>0.26684699187581401</v>
+        <v>0.32876008884638269</v>
       </c>
       <c r="T73">
         <v>4100</v>
@@ -8644,10 +8644,10 @@
         <v>0.46861520654257233</v>
       </c>
       <c r="W73">
-        <v>0.72646339726808584</v>
+        <v>0.58783375833822993</v>
       </c>
       <c r="X73">
-        <v>0.22787459109846511</v>
+        <v>0.3439024777107435</v>
       </c>
       <c r="Y73">
         <v>0.61585365853658536</v>
@@ -8656,10 +8656,10 @@
         <v>0.28100103710928442</v>
       </c>
       <c r="AA73">
-        <v>0.63212806477569283</v>
+        <v>0.62725842935635945</v>
       </c>
       <c r="AB73">
-        <v>0.26459817671698188</v>
+        <v>0.27652823760003298</v>
       </c>
       <c r="AC73">
         <v>4100</v>
@@ -8671,10 +8671,10 @@
         <v>0.47388278497022662</v>
       </c>
       <c r="AF73">
-        <v>0.72617431443288316</v>
+        <v>0.61980900367142855</v>
       </c>
       <c r="AG73">
-        <v>0.22799497213112649</v>
+        <v>0.31554434044380569</v>
       </c>
       <c r="AH73">
         <v>0.62804878048780488</v>
@@ -8683,10 +8683,10 @@
         <v>0.28079373263291929</v>
       </c>
       <c r="AJ73">
-        <v>0.64052228590692173</v>
+        <v>0.4681445963688905</v>
       </c>
       <c r="AK73">
-        <v>0.2615619126446766</v>
+        <v>0.40303766643950673</v>
       </c>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.3">
@@ -8703,10 +8703,10 @@
         <v>0.48185145175501909</v>
       </c>
       <c r="E74">
-        <v>0.73368647446864621</v>
+        <v>0.58563561694877198</v>
       </c>
       <c r="F74">
-        <v>0.22528429161437949</v>
+        <v>0.34207817349443059</v>
       </c>
       <c r="G74">
         <v>0.61566265060240966</v>
@@ -8715,10 +8715,10 @@
         <v>0.2818886523715976</v>
       </c>
       <c r="I74">
-        <v>0.60383340781445649</v>
+        <v>0.58723452273549581</v>
       </c>
       <c r="J74">
-        <v>0.27359718874057709</v>
+        <v>0.30353593951567709</v>
       </c>
       <c r="K74">
         <v>4150</v>
@@ -8730,10 +8730,10 @@
         <v>0.4669532548110249</v>
       </c>
       <c r="N74">
-        <v>0.72714322226864736</v>
+        <v>0.6268535509882911</v>
       </c>
       <c r="O74">
-        <v>0.22803508501982761</v>
+        <v>0.30725195943408479</v>
       </c>
       <c r="P74">
         <v>0.57349397590361451</v>
@@ -8742,10 +8742,10 @@
         <v>0.29253109421819612</v>
       </c>
       <c r="R74">
-        <v>0.63208092114749936</v>
+        <v>0.49049417714004562</v>
       </c>
       <c r="S74">
-        <v>0.26366280035142731</v>
+        <v>0.41676784609093981</v>
       </c>
       <c r="T74">
         <v>4150</v>
@@ -8757,10 +8757,10 @@
         <v>0.4733817742883667</v>
       </c>
       <c r="W74">
-        <v>0.74449706505994873</v>
+        <v>0.60518227162728055</v>
       </c>
       <c r="X74">
-        <v>0.22066438562744409</v>
+        <v>0.33690599147969591</v>
       </c>
       <c r="Y74">
         <v>0.61445783132530118</v>
@@ -8769,10 +8769,10 @@
         <v>0.25012545575612749</v>
       </c>
       <c r="AA74">
-        <v>0.61805281068865192</v>
+        <v>0.61355651774852582</v>
       </c>
       <c r="AB74">
-        <v>0.26864228017718128</v>
+        <v>0.27997329230174001</v>
       </c>
       <c r="AC74">
         <v>4150</v>
@@ -8784,10 +8784,10 @@
         <v>0.47898105620174108</v>
       </c>
       <c r="AF74">
-        <v>0.73288042166139999</v>
+        <v>0.60253665890236863</v>
       </c>
       <c r="AG74">
-        <v>0.22562496871140861</v>
+        <v>0.33152473780208069</v>
       </c>
       <c r="AH74">
         <v>0.62289156626506026</v>
@@ -8796,10 +8796,10 @@
         <v>0.30104013555626458</v>
       </c>
       <c r="AJ74">
-        <v>0.63954132534606822</v>
+        <v>0.58621524275014658</v>
       </c>
       <c r="AK74">
-        <v>0.26097592558498522</v>
+        <v>0.31953822487860062</v>
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.3">
@@ -8816,10 +8816,10 @@
         <v>0.49592014367205139</v>
       </c>
       <c r="E75">
-        <v>0.74712737380756811</v>
+        <v>0.60862367810883466</v>
       </c>
       <c r="F75">
-        <v>0.21926554894096101</v>
+        <v>0.33246684179287661</v>
       </c>
       <c r="G75">
         <v>0.6071428571428571</v>
@@ -8828,10 +8828,10 @@
         <v>0.27274111328032891</v>
       </c>
       <c r="I75">
-        <v>0.60045420823662854</v>
+        <v>0.59698505157163662</v>
       </c>
       <c r="J75">
-        <v>0.27559459528877001</v>
+        <v>0.29611044949062798</v>
       </c>
       <c r="K75">
         <v>4200</v>
@@ -8843,10 +8843,10 @@
         <v>0.4368148917195705</v>
       </c>
       <c r="N75">
-        <v>0.71689974961680525</v>
+        <v>0.57488312778253636</v>
       </c>
       <c r="O75">
-        <v>0.23200087233005129</v>
+        <v>0.34780892823341603</v>
       </c>
       <c r="P75">
         <v>0.58690476190476193</v>
@@ -8855,10 +8855,10 @@
         <v>0.25690548449836181</v>
       </c>
       <c r="R75">
-        <v>0.63533618410060932</v>
+        <v>0.6336420770336233</v>
       </c>
       <c r="S75">
-        <v>0.26328962868185402</v>
+        <v>0.27674369950417971</v>
       </c>
       <c r="T75">
         <v>4200</v>
@@ -8870,10 +8870,10 @@
         <v>0.46818181819217158</v>
       </c>
       <c r="W75">
-        <v>0.73407204570031992</v>
+        <v>0.59447651846352378</v>
       </c>
       <c r="X75">
-        <v>0.22485445027733789</v>
+        <v>0.33574965449034277</v>
       </c>
       <c r="Y75">
         <v>0.62142857142857144</v>
@@ -8882,10 +8882,10 @@
         <v>0.3098623706348913</v>
       </c>
       <c r="AA75">
-        <v>0.6192416279120222</v>
+        <v>0.60041495942651357</v>
       </c>
       <c r="AB75">
-        <v>0.26903708365381968</v>
+        <v>0.30668332357045153</v>
       </c>
       <c r="AC75">
         <v>4200</v>
@@ -8897,10 +8897,10 @@
         <v>0.47141223648243519</v>
       </c>
       <c r="AF75">
-        <v>0.72580680200652248</v>
+        <v>0.64931612986763043</v>
       </c>
       <c r="AG75">
-        <v>0.22832203656448141</v>
+        <v>0.2953019050137321</v>
       </c>
       <c r="AH75">
         <v>0.625</v>
@@ -8909,10 +8909,10 @@
         <v>0.35321932550851148</v>
       </c>
       <c r="AJ75">
-        <v>0.65932145655286201</v>
+        <v>0.50891731621028136</v>
       </c>
       <c r="AK75">
-        <v>0.25448360411214072</v>
+        <v>0.41614367593752061</v>
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.3">
@@ -8929,10 +8929,10 @@
         <v>0.48203190834125198</v>
       </c>
       <c r="E76">
-        <v>0.73329812753560386</v>
+        <v>0.59552418648233207</v>
       </c>
       <c r="F76">
-        <v>0.22443392844063059</v>
+        <v>0.33056024249480798</v>
       </c>
       <c r="G76">
         <v>0.6164705882352941</v>
@@ -8941,10 +8941,10 @@
         <v>0.28312824917755203</v>
       </c>
       <c r="I76">
-        <v>0.632524199702023</v>
+        <v>0.59149821286021442</v>
       </c>
       <c r="J76">
-        <v>0.26312600425964561</v>
+        <v>0.32326857302359219</v>
       </c>
       <c r="K76">
         <v>4250</v>
@@ -8956,10 +8956,10 @@
         <v>0.49095005006676901</v>
       </c>
       <c r="N76">
-        <v>0.74362297522005405</v>
+        <v>0.6035302779214855</v>
       </c>
       <c r="O76">
-        <v>0.2200467864689101</v>
+        <v>0.33228395536142991</v>
       </c>
       <c r="P76">
         <v>0.59176470588235297</v>
@@ -8968,10 +8968,10 @@
         <v>0.26481810483383011</v>
       </c>
       <c r="R76">
-        <v>0.57045606962620499</v>
+        <v>0.53913624030724394</v>
       </c>
       <c r="S76">
-        <v>0.28448095149711849</v>
+        <v>0.32020640226061348</v>
       </c>
       <c r="T76">
         <v>4250</v>
@@ -8983,10 +8983,10 @@
         <v>0.4669092449072999</v>
       </c>
       <c r="W76">
-        <v>0.73272192939936764</v>
+        <v>0.5863443088963618</v>
       </c>
       <c r="X76">
-        <v>0.22467623765032629</v>
+        <v>0.33370304823375663</v>
       </c>
       <c r="Y76">
         <v>0.60588235294117643</v>
@@ -8995,10 +8995,10 @@
         <v>0.31347203885131131</v>
       </c>
       <c r="AA76">
-        <v>0.62827809019985437</v>
+        <v>0.59624617979626615</v>
       </c>
       <c r="AB76">
-        <v>0.26464182231394773</v>
+        <v>0.32376740495303602</v>
       </c>
       <c r="AC76">
         <v>4250</v>
@@ -9010,10 +9010,10 @@
         <v>0.46051502089419288</v>
       </c>
       <c r="AF76">
-        <v>0.72842380276149687</v>
+        <v>0.60455847001040397</v>
       </c>
       <c r="AG76">
-        <v>0.22647555380346951</v>
+        <v>0.32740198856468322</v>
       </c>
       <c r="AH76">
         <v>0.60588235294117643</v>
@@ -9022,10 +9022,10 @@
         <v>0.35138514448882852</v>
       </c>
       <c r="AJ76">
-        <v>0.67873186193150525</v>
+        <v>0.65307387833886266</v>
       </c>
       <c r="AK76">
-        <v>0.24602725817418261</v>
+        <v>0.29576552409261991</v>
       </c>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.3">
@@ -9042,10 +9042,10 @@
         <v>0.48279380150074191</v>
       </c>
       <c r="E77">
-        <v>0.74157986535454945</v>
+        <v>0.60810208026101709</v>
       </c>
       <c r="F77">
-        <v>0.22139226473325779</v>
+        <v>0.32599783993051118</v>
       </c>
       <c r="G77">
         <v>0.62325581395348839</v>
@@ -9054,10 +9054,10 @@
         <v>0.31299098009494392</v>
       </c>
       <c r="I77">
-        <v>0.63916822275138618</v>
+        <v>0.60949880428340708</v>
       </c>
       <c r="J77">
-        <v>0.26143610540493889</v>
+        <v>0.31279982047441363</v>
       </c>
       <c r="K77">
         <v>4300</v>
@@ -9069,10 +9069,10 @@
         <v>0.48189434347217419</v>
       </c>
       <c r="N77">
-        <v>0.73072870259261491</v>
+        <v>0.58916460929956505</v>
       </c>
       <c r="O77">
-        <v>0.22599264239927069</v>
+        <v>0.34087908962803759</v>
       </c>
       <c r="P77">
         <v>0.58720930232558144</v>
@@ -9081,10 +9081,10 @@
         <v>0.25410048659580259</v>
       </c>
       <c r="R77">
-        <v>0.63131070871807182</v>
+        <v>0.63500778690637594</v>
       </c>
       <c r="S77">
-        <v>0.26426730653322511</v>
+        <v>0.27281943764732208</v>
       </c>
       <c r="T77">
         <v>4300</v>
@@ -9096,10 +9096,10 @@
         <v>0.48855212132193038</v>
       </c>
       <c r="W77">
-        <v>0.74176378336746374</v>
+        <v>0.60239958193213061</v>
       </c>
       <c r="X77">
-        <v>0.22131346810077029</v>
+        <v>0.33284466728155843</v>
       </c>
       <c r="Y77">
         <v>0.61395348837209307</v>
@@ -9108,10 +9108,10 @@
         <v>0.28556597749276402</v>
       </c>
       <c r="AA77">
-        <v>0.63910683592300099</v>
+        <v>0.63271976781400108</v>
       </c>
       <c r="AB77">
-        <v>0.26145834298465043</v>
+        <v>0.28473708641187728</v>
       </c>
       <c r="AC77">
         <v>4300</v>
@@ -9123,10 +9123,10 @@
         <v>0.4833091492697667</v>
       </c>
       <c r="AF77">
-        <v>0.72809254440751214</v>
+        <v>0.59412457613545433</v>
       </c>
       <c r="AG77">
-        <v>0.22709617878468291</v>
+        <v>0.33034720050806782</v>
       </c>
       <c r="AH77">
         <v>0.59302325581395354</v>
@@ -9135,10 +9135,10 @@
         <v>0.32436645439133299</v>
       </c>
       <c r="AJ77">
-        <v>0.6387385149526893</v>
+        <v>0.61812265856702064</v>
       </c>
       <c r="AK77">
-        <v>0.26159172876476722</v>
+        <v>0.31497117064264368</v>
       </c>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.3">
@@ -9155,10 +9155,10 @@
         <v>0.49826071916088888</v>
       </c>
       <c r="E78">
-        <v>0.75349372962925532</v>
+        <v>0.67656246655710328</v>
       </c>
       <c r="F78">
-        <v>0.21601803883807541</v>
+        <v>0.27631359287562868</v>
       </c>
       <c r="G78">
         <v>0.61724137931034484</v>
@@ -9167,10 +9167,10 @@
         <v>0.31406393707492969</v>
       </c>
       <c r="I78">
-        <v>0.64581771151494627</v>
+        <v>0.49003932341686779</v>
       </c>
       <c r="J78">
-        <v>0.2581988897471611</v>
+        <v>0.44216340445957958</v>
       </c>
       <c r="K78">
         <v>4350</v>
@@ -9182,10 +9182,10 @@
         <v>0.48182693162978463</v>
       </c>
       <c r="N78">
-        <v>0.73035957382871242</v>
+        <v>0.60252542705663648</v>
       </c>
       <c r="O78">
-        <v>0.22592720829567181</v>
+        <v>0.32541418538520928</v>
       </c>
       <c r="P78">
         <v>0.58965517241379306</v>
@@ -9194,10 +9194,10 @@
         <v>0.30649868488502208</v>
       </c>
       <c r="R78">
-        <v>0.6285971243851558</v>
+        <v>0.58642865109196696</v>
       </c>
       <c r="S78">
-        <v>0.26440129723019801</v>
+        <v>0.32913973674087199</v>
       </c>
       <c r="T78">
         <v>4350</v>
@@ -9209,10 +9209,10 @@
         <v>0.4660415619667983</v>
       </c>
       <c r="W78">
-        <v>0.72087214116772858</v>
+        <v>0.58760916055163148</v>
       </c>
       <c r="X78">
-        <v>0.22986752806729821</v>
+        <v>0.33719451010013812</v>
       </c>
       <c r="Y78">
         <v>0.59080459770114946</v>
@@ -9221,10 +9221,10 @@
         <v>0.30348389036581458</v>
       </c>
       <c r="AA78">
-        <v>0.64673370019206278</v>
+        <v>0.63185701107991687</v>
       </c>
       <c r="AB78">
-        <v>0.25786479572357918</v>
+        <v>0.28766800559014999</v>
       </c>
       <c r="AC78">
         <v>4350</v>
@@ -9236,10 +9236,10 @@
         <v>0.48501810864908668</v>
       </c>
       <c r="AF78">
-        <v>0.72705035731656131</v>
+        <v>0.59013473389808313</v>
       </c>
       <c r="AG78">
-        <v>0.22730934919154791</v>
+        <v>0.33384134422934869</v>
       </c>
       <c r="AH78">
         <v>0.61609195402298855</v>
@@ -9248,10 +9248,10 @@
         <v>0.32076314943550832</v>
       </c>
       <c r="AJ78">
-        <v>0.65693170746396001</v>
+        <v>0.63072326554224412</v>
       </c>
       <c r="AK78">
-        <v>0.25411554978725359</v>
+        <v>0.29764671136583792</v>
       </c>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.3">
@@ -9268,10 +9268,10 @@
         <v>0.49126364741743461</v>
       </c>
       <c r="E79">
-        <v>0.74319055267431466</v>
+        <v>0.61022008254544391</v>
       </c>
       <c r="F79">
-        <v>0.22117968836548829</v>
+        <v>0.33210717291043601</v>
       </c>
       <c r="G79">
         <v>0.61477272727272725</v>
@@ -9280,10 +9280,10 @@
         <v>0.31624171720104538</v>
       </c>
       <c r="I79">
-        <v>0.63948173783085716</v>
+        <v>0.64369868629652827</v>
       </c>
       <c r="J79">
-        <v>0.26037560282302669</v>
+        <v>0.270096565451941</v>
       </c>
       <c r="K79">
         <v>4400</v>
@@ -9295,10 +9295,10 @@
         <v>0.49858580147229947</v>
       </c>
       <c r="N79">
-        <v>0.74308615859003591</v>
+        <v>0.61872746254568556</v>
       </c>
       <c r="O79">
-        <v>0.22122463901900921</v>
+        <v>0.32336221914238911</v>
       </c>
       <c r="P79">
         <v>0.57840909090909087</v>
@@ -9307,10 +9307,10 @@
         <v>0.27852852834126668</v>
       </c>
       <c r="R79">
-        <v>0.64516204568266722</v>
+        <v>0.63366503667371155</v>
       </c>
       <c r="S79">
-        <v>0.2583162262175428</v>
+        <v>0.29639661020398211</v>
       </c>
       <c r="T79">
         <v>4400</v>
@@ -9322,10 +9322,10 @@
         <v>0.47595293894496521</v>
       </c>
       <c r="W79">
-        <v>0.73777697373243178</v>
+        <v>0.63654692952861991</v>
       </c>
       <c r="X79">
-        <v>0.22349877974041499</v>
+        <v>0.31008560028230558</v>
       </c>
       <c r="Y79">
         <v>0.60795454545454541</v>
@@ -9334,10 +9334,10 @@
         <v>0.28070845771266539</v>
       </c>
       <c r="AA79">
-        <v>0.62636868672614643</v>
+        <v>0.48708885911498112</v>
       </c>
       <c r="AB79">
-        <v>0.26506860175502422</v>
+        <v>0.37800635096457452</v>
       </c>
       <c r="AC79">
         <v>4400</v>
@@ -9349,10 +9349,10 @@
         <v>0.51265493282318275</v>
       </c>
       <c r="AF79">
-        <v>0.75195965575372825</v>
+        <v>0.64819404895230326</v>
       </c>
       <c r="AG79">
-        <v>0.2173706511928416</v>
+        <v>0.30363051409806402</v>
       </c>
       <c r="AH79">
         <v>0.59431818181818186</v>
@@ -9361,10 +9361,10 @@
         <v>0.27198433591370758</v>
       </c>
       <c r="AJ79">
-        <v>0.6216552397852827</v>
+        <v>0.47771861817526179</v>
       </c>
       <c r="AK79">
-        <v>0.26673531313406418</v>
+        <v>0.38822987322612801</v>
       </c>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.3">
@@ -9381,10 +9381,10 @@
         <v>0.50789857942965</v>
       </c>
       <c r="E80">
-        <v>0.75259121436670928</v>
+        <v>0.61755183399270075</v>
       </c>
       <c r="F80">
-        <v>0.21698262758607489</v>
+        <v>0.32812185195120552</v>
       </c>
       <c r="G80">
         <v>0.61910112359550562</v>
@@ -9393,10 +9393,10 @@
         <v>0.31121551076671422</v>
       </c>
       <c r="I80">
-        <v>0.63614485013841127</v>
+        <v>0.63805556932989482</v>
       </c>
       <c r="J80">
-        <v>0.26124163338035528</v>
+        <v>0.27265770867697531</v>
       </c>
       <c r="K80">
         <v>4450</v>
@@ -9408,10 +9408,10 @@
         <v>0.4964292812746276</v>
       </c>
       <c r="N80">
-        <v>0.74882716446894126</v>
+        <v>0.6216649353206195</v>
       </c>
       <c r="O80">
-        <v>0.2186269718241296</v>
+        <v>0.32464268370484012</v>
       </c>
       <c r="P80">
         <v>0.57752808988764048</v>
@@ -9420,10 +9420,10 @@
         <v>0.239780797433574</v>
       </c>
       <c r="R80">
-        <v>0.59421225137266998</v>
+        <v>0.5772244966621719</v>
       </c>
       <c r="S80">
-        <v>0.27588468524106552</v>
+        <v>0.30304572164930882</v>
       </c>
       <c r="T80">
         <v>4450</v>
@@ -9435,10 +9435,10 @@
         <v>0.47853015954509392</v>
       </c>
       <c r="W80">
-        <v>0.74088575723365047</v>
+        <v>0.60817615863254604</v>
       </c>
       <c r="X80">
-        <v>0.22205627386778551</v>
+        <v>0.32776962377815611</v>
       </c>
       <c r="Y80">
         <v>0.6179775280898876</v>
@@ -9447,10 +9447,10 @@
         <v>0.34297380749708328</v>
       </c>
       <c r="AA80">
-        <v>0.64764636294272881</v>
+        <v>0.63605273925921346</v>
       </c>
       <c r="AB80">
-        <v>0.25707953563138669</v>
+        <v>0.2923226086912793</v>
       </c>
       <c r="AC80">
         <v>4450</v>
@@ -9462,10 +9462,10 @@
         <v>0.49236365371765889</v>
       </c>
       <c r="AF80">
-        <v>0.73564560933675771</v>
+        <v>0.63058586651824311</v>
       </c>
       <c r="AG80">
-        <v>0.22429039162496661</v>
+        <v>0.31238312615072972</v>
       </c>
       <c r="AH80">
         <v>0.60561797752808988</v>
@@ -9474,10 +9474,10 @@
         <v>0.30033644536562798</v>
       </c>
       <c r="AJ80">
-        <v>0.60265867483834068</v>
+        <v>0.45691547654316472</v>
       </c>
       <c r="AK80">
-        <v>0.2729983331224578</v>
+        <v>0.38639477185930432</v>
       </c>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.3">
@@ -9494,10 +9494,10 @@
         <v>0.49622272285277369</v>
       </c>
       <c r="E81">
-        <v>0.74569388162362538</v>
+        <v>0.61007326965798814</v>
       </c>
       <c r="F81">
-        <v>0.22022715545545241</v>
+        <v>0.33456907963211407</v>
       </c>
       <c r="G81">
         <v>0.62666666666666671</v>
@@ -9506,10 +9506,10 @@
         <v>0.339159156079816</v>
       </c>
       <c r="I81">
-        <v>0.64749607733387604</v>
+        <v>0.64686705341735284</v>
       </c>
       <c r="J81">
-        <v>0.25997863160053919</v>
+        <v>0.27600034764459302</v>
       </c>
       <c r="K81">
         <v>4500</v>
@@ -9521,10 +9521,10 @@
         <v>0.49360383191574653</v>
       </c>
       <c r="N81">
-        <v>0.74342173073778839</v>
+        <v>0.65395976254924659</v>
       </c>
       <c r="O81">
-        <v>0.22120880030716081</v>
+        <v>0.29816275699434908</v>
       </c>
       <c r="P81">
         <v>0.61</v>
@@ -9533,10 +9533,10 @@
         <v>0.29158992936744671</v>
       </c>
       <c r="R81">
-        <v>0.65126276399724903</v>
+        <v>0.48760082801785759</v>
       </c>
       <c r="S81">
-        <v>0.25858589804292631</v>
+        <v>0.41513064634419972</v>
       </c>
       <c r="T81">
         <v>4500</v>
@@ -9548,10 +9548,10 @@
         <v>0.49043584654558647</v>
       </c>
       <c r="W81">
-        <v>0.73946003175735453</v>
+        <v>0.60724482893748621</v>
       </c>
       <c r="X81">
-        <v>0.22291004663067321</v>
+        <v>0.33115502131201929</v>
       </c>
       <c r="Y81">
         <v>0.6166666666666667</v>
@@ -9560,10 +9560,10 @@
         <v>0.30996606679138922</v>
       </c>
       <c r="AA81">
-        <v>0.65334892891850194</v>
+        <v>0.59795051441498859</v>
       </c>
       <c r="AB81">
-        <v>0.25781130050226009</v>
+        <v>0.31525309337754842</v>
       </c>
       <c r="AC81">
         <v>4500</v>
@@ -9575,10 +9575,10 @@
         <v>0.49424988621018279</v>
       </c>
       <c r="AF81">
-        <v>0.75623899214507406</v>
+        <v>0.61755604045261669</v>
       </c>
       <c r="AG81">
-        <v>0.21561282171728299</v>
+        <v>0.32673714458216679</v>
       </c>
       <c r="AH81">
         <v>0.60666666666666669</v>
@@ -9587,10 +9587,10 @@
         <v>0.32470270117619421</v>
       </c>
       <c r="AJ81">
-        <v>0.63596422124139562</v>
+        <v>0.59118938340448013</v>
       </c>
       <c r="AK81">
-        <v>0.26419689627245813</v>
+        <v>0.31807375919090902</v>
       </c>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.3">
@@ -9607,10 +9607,10 @@
         <v>0.50666271504954297</v>
       </c>
       <c r="E82">
-        <v>0.74650560919511066</v>
+        <v>0.61219181887215868</v>
       </c>
       <c r="F82">
-        <v>0.22015229493928279</v>
+        <v>0.3286919727409609</v>
       </c>
       <c r="G82">
         <v>0.63296703296703294</v>
@@ -9619,10 +9619,10 @@
         <v>0.29746153991515439</v>
       </c>
       <c r="I82">
-        <v>0.65272602620966214</v>
+        <v>0.62036494545299781</v>
       </c>
       <c r="J82">
-        <v>0.258461211407433</v>
+        <v>0.30608368933424551</v>
       </c>
       <c r="K82">
         <v>4550</v>
@@ -9634,10 +9634,10 @@
         <v>0.50003875326740488</v>
       </c>
       <c r="N82">
-        <v>0.74228118164173584</v>
+        <v>0.6189749303921348</v>
       </c>
       <c r="O82">
-        <v>0.22197910999624551</v>
+        <v>0.32169126575722817</v>
       </c>
       <c r="P82">
         <v>0.60109890109890107</v>
@@ -9646,10 +9646,10 @@
         <v>0.27279782213405129</v>
       </c>
       <c r="R82">
-        <v>0.63016093003476759</v>
+        <v>0.57349605149018101</v>
       </c>
       <c r="S82">
-        <v>0.26672618383439062</v>
+        <v>0.3423183011147603</v>
       </c>
       <c r="T82">
         <v>4550</v>
@@ -9661,10 +9661,10 @@
         <v>0.48537690575992393</v>
       </c>
       <c r="W82">
-        <v>0.73736705163066729</v>
+        <v>0.63909514466384243</v>
       </c>
       <c r="X82">
-        <v>0.2240854428879433</v>
+        <v>0.30300468553497562</v>
       </c>
       <c r="Y82">
         <v>0.62747252747252746</v>
@@ -9673,10 +9673,10 @@
         <v>0.334719013650494</v>
       </c>
       <c r="AA82">
-        <v>0.67134937140716988</v>
+        <v>0.51943303821278297</v>
       </c>
       <c r="AB82">
-        <v>0.25143543946663571</v>
+        <v>0.40630427377827538</v>
       </c>
       <c r="AC82">
         <v>4550</v>
@@ -9688,10 +9688,10 @@
         <v>0.52012629810877842</v>
       </c>
       <c r="AF82">
-        <v>0.74613202036385995</v>
+        <v>0.66482514497116407</v>
       </c>
       <c r="AG82">
-        <v>0.2203144605750188</v>
+        <v>0.28857650027284459</v>
       </c>
       <c r="AH82">
         <v>0.61098901098901104</v>
@@ -9700,10 +9700,10 @@
         <v>0.34660714168128559</v>
       </c>
       <c r="AJ82">
-        <v>0.66020964038412078</v>
+        <v>0.48564882102307061</v>
       </c>
       <c r="AK82">
-        <v>0.25566117687798701</v>
+        <v>0.43463975324084858</v>
       </c>
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.3">
@@ -9720,10 +9720,10 @@
         <v>0.50160651918657961</v>
       </c>
       <c r="E83">
-        <v>0.75016521628335997</v>
+        <v>0.65147676049013059</v>
       </c>
       <c r="F83">
-        <v>0.2182439799458594</v>
+        <v>0.30479506490155528</v>
       </c>
       <c r="G83">
         <v>0.62391304347826082</v>
@@ -9732,10 +9732,10 @@
         <v>0.30804815286151521</v>
       </c>
       <c r="I83">
-        <v>0.6565255959688483</v>
+        <v>0.49243941253370271</v>
       </c>
       <c r="J83">
-        <v>0.25626921985185469</v>
+        <v>0.38174230663724912</v>
       </c>
       <c r="K83">
         <v>4600</v>
@@ -9747,10 +9747,10 @@
         <v>0.50145040491242532</v>
       </c>
       <c r="N83">
-        <v>0.73924705994339268</v>
+        <v>0.60385275915278336</v>
       </c>
       <c r="O83">
-        <v>0.2229617826483703</v>
+        <v>0.33229360935151708</v>
       </c>
       <c r="P83">
         <v>0.60652173913043483</v>
@@ -9759,10 +9759,10 @@
         <v>0.32592656058377079</v>
       </c>
       <c r="R83">
-        <v>0.63424125860039238</v>
+        <v>0.60717056820749771</v>
       </c>
       <c r="S83">
-        <v>0.2644518531012699</v>
+        <v>0.30602180012246732</v>
       </c>
       <c r="T83">
         <v>4600</v>
@@ -9774,10 +9774,10 @@
         <v>0.47531954597944159</v>
       </c>
       <c r="W83">
-        <v>0.73203480523317932</v>
+        <v>0.60482991859530555</v>
       </c>
       <c r="X83">
-        <v>0.22602423879252229</v>
+        <v>0.33254954305685319</v>
       </c>
       <c r="Y83">
         <v>0.6076086956521739</v>
@@ -9786,10 +9786,10 @@
         <v>0.28770297606018252</v>
       </c>
       <c r="AA83">
-        <v>0.63708364857085864</v>
+        <v>0.60269035027814555</v>
       </c>
       <c r="AB83">
-        <v>0.26342229280724527</v>
+        <v>0.3048578577040269</v>
       </c>
       <c r="AC83">
         <v>4600</v>
@@ -9801,10 +9801,10 @@
         <v>0.49956481531339619</v>
       </c>
       <c r="AF83">
-        <v>0.74878262990610556</v>
+        <v>0.62803521906322879</v>
       </c>
       <c r="AG83">
-        <v>0.21884702817066179</v>
+        <v>0.3181326238874656</v>
       </c>
       <c r="AH83">
         <v>0.61956521739130432</v>
@@ -9813,10 +9813,10 @@
         <v>0.35013454486723022</v>
       </c>
       <c r="AJ83">
-        <v>0.63765212656495196</v>
+        <v>0.59646456614047771</v>
       </c>
       <c r="AK83">
-        <v>0.2632158974979516</v>
+        <v>0.32698673698710612</v>
       </c>
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.3">
@@ -9833,10 +9833,10 @@
         <v>0.50527307358091877</v>
       </c>
       <c r="E84">
-        <v>0.75664657196881435</v>
+        <v>0.62173485180240573</v>
       </c>
       <c r="F84">
-        <v>0.21523305698057699</v>
+        <v>0.32318413769751098</v>
       </c>
       <c r="G84">
         <v>0.60967741935483866</v>
@@ -9845,10 +9845,10 @@
         <v>0.29045637130253699</v>
       </c>
       <c r="I84">
-        <v>0.64304687338821154</v>
+        <v>0.5903389076893899</v>
       </c>
       <c r="J84">
-        <v>0.25925866188700591</v>
+        <v>0.31350271026809923</v>
       </c>
       <c r="K84">
         <v>4650</v>
@@ -9860,10 +9860,10 @@
         <v>0.46692844256983501</v>
       </c>
       <c r="N84">
-        <v>0.72446398840918635</v>
+        <v>0.58500242657825541</v>
       </c>
       <c r="O84">
-        <v>0.22902317110551451</v>
+        <v>0.34298572640897568</v>
       </c>
       <c r="P84">
         <v>0.60967741935483866</v>
@@ -9872,10 +9872,10 @@
         <v>0.27025789579733589</v>
       </c>
       <c r="R84">
-        <v>0.65378230576751339</v>
+        <v>0.6421823446363697</v>
       </c>
       <c r="S84">
-        <v>0.25533027315047618</v>
+        <v>0.27444915622790528</v>
       </c>
       <c r="T84">
         <v>4650</v>
@@ -9887,10 +9887,10 @@
         <v>0.49748888905890581</v>
       </c>
       <c r="W84">
-        <v>0.7523254352556743</v>
+        <v>0.6201971780989286</v>
       </c>
       <c r="X84">
-        <v>0.21713555550016581</v>
+        <v>0.32779042307189798</v>
       </c>
       <c r="Y84">
         <v>0.59247311827956994</v>
@@ -9899,10 +9899,10 @@
         <v>0.31483641286881819</v>
       </c>
       <c r="AA84">
-        <v>0.65104134430896821</v>
+        <v>0.65427781762959913</v>
       </c>
       <c r="AB84">
-        <v>0.25633898926880949</v>
+        <v>0.27124531282894643</v>
       </c>
       <c r="AC84">
         <v>4650</v>
@@ -9914,10 +9914,10 @@
         <v>0.47196882452920907</v>
       </c>
       <c r="AF84">
-        <v>0.74393734634193187</v>
+        <v>0.69325450722954196</v>
       </c>
       <c r="AG84">
-        <v>0.22078184630062769</v>
+        <v>0.2684054220178182</v>
       </c>
       <c r="AH84">
         <v>0.61505376344086027</v>
@@ -9926,10 +9926,10 @@
         <v>0.33549757972805028</v>
       </c>
       <c r="AJ84">
-        <v>0.64378921711656756</v>
+        <v>0.42337141493098368</v>
       </c>
       <c r="AK84">
-        <v>0.25898893570421938</v>
+        <v>0.4832283770234167</v>
       </c>
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.3">
@@ -9946,10 +9946,10 @@
         <v>0.48158031650365662</v>
       </c>
       <c r="E85">
-        <v>0.73816941106660738</v>
+        <v>0.59912016290841863</v>
       </c>
       <c r="F85">
-        <v>0.22306496525318409</v>
+        <v>0.33388622027948001</v>
       </c>
       <c r="G85">
         <v>0.59680851063829787</v>
@@ -9958,10 +9958,10 @@
         <v>0.31425628805958622</v>
       </c>
       <c r="I85">
-        <v>0.66681015154319523</v>
+        <v>0.65854622061292933</v>
       </c>
       <c r="J85">
-        <v>0.25260346521435112</v>
+        <v>0.27967486428939842</v>
       </c>
       <c r="K85">
         <v>4700</v>
@@ -9973,10 +9973,10 @@
         <v>0.4779246947069537</v>
       </c>
       <c r="N85">
-        <v>0.73541818599254016</v>
+        <v>0.59623090253715882</v>
       </c>
       <c r="O85">
-        <v>0.22421257011092099</v>
+        <v>0.33802052115138048</v>
       </c>
       <c r="P85">
         <v>0.60531914893617023</v>
@@ -9985,10 +9985,10 @@
         <v>0.25902231312637791</v>
       </c>
       <c r="R85">
-        <v>0.62942078129865353</v>
+        <v>0.63160160427650514</v>
       </c>
       <c r="S85">
-        <v>0.26649817371934209</v>
+        <v>0.27779611578631952</v>
       </c>
       <c r="T85">
         <v>4700</v>
@@ -10000,10 +10000,10 @@
         <v>0.47293848710999298</v>
       </c>
       <c r="W85">
-        <v>0.72427247511006987</v>
+        <v>0.63980241698328921</v>
       </c>
       <c r="X85">
-        <v>0.22890813915239619</v>
+        <v>0.30427971768348577</v>
       </c>
       <c r="Y85">
         <v>0.59893617021276591</v>
@@ -10012,10 +10012,10 @@
         <v>0.32844940843643122</v>
       </c>
       <c r="AA85">
-        <v>0.65686667323813208</v>
+        <v>0.49483094840666358</v>
       </c>
       <c r="AB85">
-        <v>0.25634501352171218</v>
+        <v>0.39778275707094679</v>
       </c>
       <c r="AC85">
         <v>4700</v>
@@ -10027,10 +10027,10 @@
         <v>0.4934479143950069</v>
       </c>
       <c r="AF85">
-        <v>0.74810579025003299</v>
+        <v>0.60768764398649466</v>
       </c>
       <c r="AG85">
-        <v>0.2187914094544478</v>
+        <v>0.32681713827732811</v>
       </c>
       <c r="AH85">
         <v>0.61595744680851061</v>
@@ -10039,10 +10039,10 @@
         <v>0.39983312411795491</v>
       </c>
       <c r="AJ85">
-        <v>0.68536390435822903</v>
+        <v>0.66065138135409018</v>
       </c>
       <c r="AK85">
-        <v>0.2454695890511413</v>
+        <v>0.29266565462646682</v>
       </c>
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.3">
@@ -10059,10 +10059,10 @@
         <v>0.49280721433847019</v>
       </c>
       <c r="E86">
-        <v>0.73783599630320729</v>
+        <v>0.64233415294364371</v>
       </c>
       <c r="F86">
-        <v>0.223453751249265</v>
+        <v>0.30432237797261541</v>
       </c>
       <c r="G86">
         <v>0.61578947368421055</v>
@@ -10071,10 +10071,10 @@
         <v>0.35491932188924807</v>
       </c>
       <c r="I86">
-        <v>0.65735134813749219</v>
+        <v>0.49487323773725012</v>
       </c>
       <c r="J86">
-        <v>0.25583711923594538</v>
+        <v>0.39177931002138061</v>
       </c>
       <c r="K86">
         <v>4750</v>
@@ -10086,10 +10086,10 @@
         <v>0.48535404617833222</v>
       </c>
       <c r="N86">
-        <v>0.74166330889011634</v>
+        <v>0.65312956922111454</v>
       </c>
       <c r="O86">
-        <v>0.22181666208593831</v>
+        <v>0.30225286432757492</v>
       </c>
       <c r="P86">
         <v>0.6021052631578947</v>
@@ -10098,10 +10098,10 @@
         <v>0.29383565251476129</v>
       </c>
       <c r="R86">
-        <v>0.65696560665099535</v>
+        <v>0.50200298229179463</v>
       </c>
       <c r="S86">
-        <v>0.25598108482751941</v>
+        <v>0.37746339457521078</v>
       </c>
       <c r="T86">
         <v>4750</v>
@@ -10113,10 +10113,10 @@
         <v>0.46765393297975538</v>
       </c>
       <c r="W86">
-        <v>0.74032305863405079</v>
+        <v>0.59125789585868982</v>
       </c>
       <c r="X86">
-        <v>0.22239130994002909</v>
+        <v>0.33963275775811391</v>
       </c>
       <c r="Y86">
         <v>0.59684210526315784</v>
@@ -10125,10 +10125,10 @@
         <v>0.31735843927284679</v>
       </c>
       <c r="AA86">
-        <v>0.65018757767397894</v>
+        <v>0.64235154288668594</v>
       </c>
       <c r="AB86">
-        <v>0.25849768399654749</v>
+        <v>0.27452980336485672</v>
       </c>
       <c r="AC86">
         <v>4750</v>
@@ -10140,10 +10140,10 @@
         <v>0.51060639718804246</v>
       </c>
       <c r="AF86">
-        <v>0.75165300925233725</v>
+        <v>0.64462239104424923</v>
       </c>
       <c r="AG86">
-        <v>0.21748563170931551</v>
+        <v>0.30499106058678999</v>
       </c>
       <c r="AH86">
         <v>0.61263157894736842</v>
@@ -10152,10 +10152,10 @@
         <v>0.29014437599486642</v>
       </c>
       <c r="AJ86">
-        <v>0.64418103166995611</v>
+        <v>0.48816714356094287</v>
       </c>
       <c r="AK86">
-        <v>0.26070753930914919</v>
+        <v>0.38699917150008112</v>
       </c>
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.3">
@@ -10172,10 +10172,10 @@
         <v>0.5068316386549816</v>
       </c>
       <c r="E87">
-        <v>0.75763693875784477</v>
+        <v>0.63166556335523039</v>
       </c>
       <c r="F87">
-        <v>0.21469455046647079</v>
+        <v>0.31620911054883372</v>
       </c>
       <c r="G87">
         <v>0.61458333333333337</v>
@@ -10184,10 +10184,10 @@
         <v>0.31310084410732791</v>
       </c>
       <c r="I87">
-        <v>0.67972094787282922</v>
+        <v>0.61903169487207133</v>
       </c>
       <c r="J87">
-        <v>0.24696069187895739</v>
+        <v>0.30668013814135042</v>
       </c>
       <c r="K87">
         <v>4800</v>
@@ -10199,10 +10199,10 @@
         <v>0.50164933501272313</v>
       </c>
       <c r="N87">
-        <v>0.75326892652415856</v>
+        <v>0.62177847027493149</v>
       </c>
       <c r="O87">
-        <v>0.21662058804893561</v>
+        <v>0.32221789818697688</v>
       </c>
       <c r="P87">
         <v>0.60312500000000002</v>
@@ -10211,10 +10211,10 @@
         <v>0.25153519184660872</v>
       </c>
       <c r="R87">
-        <v>0.62873886818324376</v>
+        <v>0.56509141795562423</v>
       </c>
       <c r="S87">
-        <v>0.26589079838660579</v>
+        <v>0.31947728172343859</v>
       </c>
       <c r="T87">
         <v>4800</v>
@@ -10226,10 +10226,10 @@
         <v>0.49777508625698219</v>
       </c>
       <c r="W87">
-        <v>0.74382087498421012</v>
+        <v>0.61149044376702499</v>
       </c>
       <c r="X87">
-        <v>0.22072914208746119</v>
+        <v>0.32568103260535142</v>
       </c>
       <c r="Y87">
         <v>0.60729166666666667</v>
@@ -10238,10 +10238,10 @@
         <v>0.35182206955796758</v>
       </c>
       <c r="AA87">
-        <v>0.66779595498406352</v>
+        <v>0.65232055694402624</v>
       </c>
       <c r="AB87">
-        <v>0.25151623539379447</v>
+        <v>0.2892661351766741</v>
       </c>
       <c r="AC87">
         <v>4800</v>
@@ -10253,10 +10253,10 @@
         <v>0.49405180334246629</v>
       </c>
       <c r="AF87">
-        <v>0.76852273727126352</v>
+        <v>0.66664999580899287</v>
       </c>
       <c r="AG87">
-        <v>0.20981762914493149</v>
+        <v>0.2935543380343823</v>
       </c>
       <c r="AH87">
         <v>0.61354166666666665</v>
@@ -10265,10 +10265,10 @@
         <v>0.32613859904426612</v>
       </c>
       <c r="AJ87">
-        <v>0.60516239141692263</v>
+        <v>0.46195715950400212</v>
       </c>
       <c r="AK87">
-        <v>0.27420339166392532</v>
+        <v>0.40087661426089188</v>
       </c>
     </row>
     <row r="88" spans="1:37" x14ac:dyDescent="0.3">
@@ -10285,10 +10285,10 @@
         <v>0.52203391450130199</v>
       </c>
       <c r="E88">
-        <v>0.76195846392255451</v>
+        <v>0.6285032926217029</v>
       </c>
       <c r="F88">
-        <v>0.21315015761364481</v>
+        <v>0.31935376559622669</v>
       </c>
       <c r="G88">
         <v>0.61340206185567014</v>
@@ -10297,10 +10297,10 @@
         <v>0.27778207507807451</v>
       </c>
       <c r="I88">
-        <v>0.64333805776706732</v>
+        <v>0.57410014463255454</v>
       </c>
       <c r="J88">
-        <v>0.25999603486270689</v>
+        <v>0.3194087113168434</v>
       </c>
       <c r="K88">
         <v>4850</v>
@@ -10312,10 +10312,10 @@
         <v>0.49405047289677889</v>
       </c>
       <c r="N88">
-        <v>0.748508874069302</v>
+        <v>0.60851799295838382</v>
       </c>
       <c r="O88">
-        <v>0.2190890230020664</v>
+        <v>0.3305460157260342</v>
       </c>
       <c r="P88">
         <v>0.60309278350515461</v>
@@ -10324,10 +10324,10 @@
         <v>0.26828109587723997</v>
       </c>
       <c r="R88">
-        <v>0.66297431842683374</v>
+        <v>0.62451028735351</v>
       </c>
       <c r="S88">
-        <v>0.25273758853758538</v>
+        <v>0.28824810578013738</v>
       </c>
       <c r="T88">
         <v>4850</v>
@@ -10339,10 +10339,10 @@
         <v>0.46532368210048319</v>
       </c>
       <c r="W88">
-        <v>0.72720018653071516</v>
+        <v>0.59877433501341248</v>
       </c>
       <c r="X88">
-        <v>0.2281819675374861</v>
+        <v>0.33263828660943839</v>
       </c>
       <c r="Y88">
         <v>0.6</v>
@@ -10351,10 +10351,10 @@
         <v>0.31825802960124988</v>
       </c>
       <c r="AA88">
-        <v>0.66194083102368806</v>
+        <v>0.65040868701661925</v>
       </c>
       <c r="AB88">
-        <v>0.25312480113266972</v>
+        <v>0.28635037172020322</v>
       </c>
       <c r="AC88">
         <v>4850</v>
@@ -10366,10 +10366,10 @@
         <v>0.50729791271845026</v>
       </c>
       <c r="AF88">
-        <v>0.76071613232968371</v>
+        <v>0.61788961240827356</v>
       </c>
       <c r="AG88">
-        <v>0.21370564590759761</v>
+        <v>0.32972568183485951</v>
       </c>
       <c r="AH88">
         <v>0.60618556701030923</v>
@@ -10378,10 +10378,10 @@
         <v>0.27422571370133181</v>
       </c>
       <c r="AJ88">
-        <v>0.60847145642936562</v>
+        <v>0.60196378603019607</v>
       </c>
       <c r="AK88">
-        <v>0.27240812316634438</v>
+        <v>0.28174033258853343</v>
       </c>
     </row>
     <row r="89" spans="1:37" x14ac:dyDescent="0.3">
@@ -10398,10 +10398,10 @@
         <v>0.51635140362524867</v>
       </c>
       <c r="E89">
-        <v>0.75550354176928647</v>
+        <v>0.6564704351574604</v>
       </c>
       <c r="F89">
-        <v>0.21571546830328631</v>
+        <v>0.29682970344342241</v>
       </c>
       <c r="G89">
         <v>0.60918367346938773</v>
@@ -10410,10 +10410,10 @@
         <v>0.29673821971746323</v>
       </c>
       <c r="I89">
-        <v>0.6565279477674073</v>
+        <v>0.50561554649801366</v>
       </c>
       <c r="J89">
-        <v>0.25451033417934449</v>
+        <v>0.38807437893263602</v>
       </c>
       <c r="K89">
         <v>4900</v>
@@ -10425,10 +10425,10 @@
         <v>0.47571496813398428</v>
       </c>
       <c r="N89">
-        <v>0.74362788462371254</v>
+        <v>0.59794764377738097</v>
       </c>
       <c r="O89">
-        <v>0.22089220752878261</v>
+        <v>0.33159567372312138</v>
       </c>
       <c r="P89">
         <v>0.61224489795918369</v>
@@ -10437,10 +10437,10 @@
         <v>0.30726840040094622</v>
       </c>
       <c r="R89">
-        <v>0.65706901905321802</v>
+        <v>0.63399545433939219</v>
       </c>
       <c r="S89">
-        <v>0.25430979019250338</v>
+        <v>0.29428334795382732</v>
       </c>
       <c r="T89">
         <v>4900</v>
@@ -10452,10 +10452,10 @@
         <v>0.46946234995885761</v>
       </c>
       <c r="W89">
-        <v>0.71525230203095891</v>
+        <v>0.57679233126437857</v>
       </c>
       <c r="X89">
-        <v>0.23279578508001469</v>
+        <v>0.3437647757920092</v>
       </c>
       <c r="Y89">
         <v>0.59693877551020413</v>
@@ -10464,10 +10464,10 @@
         <v>0.2719142611476465</v>
       </c>
       <c r="AA89">
-        <v>0.6585840186534877</v>
+        <v>0.66417368971942703</v>
       </c>
       <c r="AB89">
-        <v>0.25374742383330873</v>
+        <v>0.26781528394536519</v>
       </c>
       <c r="AC89">
         <v>4900</v>
@@ -10479,10 +10479,10 @@
         <v>0.51539278560062796</v>
       </c>
       <c r="AF89">
-        <v>0.74823874924908207</v>
+        <v>0.64563836134525032</v>
       </c>
       <c r="AG89">
-        <v>0.21889681662036711</v>
+        <v>0.30384316313820531</v>
       </c>
       <c r="AH89">
         <v>0.6</v>
@@ -10491,10 +10491,10 @@
         <v>0.29855938400923798</v>
       </c>
       <c r="AJ89">
-        <v>0.65192884183801691</v>
+        <v>0.50863306782108797</v>
       </c>
       <c r="AK89">
-        <v>0.25620862035235492</v>
+        <v>0.37647956441595343</v>
       </c>
     </row>
     <row r="90" spans="1:37" x14ac:dyDescent="0.3">
@@ -10511,10 +10511,10 @@
         <v>0.5169043193945384</v>
       </c>
       <c r="E90">
-        <v>0.75465589753703144</v>
+        <v>0.65059586234176137</v>
       </c>
       <c r="F90">
-        <v>0.21567956965757501</v>
+        <v>0.29082108587927791</v>
       </c>
       <c r="G90">
         <v>0.61717171717171715</v>
@@ -10523,10 +10523,10 @@
         <v>0.31558099995017541</v>
       </c>
       <c r="I90">
-        <v>0.6938611734663056</v>
+        <v>0.53827453451894325</v>
       </c>
       <c r="J90">
-        <v>0.24053811726748389</v>
+        <v>0.40480001865124637</v>
       </c>
       <c r="K90">
         <v>4950</v>
@@ -10538,10 +10538,10 @@
         <v>0.46854520490637003</v>
       </c>
       <c r="N90">
-        <v>0.744626902957225</v>
+        <v>0.62045779971008241</v>
       </c>
       <c r="O90">
-        <v>0.22004361367508921</v>
+        <v>0.32122368013294528</v>
       </c>
       <c r="P90">
         <v>0.59696969696969693</v>
@@ -10550,10 +10550,10 @@
         <v>0.29961223899172029</v>
       </c>
       <c r="R90">
-        <v>0.63956001289398823</v>
+        <v>0.57582922852948104</v>
       </c>
       <c r="S90">
-        <v>0.26100040636215899</v>
+        <v>0.31620707391028602</v>
       </c>
       <c r="T90">
         <v>4950</v>
@@ -10565,10 +10565,10 @@
         <v>0.45899313732949942</v>
       </c>
       <c r="W90">
-        <v>0.73578327427064916</v>
+        <v>0.61106453095910951</v>
       </c>
       <c r="X90">
-        <v>0.223821267077013</v>
+        <v>0.32729166540103571</v>
       </c>
       <c r="Y90">
         <v>0.60303030303030303</v>
@@ -10577,10 +10577,10 @@
         <v>0.3156068988915019</v>
       </c>
       <c r="AA90">
-        <v>0.69664036672394392</v>
+        <v>0.6744836513364989</v>
       </c>
       <c r="AB90">
-        <v>0.23944379994757289</v>
+        <v>0.26851368169564138</v>
       </c>
       <c r="AC90">
         <v>4950</v>
@@ -10592,10 +10592,10 @@
         <v>0.49471982200466058</v>
       </c>
       <c r="AF90">
-        <v>0.76108883828344109</v>
+        <v>0.62270441016764333</v>
       </c>
       <c r="AG90">
-        <v>0.21283322061647189</v>
+        <v>0.32184687984997812</v>
       </c>
       <c r="AH90">
         <v>0.61313131313131308</v>
@@ -10604,10 +10604,10 @@
         <v>0.3565316579026046</v>
       </c>
       <c r="AJ90">
-        <v>0.64944752736827827</v>
+        <v>0.64396692859947235</v>
       </c>
       <c r="AK90">
-        <v>0.25739565896208361</v>
+        <v>0.28302418492936998</v>
       </c>
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.3">
@@ -10624,10 +10624,10 @@
         <v>0.50531155747244971</v>
       </c>
       <c r="E91">
-        <v>0.75395419542307351</v>
+        <v>0.6086323827708453</v>
       </c>
       <c r="F91">
-        <v>0.21652261677769011</v>
+        <v>0.33151151466758461</v>
       </c>
       <c r="G91">
         <v>0.62062062062062062</v>
@@ -10636,10 +10636,10 @@
         <v>0.29515268558591329</v>
       </c>
       <c r="I91">
-        <v>0.65761643799429015</v>
+        <v>0.67284942952475602</v>
       </c>
       <c r="J91">
-        <v>0.25379994959497998</v>
+        <v>0.25908915128479398</v>
       </c>
       <c r="K91">
         <v>4992</v>
@@ -10651,10 +10651,10 @@
         <v>0.49361923306097588</v>
       </c>
       <c r="N91">
-        <v>0.74715902015778135</v>
+        <v>0.60854904284313593</v>
       </c>
       <c r="O91">
-        <v>0.21949216253998419</v>
+        <v>0.33057057471356821</v>
       </c>
       <c r="P91">
         <v>0.60660660660660659</v>
@@ -10663,10 +10663,10 @@
         <v>0.26040516072564363</v>
       </c>
       <c r="R91">
-        <v>0.64984829501793673</v>
+        <v>0.65535654073612193</v>
       </c>
       <c r="S91">
-        <v>0.25666296163622032</v>
+        <v>0.27018138457551438</v>
       </c>
       <c r="T91">
         <v>4992</v>
@@ -10678,10 +10678,10 @@
         <v>0.50652445140615321</v>
       </c>
       <c r="W91">
-        <v>0.75511082100014459</v>
+        <v>0.64910555939144099</v>
       </c>
       <c r="X91">
-        <v>0.21601309659677431</v>
+        <v>0.30310243640394641</v>
       </c>
       <c r="Y91">
         <v>0.60260260260260257</v>
@@ -10690,10 +10690,10 @@
         <v>0.27440158689496053</v>
       </c>
       <c r="AA91">
-        <v>0.64144167453667778</v>
+        <v>0.5076907386500874</v>
       </c>
       <c r="AB91">
-        <v>0.25972573506962582</v>
+        <v>0.37203686180260931</v>
       </c>
       <c r="AC91">
         <v>4992</v>
@@ -10705,10 +10705,10 @@
         <v>0.49916453806559979</v>
       </c>
       <c r="AF91">
-        <v>0.75897500190535916</v>
+        <v>0.6528726031639458</v>
       </c>
       <c r="AG91">
-        <v>0.2143020517784274</v>
+        <v>0.30468090852592539</v>
       </c>
       <c r="AH91">
         <v>0.60160160160160159</v>
@@ -10717,10 +10717,10 @@
         <v>0.28063942489878307</v>
       </c>
       <c r="AJ91">
-        <v>0.64351672642762137</v>
+        <v>0.5114558200148922</v>
       </c>
       <c r="AK91">
-        <v>0.25897310104925392</v>
+        <v>0.35552948733591327</v>
       </c>
     </row>
   </sheetData>
